--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807395.521405692</v>
+        <v>1789983.517698563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3817463.914172344</v>
+        <v>3857372.845747225</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11119949.81033198</v>
+        <v>11127665.29082265</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6306132.403926454</v>
+        <v>6300303.955064187</v>
       </c>
     </row>
     <row r="11">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.19678572359342</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>158.4675005399119</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>158.4675005399119</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>158.4675005399119</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="I20" t="n">
-        <v>124.3813887519609</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>66.50063703902171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.04854593277332</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>139.7273686620034</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>83.16470274773937</v>
       </c>
       <c r="C21" t="n">
-        <v>86.61399816987075</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>71.55057963695596</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>58.97471157493889</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1072068297205483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.028151949287107</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16.78935325051516</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>88.31469020170985</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>116.7962477926936</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>11.20593668747568</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>158.4675005399119</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X21" t="n">
-        <v>119.6784843850325</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.5881949588594</v>
+        <v>122.3142148751764</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.87592169031353</v>
+        <v>96.46349927980933</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>60.33946182812419</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.89647854001377</v>
+        <v>84.62249845633079</v>
       </c>
       <c r="H22" t="n">
-        <v>76.13267168899459</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.08199402513031</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.793562349566415</v>
       </c>
       <c r="R22" t="n">
-        <v>91.1988905587245</v>
+        <v>93.92491047504151</v>
       </c>
       <c r="S22" t="n">
-        <v>137.9220972185273</v>
+        <v>94.72683291871886</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X22" t="n">
-        <v>139.6151545705922</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>38.11875750197944</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>66.50063703902171</v>
       </c>
       <c r="S23" t="n">
-        <v>122.9255687678004</v>
+        <v>69.43916872397791</v>
       </c>
       <c r="T23" t="n">
-        <v>137.0013487456864</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="V23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.679445880687678</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>51.24901634476566</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>26.14094341805149</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.302132032970107</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>16.78935325051516</v>
       </c>
       <c r="S24" t="n">
-        <v>85.58867028539285</v>
+        <v>88.31469020170985</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>116.7962477926936</v>
       </c>
       <c r="U24" t="n">
-        <v>139.8468812625298</v>
+        <v>142.5729011788468</v>
       </c>
       <c r="V24" t="n">
-        <v>146.7060863309803</v>
+        <v>149.4321062472973</v>
       </c>
       <c r="W24" t="n">
-        <v>158.4675005399118</v>
+        <v>85.04474470433327</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.73747936349233</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>81.15232028018286</v>
+        <v>83.87834019649986</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>39.60261675690519</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.08199402513031</v>
       </c>
       <c r="J25" t="n">
-        <v>7.264679298227804</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.06754243324941456</v>
+        <v>2.793562349566415</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>93.92491047504151</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.185847075983536</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6151545705922</v>
+        <v>142.3411744869092</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.4901525336498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4675005399118</v>
+        <v>135.9398057629996</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="E26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>84.48928336130489</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.118806467881126</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>65.66327875651361</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>57.93758352634036</v>
+        <v>53.97503626108266</v>
       </c>
       <c r="H27" t="n">
-        <v>32.82951059962619</v>
+        <v>28.86696333436849</v>
       </c>
       <c r="I27" t="n">
-        <v>9.990699214544804</v>
+        <v>6.028151949287107</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.75190051577286</v>
+        <v>16.78935325051516</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>120.7587950579513</v>
+        <v>116.7962477926936</v>
       </c>
       <c r="U27" t="n">
-        <v>146.5354484441045</v>
+        <v>142.5729011788468</v>
       </c>
       <c r="V27" t="n">
-        <v>153.394653512555</v>
+        <v>149.4321062472973</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.50522537081445</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.84088746175756</v>
+        <v>83.87834019649986</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,22 +2755,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.756109614824112</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>71.18203898733179</v>
       </c>
       <c r="S28" t="n">
-        <v>144.610664400102</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="V28" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.2161724499668</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="C29" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.49732113218694</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>39.44248463081271</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>60.47305475181928</v>
+        <v>62.28186567797877</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>37.01843225430179</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>47.21844714506398</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>34.64257908304691</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>26.91688385287367</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.44772686734136</v>
+        <v>61.25653779350085</v>
       </c>
       <c r="T30" t="n">
-        <v>87.92928445832514</v>
+        <v>89.73809538448464</v>
       </c>
       <c r="U30" t="n">
-        <v>113.7059378444784</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>120.5651429129288</v>
+        <v>49.27478782403752</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>79.41227771958899</v>
+        <v>95.34635189314051</v>
       </c>
       <c r="Y30" t="n">
-        <v>93.4472515408079</v>
+        <v>95.25606246696739</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.99419929826541</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.7555351219623</v>
+        <v>57.56434604812179</v>
       </c>
       <c r="H31" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.21503069076182</v>
+        <v>45.02384161692132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>113.5899647266353</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>117.5189561179445</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="V31" t="n">
-        <v>139.9021990873316</v>
+        <v>110.9161889949743</v>
       </c>
       <c r="W31" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="D32" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>36.68831578250458</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>112.6692162537944</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>140.9190195974995</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>35.20962132814229</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>32.83376815688742</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.44772686734136</v>
+        <v>61.25653779350085</v>
       </c>
       <c r="T33" t="n">
-        <v>87.92928445832514</v>
+        <v>89.73809538448464</v>
       </c>
       <c r="U33" t="n">
-        <v>20.98026897971964</v>
+        <v>115.5147487706379</v>
       </c>
       <c r="V33" t="n">
-        <v>120.5651429129288</v>
+        <v>122.3739538390883</v>
       </c>
       <c r="W33" t="n">
-        <v>139.4595389244232</v>
+        <v>19.46429322757647</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>95.34635189314051</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.4472515408079</v>
+        <v>95.25606246696739</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.05794714067302</v>
+        <v>66.86675806683252</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X34" t="n">
-        <v>113.4742111525407</v>
+        <v>115.2830220787002</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.29848603149064</v>
+        <v>108.1267714882658</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>135.9398057629996</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>5.87895776283803</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>16.89788180956446</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
-        <v>55.67257954196882</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>10.12379664243263</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>136.5447492295598</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>24.87675325304252</v>
+        <v>6.816930062235368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>20.278916293427</v>
       </c>
       <c r="F38" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>44.72302156791959</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T38" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C39" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>68.24844760398587</v>
+        <v>7.260566191213975</v>
       </c>
       <c r="F39" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W39" t="n">
-        <v>17.06157263772553</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X39" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y39" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
-        <v>73.83589395208969</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.053123211216174</v>
       </c>
       <c r="U40" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="W40" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X40" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.576825729867977</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>66.50063703902171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.43916872397791</v>
       </c>
       <c r="T41" t="n">
-        <v>137.0013487456864</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Y41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.43868283142237</v>
+        <v>83.16470274773937</v>
       </c>
       <c r="C42" t="n">
-        <v>48.25181401402386</v>
+        <v>89.34001808618777</v>
       </c>
       <c r="D42" t="n">
-        <v>61.35056474619378</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.55057963695597</v>
+        <v>74.27659955327297</v>
       </c>
       <c r="F42" t="n">
-        <v>58.97471157493891</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>51.24901634476566</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>26.14094341805149</v>
+        <v>28.86696333436849</v>
       </c>
       <c r="I42" t="n">
-        <v>3.302132032970107</v>
+        <v>6.028151949287107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.06333333419816</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.58867028539285</v>
+        <v>57.90445873299988</v>
       </c>
       <c r="T42" t="n">
-        <v>114.0702278763766</v>
+        <v>116.7962477926936</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>142.5729011788468</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.41822879935938</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>45.410955528315</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>78.85869160531161</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.08199402513031</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06754243324941456</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>93.92491047504151</v>
       </c>
       <c r="S43" t="n">
-        <v>137.9220972185273</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="W43" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6151545705922</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.4901525336498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>618.5197135499571</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="C20" t="n">
-        <v>458.4515311864098</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="D20" t="n">
-        <v>458.4515311864098</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="E20" t="n">
-        <v>298.3833488228624</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="F20" t="n">
-        <v>298.3833488228624</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="G20" t="n">
-        <v>138.3151664593151</v>
+        <v>168.2426425694607</v>
       </c>
       <c r="H20" t="n">
-        <v>138.3151664593151</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K20" t="n">
-        <v>115.6924059541153</v>
+        <v>115.3619455805863</v>
       </c>
       <c r="L20" t="n">
-        <v>115.6924059541153</v>
+        <v>115.3619455805863</v>
       </c>
       <c r="M20" t="n">
-        <v>238.1321711904357</v>
+        <v>268.1553239926771</v>
       </c>
       <c r="N20" t="n">
-        <v>395.0149967249484</v>
+        <v>378.4919780484963</v>
       </c>
       <c r="O20" t="n">
-        <v>544.2099468675965</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="P20" t="n">
-        <v>633.8700021596475</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q20" t="n">
-        <v>633.8700021596475</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R20" t="n">
-        <v>633.8700021596475</v>
+        <v>550.1746228377189</v>
       </c>
       <c r="S20" t="n">
-        <v>633.8700021596475</v>
+        <v>465.2771016935034</v>
       </c>
       <c r="T20" t="n">
-        <v>633.8700021596475</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="U20" t="n">
-        <v>633.8700021596475</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="V20" t="n">
-        <v>633.8700021596475</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="W20" t="n">
-        <v>633.8700021596475</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="X20" t="n">
-        <v>633.8700021596475</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="Y20" t="n">
-        <v>633.8700021596475</v>
+        <v>324.1383454692575</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>232.1183053073204</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="C21" t="n">
-        <v>144.6294182670469</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="D21" t="n">
-        <v>144.6294182670469</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="E21" t="n">
-        <v>72.35610550244492</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="F21" t="n">
-        <v>12.7856897701834</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="G21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="H21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="I21" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J21" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K21" t="n">
-        <v>138.0349601010304</v>
+        <v>137.7044997275013</v>
       </c>
       <c r="L21" t="n">
-        <v>138.0349601010304</v>
+        <v>242.3656681456843</v>
       </c>
       <c r="M21" t="n">
-        <v>294.9177856355431</v>
+        <v>242.3656681456843</v>
       </c>
       <c r="N21" t="n">
-        <v>407.5926181118053</v>
+        <v>242.3656681456843</v>
       </c>
       <c r="O21" t="n">
-        <v>407.5926181118053</v>
+        <v>395.1590465577751</v>
       </c>
       <c r="P21" t="n">
-        <v>564.4754436463181</v>
+        <v>547.952424969866</v>
       </c>
       <c r="Q21" t="n">
-        <v>633.8700021596475</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R21" t="n">
-        <v>633.8700021596475</v>
+        <v>600.3880408059073</v>
       </c>
       <c r="S21" t="n">
-        <v>633.8700021596475</v>
+        <v>511.1812830264024</v>
       </c>
       <c r="T21" t="n">
-        <v>633.8700021596475</v>
+        <v>393.2052751549946</v>
       </c>
       <c r="U21" t="n">
-        <v>633.8700021596475</v>
+        <v>381.8861471878475</v>
       </c>
       <c r="V21" t="n">
-        <v>633.8700021596475</v>
+        <v>381.8861471878475</v>
       </c>
       <c r="W21" t="n">
-        <v>473.8018197961001</v>
+        <v>225.9904442880507</v>
       </c>
       <c r="X21" t="n">
-        <v>352.9144618314208</v>
+        <v>225.9904442880507</v>
       </c>
       <c r="Y21" t="n">
-        <v>232.1183053073204</v>
+        <v>102.440732292923</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>233.2517556564582</v>
+        <v>170.6343058125539</v>
       </c>
       <c r="C22" t="n">
-        <v>233.2517556564582</v>
+        <v>170.6343058125539</v>
       </c>
       <c r="D22" t="n">
-        <v>233.2517556564582</v>
+        <v>170.6343058125539</v>
       </c>
       <c r="E22" t="n">
-        <v>172.3028043149186</v>
+        <v>170.6343058125539</v>
       </c>
       <c r="F22" t="n">
-        <v>172.3028043149186</v>
+        <v>170.6343058125539</v>
       </c>
       <c r="G22" t="n">
-        <v>89.57908861793496</v>
+        <v>85.15703464454302</v>
       </c>
       <c r="H22" t="n">
-        <v>12.67740004319295</v>
+        <v>85.15703464454302</v>
       </c>
       <c r="I22" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J22" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K22" t="n">
-        <v>75.86415894582944</v>
+        <v>72.83493885514656</v>
       </c>
       <c r="L22" t="n">
-        <v>188.411839763803</v>
+        <v>182.6838599559662</v>
       </c>
       <c r="M22" t="n">
-        <v>312.8334337662858</v>
+        <v>304.4066942412952</v>
       </c>
       <c r="N22" t="n">
-        <v>441.7578402319825</v>
+        <v>430.6323409898381</v>
       </c>
       <c r="O22" t="n">
-        <v>551.3306726771424</v>
+        <v>537.5064137178441</v>
       </c>
       <c r="P22" t="n">
-        <v>633.8700021596475</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q22" t="n">
-        <v>633.8700021596475</v>
+        <v>614.5252033321182</v>
       </c>
       <c r="R22" t="n">
-        <v>541.7499106861884</v>
+        <v>519.6515563876318</v>
       </c>
       <c r="S22" t="n">
-        <v>402.4346609705043</v>
+        <v>423.9678867727642</v>
       </c>
       <c r="T22" t="n">
-        <v>402.4346609705043</v>
+        <v>423.9678867727642</v>
       </c>
       <c r="U22" t="n">
-        <v>402.4346609705043</v>
+        <v>423.9678867727642</v>
       </c>
       <c r="V22" t="n">
-        <v>402.4346609705043</v>
+        <v>423.9678867727642</v>
       </c>
       <c r="W22" t="n">
-        <v>402.4346609705043</v>
+        <v>268.0721838729674</v>
       </c>
       <c r="X22" t="n">
-        <v>261.4092523133405</v>
+        <v>268.0721838729674</v>
       </c>
       <c r="Y22" t="n">
-        <v>261.4092523133405</v>
+        <v>268.0721838729674</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="C23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K23" t="n">
-        <v>115.6924059541153</v>
+        <v>115.3619455805863</v>
       </c>
       <c r="L23" t="n">
-        <v>272.575231488628</v>
+        <v>268.1553239926771</v>
       </c>
       <c r="M23" t="n">
-        <v>272.575231488628</v>
+        <v>420.9487024047679</v>
       </c>
       <c r="N23" t="n">
-        <v>395.0149967249483</v>
+        <v>573.7420808168588</v>
       </c>
       <c r="O23" t="n">
-        <v>544.2099468675964</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="P23" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q23" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R23" t="n">
-        <v>633.8700021596474</v>
+        <v>550.1746228377189</v>
       </c>
       <c r="S23" t="n">
-        <v>509.702760980051</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="T23" t="n">
-        <v>371.3175602268325</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="U23" t="n">
-        <v>371.3175602268325</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="V23" t="n">
-        <v>211.2493778632852</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="W23" t="n">
-        <v>211.2493778632852</v>
+        <v>168.2426425694607</v>
       </c>
       <c r="X23" t="n">
-        <v>211.2493778632852</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.34693966966391</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="C24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F24" t="n">
-        <v>94.18456347328109</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G24" t="n">
-        <v>42.41788029675011</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H24" t="n">
-        <v>16.01288694518295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L24" t="n">
-        <v>12.67740004319295</v>
+        <v>165.1403180817547</v>
       </c>
       <c r="M24" t="n">
-        <v>93.82696704277981</v>
+        <v>317.9336964938456</v>
       </c>
       <c r="N24" t="n">
-        <v>250.7097925772925</v>
+        <v>470.7270749059364</v>
       </c>
       <c r="O24" t="n">
-        <v>407.5926181118053</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="P24" t="n">
-        <v>564.475443646318</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q24" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R24" t="n">
-        <v>633.8700021596474</v>
+        <v>600.3880408059073</v>
       </c>
       <c r="S24" t="n">
-        <v>547.4167998511697</v>
+        <v>511.1812830264024</v>
       </c>
       <c r="T24" t="n">
-        <v>547.4167998511697</v>
+        <v>393.2052751549946</v>
       </c>
       <c r="U24" t="n">
-        <v>406.1573238284122</v>
+        <v>249.1922436612099</v>
       </c>
       <c r="V24" t="n">
-        <v>257.969357837523</v>
+        <v>98.25072219929348</v>
       </c>
       <c r="W24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="X24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="Y24" t="n">
-        <v>97.90117547397571</v>
+        <v>12.34693966966391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.9875006274462</v>
+        <v>219.9768893596439</v>
       </c>
       <c r="C25" t="n">
-        <v>20.01545994039275</v>
+        <v>135.2512932015632</v>
       </c>
       <c r="D25" t="n">
-        <v>20.01545994039275</v>
+        <v>135.2512932015632</v>
       </c>
       <c r="E25" t="n">
-        <v>20.01545994039275</v>
+        <v>135.2512932015632</v>
       </c>
       <c r="F25" t="n">
-        <v>20.01545994039275</v>
+        <v>135.2512932015632</v>
       </c>
       <c r="G25" t="n">
-        <v>20.01545994039275</v>
+        <v>135.2512932015632</v>
       </c>
       <c r="H25" t="n">
-        <v>20.01545994039275</v>
+        <v>95.2486500127701</v>
       </c>
       <c r="I25" t="n">
-        <v>20.01545994039275</v>
+        <v>22.43855503789099</v>
       </c>
       <c r="J25" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K25" t="n">
-        <v>75.86415894582944</v>
+        <v>72.83493885514656</v>
       </c>
       <c r="L25" t="n">
-        <v>188.411839763803</v>
+        <v>182.6838599559662</v>
       </c>
       <c r="M25" t="n">
-        <v>312.8334337662857</v>
+        <v>304.4066942412952</v>
       </c>
       <c r="N25" t="n">
-        <v>441.7578402319825</v>
+        <v>430.6323409898381</v>
       </c>
       <c r="O25" t="n">
-        <v>551.3306726771423</v>
+        <v>537.5064137178441</v>
       </c>
       <c r="P25" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q25" t="n">
-        <v>633.8017774795975</v>
+        <v>614.5252033321182</v>
       </c>
       <c r="R25" t="n">
-        <v>633.8017774795975</v>
+        <v>519.6515563876318</v>
       </c>
       <c r="S25" t="n">
-        <v>633.8017774795975</v>
+        <v>519.6515563876318</v>
       </c>
       <c r="T25" t="n">
-        <v>631.5938511402202</v>
+        <v>519.6515563876318</v>
       </c>
       <c r="U25" t="n">
-        <v>471.5256687766728</v>
+        <v>519.6515563876318</v>
       </c>
       <c r="V25" t="n">
-        <v>471.5256687766728</v>
+        <v>519.6515563876318</v>
       </c>
       <c r="W25" t="n">
-        <v>471.5256687766728</v>
+        <v>363.755853487835</v>
       </c>
       <c r="X25" t="n">
-        <v>330.500260119509</v>
+        <v>219.9768893596439</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.6718232168324</v>
+        <v>219.9768893596439</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>332.8137647702875</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="C26" t="n">
-        <v>172.7455824067403</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="D26" t="n">
-        <v>172.7455824067403</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="E26" t="n">
-        <v>12.67740004319295</v>
+        <v>168.2426425694607</v>
       </c>
       <c r="F26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L26" t="n">
-        <v>81.24934565592287</v>
+        <v>72.90522122431463</v>
       </c>
       <c r="M26" t="n">
-        <v>238.1321711904356</v>
+        <v>225.6985996364055</v>
       </c>
       <c r="N26" t="n">
-        <v>395.0149967249483</v>
+        <v>378.4919780484963</v>
       </c>
       <c r="O26" t="n">
-        <v>544.2099468675964</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="P26" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q26" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R26" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S26" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="T26" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="U26" t="n">
-        <v>473.8018197961001</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="V26" t="n">
-        <v>332.8137647702875</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="W26" t="n">
-        <v>332.8137647702875</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="X26" t="n">
-        <v>332.8137647702875</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Y26" t="n">
-        <v>332.8137647702875</v>
+        <v>617.3469834831953</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.9702066744112</v>
+        <v>187.4574799787984</v>
       </c>
       <c r="C27" t="n">
-        <v>187.9702066744112</v>
+        <v>102.1147695128339</v>
       </c>
       <c r="D27" t="n">
-        <v>187.9702066744112</v>
+        <v>102.1147695128339</v>
       </c>
       <c r="E27" t="n">
-        <v>180.7794930704909</v>
+        <v>102.1147695128339</v>
       </c>
       <c r="F27" t="n">
-        <v>114.4529488719923</v>
+        <v>102.1147695128339</v>
       </c>
       <c r="G27" t="n">
-        <v>55.93013722922426</v>
+        <v>47.59453086527563</v>
       </c>
       <c r="H27" t="n">
-        <v>22.76901541142002</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="I27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="M27" t="n">
-        <v>93.82696704277981</v>
+        <v>89.57228973359344</v>
       </c>
       <c r="N27" t="n">
-        <v>250.7097925772925</v>
+        <v>242.3656681456843</v>
       </c>
       <c r="O27" t="n">
-        <v>407.5926181118053</v>
+        <v>395.1590465577751</v>
       </c>
       <c r="P27" t="n">
-        <v>564.475443646318</v>
+        <v>547.952424969866</v>
       </c>
       <c r="Q27" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R27" t="n">
-        <v>612.9084864871495</v>
+        <v>600.3880408059073</v>
       </c>
       <c r="S27" t="n">
-        <v>612.9084864871495</v>
+        <v>600.3880408059073</v>
       </c>
       <c r="T27" t="n">
-        <v>490.929905620532</v>
+        <v>482.4120329344996</v>
       </c>
       <c r="U27" t="n">
-        <v>342.9143011315375</v>
+        <v>338.3990014407149</v>
       </c>
       <c r="V27" t="n">
-        <v>187.9702066744112</v>
+        <v>187.4574799787984</v>
       </c>
       <c r="W27" t="n">
-        <v>187.9702066744112</v>
+        <v>187.4574799787984</v>
       </c>
       <c r="X27" t="n">
-        <v>187.9702066744112</v>
+        <v>187.4574799787984</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.9702066744112</v>
+        <v>187.4574799787984</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.4055691964834</v>
+        <v>97.07253582774459</v>
       </c>
       <c r="C28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K28" t="n">
-        <v>69.24247743607049</v>
+        <v>72.83493885514656</v>
       </c>
       <c r="L28" t="n">
-        <v>175.168476744285</v>
+        <v>182.6838599559662</v>
       </c>
       <c r="M28" t="n">
-        <v>292.9683892370088</v>
+        <v>304.4066942412952</v>
       </c>
       <c r="N28" t="n">
-        <v>415.2711141929467</v>
+        <v>430.6323409898381</v>
       </c>
       <c r="O28" t="n">
-        <v>518.2222651283475</v>
+        <v>537.5064137178441</v>
       </c>
       <c r="P28" t="n">
-        <v>594.1399131010937</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q28" t="n">
-        <v>587.3155599548068</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R28" t="n">
-        <v>587.3155599548068</v>
+        <v>545.445934001042</v>
       </c>
       <c r="S28" t="n">
-        <v>441.2441817728856</v>
+        <v>545.445934001042</v>
       </c>
       <c r="T28" t="n">
-        <v>441.2441817728856</v>
+        <v>545.445934001042</v>
       </c>
       <c r="U28" t="n">
-        <v>281.1759994093383</v>
+        <v>389.5502311012452</v>
       </c>
       <c r="V28" t="n">
-        <v>121.1078170457909</v>
+        <v>233.6545282014484</v>
       </c>
       <c r="W28" t="n">
-        <v>121.1078170457909</v>
+        <v>233.6545282014484</v>
       </c>
       <c r="X28" t="n">
-        <v>121.1078170457909</v>
+        <v>233.6545282014484</v>
       </c>
       <c r="Y28" t="n">
-        <v>121.1078170457909</v>
+        <v>97.07253582774459</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>172.7455824067403</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="C29" t="n">
-        <v>12.67740004319295</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="D29" t="n">
-        <v>12.67740004319295</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="E29" t="n">
-        <v>12.67740004319295</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="F29" t="n">
-        <v>12.67740004319295</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="G29" t="n">
-        <v>12.67740004319295</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="H29" t="n">
-        <v>12.67740004319295</v>
+        <v>109.8189812173275</v>
       </c>
       <c r="I29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K29" t="n">
-        <v>115.6924059541153</v>
+        <v>72.90522122431463</v>
       </c>
       <c r="L29" t="n">
-        <v>272.575231488628</v>
+        <v>72.90522122431463</v>
       </c>
       <c r="M29" t="n">
-        <v>429.4580570231408</v>
+        <v>225.6985996364055</v>
       </c>
       <c r="N29" t="n">
-        <v>586.3408825576535</v>
+        <v>378.4919780484963</v>
       </c>
       <c r="O29" t="n">
-        <v>586.3408825576535</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="P29" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q29" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R29" t="n">
-        <v>633.8700021596474</v>
+        <v>577.5060899167179</v>
       </c>
       <c r="S29" t="n">
-        <v>633.8700021596474</v>
+        <v>577.5060899167179</v>
       </c>
       <c r="T29" t="n">
-        <v>633.8700021596474</v>
+        <v>577.5060899167179</v>
       </c>
       <c r="U29" t="n">
-        <v>633.8700021596474</v>
+        <v>577.5060899167179</v>
       </c>
       <c r="V29" t="n">
-        <v>633.8700021596474</v>
+        <v>577.5060899167179</v>
       </c>
       <c r="W29" t="n">
-        <v>492.8819471338348</v>
+        <v>577.5060899167179</v>
       </c>
       <c r="X29" t="n">
-        <v>332.8137647702875</v>
+        <v>421.6103870169211</v>
       </c>
       <c r="Y29" t="n">
-        <v>172.7455824067403</v>
+        <v>265.7146841171243</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.76129373189929</v>
+        <v>222.5269477638711</v>
       </c>
       <c r="C30" t="n">
-        <v>12.67740004319295</v>
+        <v>159.6159723315693</v>
       </c>
       <c r="D30" t="n">
-        <v>12.67740004319295</v>
+        <v>122.2236165191433</v>
       </c>
       <c r="E30" t="n">
-        <v>12.67740004319295</v>
+        <v>74.52821536251298</v>
       </c>
       <c r="F30" t="n">
-        <v>12.67740004319295</v>
+        <v>39.53571123822317</v>
       </c>
       <c r="G30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L30" t="n">
-        <v>12.67740004319295</v>
+        <v>158.9668482469228</v>
       </c>
       <c r="M30" t="n">
-        <v>93.82696704277981</v>
+        <v>311.7602266590136</v>
       </c>
       <c r="N30" t="n">
-        <v>250.7097925772925</v>
+        <v>464.5536050711045</v>
       </c>
       <c r="O30" t="n">
-        <v>407.5926181118053</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="P30" t="n">
-        <v>564.475443646318</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q30" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R30" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S30" t="n">
-        <v>573.8217932027369</v>
+        <v>555.4716927826894</v>
       </c>
       <c r="T30" t="n">
-        <v>485.0043341539237</v>
+        <v>464.8271519902806</v>
       </c>
       <c r="U30" t="n">
-        <v>370.1498514827334</v>
+        <v>464.8271519902806</v>
       </c>
       <c r="V30" t="n">
-        <v>248.3668788434113</v>
+        <v>415.0546390367074</v>
       </c>
       <c r="W30" t="n">
-        <v>248.3668788434113</v>
+        <v>415.0546390367074</v>
       </c>
       <c r="X30" t="n">
-        <v>168.1524569044325</v>
+        <v>318.7451926799998</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.76129373189929</v>
+        <v>222.5269477638711</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.4920398229229</v>
+        <v>115.971371654556</v>
       </c>
       <c r="C31" t="n">
-        <v>163.1443637640689</v>
+        <v>115.971371654556</v>
       </c>
       <c r="D31" t="n">
-        <v>163.1443637640689</v>
+        <v>115.971371654556</v>
       </c>
       <c r="E31" t="n">
-        <v>163.1443637640689</v>
+        <v>115.971371654556</v>
       </c>
       <c r="F31" t="n">
-        <v>163.1443637640689</v>
+        <v>115.971371654556</v>
       </c>
       <c r="G31" t="n">
-        <v>106.8256414186525</v>
+        <v>57.82556756554403</v>
       </c>
       <c r="H31" t="n">
-        <v>56.32894619547762</v>
+        <v>57.82556756554403</v>
       </c>
       <c r="I31" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J31" t="n">
-        <v>31.3649015218184</v>
+        <v>29.24371833139146</v>
       </c>
       <c r="K31" t="n">
-        <v>120.4311944083259</v>
+        <v>116.519288401001</v>
       </c>
       <c r="L31" t="n">
-        <v>147.7453194160389</v>
+        <v>161.0538384592151</v>
       </c>
       <c r="M31" t="n">
-        <v>298.0464474023925</v>
+        <v>200.2418766514373</v>
       </c>
       <c r="N31" t="n">
-        <v>452.8503878519604</v>
+        <v>353.0352550635282</v>
       </c>
       <c r="O31" t="n">
-        <v>499.6384717183173</v>
+        <v>486.696898675661</v>
       </c>
       <c r="P31" t="n">
-        <v>608.0573351846933</v>
+        <v>593.3250393251392</v>
       </c>
       <c r="Q31" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R31" t="n">
-        <v>568.1549040377554</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S31" t="n">
-        <v>568.1549040377554</v>
+        <v>502.609645375483</v>
       </c>
       <c r="T31" t="n">
-        <v>568.1549040377554</v>
+        <v>383.9036290947309</v>
       </c>
       <c r="U31" t="n">
-        <v>568.1549040377554</v>
+        <v>228.0079261949341</v>
       </c>
       <c r="V31" t="n">
-        <v>426.8395514242892</v>
+        <v>115.971371654556</v>
       </c>
       <c r="W31" t="n">
-        <v>266.7713690607419</v>
+        <v>115.971371654556</v>
       </c>
       <c r="X31" t="n">
-        <v>266.7713690607419</v>
+        <v>115.971371654556</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.7713690607419</v>
+        <v>115.971371654556</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>633.8700021596474</v>
+        <v>168.2426425694607</v>
       </c>
       <c r="C32" t="n">
-        <v>633.8700021596474</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D32" t="n">
-        <v>492.8819471338348</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E32" t="n">
-        <v>332.8137647702875</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F32" t="n">
-        <v>172.7455824067403</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K32" t="n">
-        <v>115.6924059541153</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L32" t="n">
-        <v>272.575231488628</v>
+        <v>72.90522122431463</v>
       </c>
       <c r="M32" t="n">
-        <v>272.575231488628</v>
+        <v>225.6985996364055</v>
       </c>
       <c r="N32" t="n">
-        <v>429.4580570231408</v>
+        <v>378.4919780484963</v>
       </c>
       <c r="O32" t="n">
-        <v>578.6530071657888</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="P32" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q32" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R32" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S32" t="n">
-        <v>633.8700021596474</v>
+        <v>580.2880786523826</v>
       </c>
       <c r="T32" t="n">
-        <v>633.8700021596474</v>
+        <v>466.4807895071358</v>
       </c>
       <c r="U32" t="n">
-        <v>633.8700021596474</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="V32" t="n">
-        <v>633.8700021596474</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="W32" t="n">
-        <v>633.8700021596474</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="X32" t="n">
-        <v>633.8700021596474</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="Y32" t="n">
-        <v>633.8700021596474</v>
+        <v>324.1383454692575</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>106.7697863176817</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="C33" t="n">
-        <v>106.7697863176817</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D33" t="n">
-        <v>71.20451224885112</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E33" t="n">
-        <v>71.20451224885112</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F33" t="n">
-        <v>38.03908986815676</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K33" t="n">
-        <v>12.67740004319295</v>
+        <v>137.7044997275013</v>
       </c>
       <c r="L33" t="n">
-        <v>163.2215255561092</v>
+        <v>290.4978781395922</v>
       </c>
       <c r="M33" t="n">
-        <v>320.1043510906219</v>
+        <v>395.1590465577751</v>
       </c>
       <c r="N33" t="n">
-        <v>476.9871766251346</v>
+        <v>395.1590465577751</v>
       </c>
       <c r="O33" t="n">
-        <v>476.9871766251346</v>
+        <v>395.1590465577751</v>
       </c>
       <c r="P33" t="n">
-        <v>633.8700021596474</v>
+        <v>547.952424969866</v>
       </c>
       <c r="Q33" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R33" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S33" t="n">
-        <v>573.8217932027369</v>
+        <v>555.4716927826894</v>
       </c>
       <c r="T33" t="n">
-        <v>485.0043341539237</v>
+        <v>464.8271519902806</v>
       </c>
       <c r="U33" t="n">
-        <v>463.812143265318</v>
+        <v>348.1455875754949</v>
       </c>
       <c r="V33" t="n">
-        <v>342.0291706259959</v>
+        <v>224.5355331925774</v>
       </c>
       <c r="W33" t="n">
-        <v>201.1609494902149</v>
+        <v>204.8746309425002</v>
       </c>
       <c r="X33" t="n">
-        <v>201.1609494902149</v>
+        <v>108.5651845857926</v>
       </c>
       <c r="Y33" t="n">
-        <v>106.7697863176817</v>
+        <v>12.34693966966391</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="C34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I34" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J34" t="n">
-        <v>31.3649015218184</v>
+        <v>29.24371833139146</v>
       </c>
       <c r="K34" t="n">
-        <v>120.4311944083259</v>
+        <v>116.519288401001</v>
       </c>
       <c r="L34" t="n">
-        <v>258.8584092101704</v>
+        <v>143.833413408714</v>
       </c>
       <c r="M34" t="n">
-        <v>409.159537196524</v>
+        <v>200.2418766514373</v>
       </c>
       <c r="N34" t="n">
-        <v>475.299195083418</v>
+        <v>353.0352550635282</v>
       </c>
       <c r="O34" t="n">
-        <v>499.6384717183173</v>
+        <v>486.696898675661</v>
       </c>
       <c r="P34" t="n">
-        <v>608.0573351846933</v>
+        <v>593.3250393251392</v>
       </c>
       <c r="Q34" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R34" t="n">
-        <v>568.1549040377554</v>
+        <v>549.804803617708</v>
       </c>
       <c r="S34" t="n">
-        <v>568.1549040377554</v>
+        <v>549.804803617708</v>
       </c>
       <c r="T34" t="n">
-        <v>568.1549040377554</v>
+        <v>549.804803617708</v>
       </c>
       <c r="U34" t="n">
-        <v>408.0867216742081</v>
+        <v>393.9091007179112</v>
       </c>
       <c r="V34" t="n">
-        <v>408.0867216742081</v>
+        <v>393.9091007179112</v>
       </c>
       <c r="W34" t="n">
-        <v>248.0185393106608</v>
+        <v>238.0133978181144</v>
       </c>
       <c r="X34" t="n">
-        <v>133.3981240050641</v>
+        <v>121.5659007689223</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.32894619547762</v>
+        <v>12.34693966966391</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.67740004319295</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="C35" t="n">
-        <v>12.67740004319295</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="D35" t="n">
-        <v>12.67740004319295</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="E35" t="n">
-        <v>12.67740004319295</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="F35" t="n">
-        <v>12.67740004319295</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="G35" t="n">
-        <v>12.67740004319295</v>
+        <v>168.2426425694607</v>
       </c>
       <c r="H35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K35" t="n">
-        <v>115.6924059541153</v>
+        <v>115.3619455805863</v>
       </c>
       <c r="L35" t="n">
-        <v>272.575231488628</v>
+        <v>268.1553239926771</v>
       </c>
       <c r="M35" t="n">
-        <v>429.4580570231408</v>
+        <v>420.9487024047679</v>
       </c>
       <c r="N35" t="n">
-        <v>586.3408825576535</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="O35" t="n">
-        <v>633.8700021596474</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="P35" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q35" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R35" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S35" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="T35" t="n">
-        <v>498.8202883084188</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="U35" t="n">
-        <v>338.7521059448715</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="V35" t="n">
-        <v>178.6839235813241</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="W35" t="n">
-        <v>18.61574121777682</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="X35" t="n">
-        <v>12.67740004319295</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.67740004319295</v>
+        <v>617.3469834831953</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79.13838608804289</v>
+        <v>174.5015871645484</v>
       </c>
       <c r="C36" t="n">
-        <v>79.13838608804289</v>
+        <v>94.35076002147466</v>
       </c>
       <c r="D36" t="n">
-        <v>79.13838608804289</v>
+        <v>77.28219253706611</v>
       </c>
       <c r="E36" t="n">
-        <v>79.13838608804289</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F36" t="n">
-        <v>22.90345725777136</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K36" t="n">
-        <v>138.0349601010304</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L36" t="n">
-        <v>138.0349601010304</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="M36" t="n">
-        <v>294.9177856355431</v>
+        <v>89.57228973359344</v>
       </c>
       <c r="N36" t="n">
-        <v>320.1043510906219</v>
+        <v>242.3656681456843</v>
       </c>
       <c r="O36" t="n">
-        <v>476.9871766251346</v>
+        <v>395.1590465577751</v>
       </c>
       <c r="P36" t="n">
-        <v>633.8700021596474</v>
+        <v>547.952424969866</v>
       </c>
       <c r="Q36" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R36" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S36" t="n">
-        <v>633.8700021596474</v>
+        <v>538.2318410719175</v>
       </c>
       <c r="T36" t="n">
-        <v>521.9830366612568</v>
+        <v>538.2318410719175</v>
       </c>
       <c r="U36" t="n">
-        <v>384.0590475404894</v>
+        <v>404.3104249463599</v>
       </c>
       <c r="V36" t="n">
-        <v>239.2065684515902</v>
+        <v>404.3104249463599</v>
       </c>
       <c r="W36" t="n">
-        <v>79.13838608804289</v>
+        <v>248.4147220465631</v>
       </c>
       <c r="X36" t="n">
-        <v>79.13838608804289</v>
+        <v>248.4147220465631</v>
       </c>
       <c r="Y36" t="n">
-        <v>79.13838608804289</v>
+        <v>248.4147220465631</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="C37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="D37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="E37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="F37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="G37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="H37" t="n">
-        <v>37.80543363212479</v>
+        <v>19.2327276113158</v>
       </c>
       <c r="I37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K37" t="n">
-        <v>79.13326965846983</v>
+        <v>82.72573107754593</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9500611890837</v>
+        <v>202.465444400765</v>
       </c>
       <c r="M37" t="n">
-        <v>299.8238579246409</v>
+        <v>267.6091520777685</v>
       </c>
       <c r="N37" t="n">
-        <v>432.0173751029781</v>
+        <v>403.7255910487108</v>
       </c>
       <c r="O37" t="n">
-        <v>544.8593182607783</v>
+        <v>520.4904559991162</v>
       </c>
       <c r="P37" t="n">
-        <v>630.6677584559238</v>
+        <v>610.2218179868668</v>
       </c>
       <c r="Q37" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R37" t="n">
-        <v>633.8700021596474</v>
+        <v>532.564951906936</v>
       </c>
       <c r="S37" t="n">
-        <v>497.8902393459532</v>
+        <v>400.5877620884517</v>
       </c>
       <c r="T37" t="n">
-        <v>357.9417983592194</v>
+        <v>400.5877620884517</v>
       </c>
       <c r="U37" t="n">
-        <v>197.8736159956721</v>
+        <v>244.6920591886548</v>
       </c>
       <c r="V37" t="n">
-        <v>197.8736159956721</v>
+        <v>244.6920591886548</v>
       </c>
       <c r="W37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="X37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.80543363212479</v>
+        <v>88.79635628885802</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.7455824067403</v>
+        <v>32.83069350140835</v>
       </c>
       <c r="C38" t="n">
-        <v>172.7455824067403</v>
+        <v>32.83069350140835</v>
       </c>
       <c r="D38" t="n">
-        <v>172.7455824067403</v>
+        <v>32.83069350140835</v>
       </c>
       <c r="E38" t="n">
-        <v>172.7455824067403</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K38" t="n">
-        <v>115.6924059541153</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="L38" t="n">
-        <v>272.575231488628</v>
+        <v>72.90522122431463</v>
       </c>
       <c r="M38" t="n">
-        <v>429.4580570231408</v>
+        <v>225.6985996364055</v>
       </c>
       <c r="N38" t="n">
-        <v>586.3408825576535</v>
+        <v>378.4919780484963</v>
       </c>
       <c r="O38" t="n">
-        <v>633.8700021596474</v>
+        <v>527.6869281911444</v>
       </c>
       <c r="P38" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q38" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R38" t="n">
-        <v>588.6952328991225</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S38" t="n">
-        <v>467.8634786215162</v>
+        <v>500.5178022007988</v>
       </c>
       <c r="T38" t="n">
-        <v>332.8137647702875</v>
+        <v>500.5178022007988</v>
       </c>
       <c r="U38" t="n">
-        <v>332.8137647702875</v>
+        <v>500.5178022007988</v>
       </c>
       <c r="V38" t="n">
-        <v>332.8137647702875</v>
+        <v>344.622099301002</v>
       </c>
       <c r="W38" t="n">
-        <v>332.8137647702875</v>
+        <v>188.7263964012052</v>
       </c>
       <c r="X38" t="n">
-        <v>332.8137647702875</v>
+        <v>32.83069350140835</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.8137647702875</v>
+        <v>32.83069350140835</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>303.7078418423449</v>
+        <v>19.68084491331439</v>
       </c>
       <c r="C39" t="n">
-        <v>219.5544417040614</v>
+        <v>19.68084491331439</v>
       </c>
       <c r="D39" t="n">
-        <v>160.9196611856536</v>
+        <v>19.68084491331439</v>
       </c>
       <c r="E39" t="n">
-        <v>91.98183532304162</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F39" t="n">
-        <v>35.74690649277011</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G39" t="n">
-        <v>35.74690649277011</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K39" t="n">
-        <v>12.67740004319295</v>
+        <v>137.7044997275013</v>
       </c>
       <c r="L39" t="n">
-        <v>12.67740004319295</v>
+        <v>290.4978781395922</v>
       </c>
       <c r="M39" t="n">
-        <v>93.82696704277981</v>
+        <v>443.291256551683</v>
       </c>
       <c r="N39" t="n">
-        <v>250.7097925772925</v>
+        <v>547.952424969866</v>
       </c>
       <c r="O39" t="n">
-        <v>407.5926181118053</v>
+        <v>547.952424969866</v>
       </c>
       <c r="P39" t="n">
-        <v>564.475443646318</v>
+        <v>547.952424969866</v>
       </c>
       <c r="Q39" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R39" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S39" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="T39" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="U39" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="V39" t="n">
-        <v>633.8700021596474</v>
+        <v>476.497077389506</v>
       </c>
       <c r="W39" t="n">
-        <v>616.636090404369</v>
+        <v>320.6013744897092</v>
       </c>
       <c r="X39" t="n">
-        <v>499.0842193416798</v>
+        <v>207.0520764222297</v>
       </c>
       <c r="Y39" t="n">
-        <v>381.6235497195694</v>
+        <v>93.5939797953291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="C40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="D40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="E40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="F40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="G40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K40" t="n">
-        <v>79.13326965846984</v>
+        <v>82.72573107754593</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9500611890837</v>
+        <v>202.465444400765</v>
       </c>
       <c r="M40" t="n">
-        <v>299.8238579246408</v>
+        <v>334.0790709084932</v>
       </c>
       <c r="N40" t="n">
-        <v>432.0173751029781</v>
+        <v>403.7255910487108</v>
       </c>
       <c r="O40" t="n">
-        <v>544.8593182607783</v>
+        <v>520.4904559991162</v>
       </c>
       <c r="P40" t="n">
-        <v>630.6677584559238</v>
+        <v>610.2218179868668</v>
       </c>
       <c r="Q40" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R40" t="n">
-        <v>545.0853975881782</v>
+        <v>532.564951906936</v>
       </c>
       <c r="S40" t="n">
-        <v>470.5036865254614</v>
+        <v>400.5877620884517</v>
       </c>
       <c r="T40" t="n">
-        <v>470.5036865254614</v>
+        <v>399.5240012690414</v>
       </c>
       <c r="U40" t="n">
-        <v>310.4355041619141</v>
+        <v>399.5240012690414</v>
       </c>
       <c r="V40" t="n">
-        <v>310.4355041619141</v>
+        <v>243.6282983692446</v>
       </c>
       <c r="W40" t="n">
-        <v>150.3673217983668</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="X40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.67740004319295</v>
+        <v>87.73259546944774</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>175.3484366793342</v>
+        <v>168.2426425694607</v>
       </c>
       <c r="C41" t="n">
-        <v>175.3484366793342</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="D41" t="n">
-        <v>175.3484366793342</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="E41" t="n">
-        <v>15.28025431578686</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="F41" t="n">
-        <v>15.28025431578686</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="G41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="H41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="I41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K41" t="n">
-        <v>12.67740004319295</v>
+        <v>115.3619455805863</v>
       </c>
       <c r="L41" t="n">
-        <v>169.5602255777057</v>
+        <v>268.1553239926771</v>
       </c>
       <c r="M41" t="n">
-        <v>326.4430511122184</v>
+        <v>420.9487024047679</v>
       </c>
       <c r="N41" t="n">
-        <v>395.0149967249483</v>
+        <v>573.7420808168588</v>
       </c>
       <c r="O41" t="n">
-        <v>544.2099468675964</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="P41" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q41" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R41" t="n">
-        <v>633.8700021596474</v>
+        <v>550.1746228377189</v>
       </c>
       <c r="S41" t="n">
-        <v>633.8700021596474</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="T41" t="n">
-        <v>495.4848014064288</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="U41" t="n">
-        <v>495.4848014064288</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="V41" t="n">
-        <v>335.4166190428815</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="W41" t="n">
-        <v>335.4166190428815</v>
+        <v>480.0340483690543</v>
       </c>
       <c r="X41" t="n">
-        <v>335.4166190428815</v>
+        <v>324.1383454692575</v>
       </c>
       <c r="Y41" t="n">
-        <v>175.3484366793342</v>
+        <v>168.2426425694607</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>336.7377654653139</v>
+        <v>212.8638416122057</v>
       </c>
       <c r="C42" t="n">
-        <v>287.9985593905424</v>
+        <v>122.6213991009049</v>
       </c>
       <c r="D42" t="n">
-        <v>226.0282919701446</v>
+        <v>122.6213991009049</v>
       </c>
       <c r="E42" t="n">
-        <v>153.7549792055426</v>
+        <v>47.59453086527563</v>
       </c>
       <c r="F42" t="n">
-        <v>94.18456347328109</v>
+        <v>47.59453086527563</v>
       </c>
       <c r="G42" t="n">
-        <v>42.41788029675011</v>
+        <v>47.59453086527563</v>
       </c>
       <c r="H42" t="n">
-        <v>16.01288694518295</v>
+        <v>18.43598204268119</v>
       </c>
       <c r="I42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K42" t="n">
-        <v>12.67740004319295</v>
+        <v>137.7044997275013</v>
       </c>
       <c r="L42" t="n">
-        <v>12.67740004319295</v>
+        <v>290.4978781395922</v>
       </c>
       <c r="M42" t="n">
-        <v>93.82696704277981</v>
+        <v>443.291256551683</v>
       </c>
       <c r="N42" t="n">
-        <v>250.7097925772925</v>
+        <v>596.0846349637739</v>
       </c>
       <c r="O42" t="n">
-        <v>407.5926181118053</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="P42" t="n">
-        <v>564.475443646318</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q42" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R42" t="n">
-        <v>619.6646149533866</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="S42" t="n">
-        <v>533.2114126449089</v>
+        <v>558.8576312276399</v>
       </c>
       <c r="T42" t="n">
-        <v>417.9889602445285</v>
+        <v>440.8816233562322</v>
       </c>
       <c r="U42" t="n">
-        <v>417.9889602445285</v>
+        <v>296.8685918624475</v>
       </c>
       <c r="V42" t="n">
-        <v>417.9889602445285</v>
+        <v>296.8685918624475</v>
       </c>
       <c r="W42" t="n">
-        <v>417.9889602445285</v>
+        <v>296.8685918624475</v>
       </c>
       <c r="X42" t="n">
-        <v>417.9889602445285</v>
+        <v>296.8685918624475</v>
       </c>
       <c r="Y42" t="n">
-        <v>417.9889602445285</v>
+        <v>296.8685918624475</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.56449984052566</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="C43" t="n">
-        <v>59.56449984052566</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="D43" t="n">
-        <v>59.56449984052566</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="E43" t="n">
-        <v>12.67740004319295</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="F43" t="n">
-        <v>12.67740004319295</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="G43" t="n">
-        <v>12.67740004319295</v>
+        <v>164.8122786903123</v>
       </c>
       <c r="H43" t="n">
-        <v>12.67740004319295</v>
+        <v>85.15703464454302</v>
       </c>
       <c r="I43" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="J43" t="n">
-        <v>12.67740004319295</v>
+        <v>12.34693966966391</v>
       </c>
       <c r="K43" t="n">
-        <v>75.8641589458295</v>
+        <v>72.83493885514656</v>
       </c>
       <c r="L43" t="n">
-        <v>188.411839763803</v>
+        <v>182.6838599559662</v>
       </c>
       <c r="M43" t="n">
-        <v>312.8334337662857</v>
+        <v>304.4066942412952</v>
       </c>
       <c r="N43" t="n">
-        <v>441.7578402319825</v>
+        <v>430.6323409898381</v>
       </c>
       <c r="O43" t="n">
-        <v>551.3306726771423</v>
+        <v>537.5064137178441</v>
       </c>
       <c r="P43" t="n">
-        <v>633.8700021596474</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="Q43" t="n">
-        <v>633.8017774795975</v>
+        <v>617.3469834831953</v>
       </c>
       <c r="R43" t="n">
-        <v>633.8017774795975</v>
+        <v>522.473336538709</v>
       </c>
       <c r="S43" t="n">
-        <v>494.4865277639134</v>
+        <v>522.473336538709</v>
       </c>
       <c r="T43" t="n">
-        <v>494.4865277639134</v>
+        <v>522.473336538709</v>
       </c>
       <c r="U43" t="n">
-        <v>494.4865277639134</v>
+        <v>522.473336538709</v>
       </c>
       <c r="V43" t="n">
-        <v>494.4865277639134</v>
+        <v>366.5776336389122</v>
       </c>
       <c r="W43" t="n">
-        <v>334.4183454003661</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="X43" t="n">
-        <v>193.3929367432023</v>
+        <v>210.6819307391154</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.56449984052566</v>
+        <v>210.6819307391154</v>
       </c>
     </row>
     <row r="44">
@@ -9407,10 +9407,10 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>354.0227637690105</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N20" t="n">
-        <v>387.8805641365028</v>
+        <v>340.8642293095396</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>244.2727317174327</v>
       </c>
       <c r="M21" t="n">
-        <v>300.6015344619302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>245.1546741805679</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>296.9329903152433</v>
       </c>
       <c r="P21" t="n">
-        <v>292.4419079542421</v>
+        <v>288.3111532851291</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9641,19 +9641,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>394.2339155098991</v>
+        <v>390.1031608407861</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N23" t="n">
-        <v>353.0895941383286</v>
+        <v>383.7498094673898</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>274.1435676503095</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>292.891125650673</v>
       </c>
       <c r="M24" t="n">
-        <v>224.1032935175606</v>
+        <v>296.4707797928172</v>
       </c>
       <c r="N24" t="n">
-        <v>289.8092126232451</v>
+        <v>285.6784579541321</v>
       </c>
       <c r="O24" t="n">
-        <v>301.0637449843563</v>
+        <v>290.6971621992514</v>
       </c>
       <c r="P24" t="n">
-        <v>292.4419079542421</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,13 +9878,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>305.0310064979973</v>
+        <v>296.9363963383213</v>
       </c>
       <c r="M26" t="n">
-        <v>388.8137337671845</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N26" t="n">
-        <v>387.8805641365028</v>
+        <v>383.7498094673898</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9960,16 +9960,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>224.1032935175606</v>
+        <v>220.1394380269977</v>
       </c>
       <c r="N27" t="n">
-        <v>289.8092126232451</v>
+        <v>285.6784579541321</v>
       </c>
       <c r="O27" t="n">
-        <v>301.0637449843563</v>
+        <v>296.9329903152433</v>
       </c>
       <c r="P27" t="n">
-        <v>292.4419079542421</v>
+        <v>288.3111532851291</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>281.2598324133146</v>
       </c>
       <c r="L29" t="n">
-        <v>394.2339155098991</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>388.8137337671845</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N29" t="n">
-        <v>387.8805641365028</v>
+        <v>383.7498094673898</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>279.2422074744553</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,22 +10194,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>286.6552975346811</v>
       </c>
       <c r="M30" t="n">
-        <v>224.1032935175606</v>
+        <v>296.4707797928172</v>
       </c>
       <c r="N30" t="n">
-        <v>289.8092126232451</v>
+        <v>285.6784579541321</v>
       </c>
       <c r="O30" t="n">
-        <v>301.0637449843563</v>
+        <v>296.9329903152433</v>
       </c>
       <c r="P30" t="n">
-        <v>292.4419079542421</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>394.2339155098991</v>
+        <v>296.9363963383213</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N32" t="n">
-        <v>387.8805641365028</v>
+        <v>383.7498094673898</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>287.0077381733084</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>290.6191530252441</v>
+        <v>292.891125650673</v>
       </c>
       <c r="M33" t="n">
-        <v>300.6015344619302</v>
+        <v>247.8523858595769</v>
       </c>
       <c r="N33" t="n">
-        <v>289.8092126232451</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>292.4419079542421</v>
+        <v>288.3111532851291</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,19 +10589,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>394.2339155098991</v>
+        <v>390.1031608407861</v>
       </c>
       <c r="M35" t="n">
-        <v>388.8137337671845</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N35" t="n">
-        <v>387.8805641365028</v>
+        <v>337.2294532797995</v>
       </c>
       <c r="O35" t="n">
-        <v>278.1074231408725</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>300.6015344619302</v>
+        <v>220.1394380269977</v>
       </c>
       <c r="N36" t="n">
-        <v>156.7826872904836</v>
+        <v>285.6784579541321</v>
       </c>
       <c r="O36" t="n">
-        <v>301.0637449843563</v>
+        <v>296.9329903152433</v>
       </c>
       <c r="P36" t="n">
-        <v>292.4419079542421</v>
+        <v>288.3111532851291</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>394.2339155098991</v>
+        <v>296.9363963383213</v>
       </c>
       <c r="M38" t="n">
-        <v>388.8137337671845</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N38" t="n">
-        <v>387.8805641365028</v>
+        <v>383.7498094673898</v>
       </c>
       <c r="O38" t="n">
-        <v>278.1074231408725</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>292.891125650673</v>
       </c>
       <c r="M39" t="n">
-        <v>224.1032935175606</v>
+        <v>296.4707797928172</v>
       </c>
       <c r="N39" t="n">
-        <v>289.8092126232451</v>
+        <v>237.0600640208919</v>
       </c>
       <c r="O39" t="n">
-        <v>301.0637449843563</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>292.4419079542421</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>394.2339155098991</v>
+        <v>390.1031608407861</v>
       </c>
       <c r="M41" t="n">
-        <v>388.8137337671845</v>
+        <v>384.6829790980715</v>
       </c>
       <c r="N41" t="n">
-        <v>298.6776551246009</v>
+        <v>383.7498094673898</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>274.1435676503095</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>292.891125650673</v>
       </c>
       <c r="M42" t="n">
-        <v>224.1032935175606</v>
+        <v>296.4707797928172</v>
       </c>
       <c r="N42" t="n">
-        <v>289.8092126232451</v>
+        <v>285.6784579541321</v>
       </c>
       <c r="O42" t="n">
-        <v>301.0637449843563</v>
+        <v>164.0733641610318</v>
       </c>
       <c r="P42" t="n">
-        <v>292.4419079542421</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.478152230117</v>
+        <v>316.4328139550168</v>
       </c>
       <c r="C14" t="n">
-        <v>302.017202337644</v>
+        <v>298.9718640625438</v>
       </c>
       <c r="D14" t="n">
-        <v>291.4273521873193</v>
+        <v>288.3820139122192</v>
       </c>
       <c r="E14" t="n">
-        <v>318.6746806388982</v>
+        <v>315.629342363798</v>
       </c>
       <c r="F14" t="n">
-        <v>343.6203563083478</v>
+        <v>340.5750180332477</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0470480817714</v>
+        <v>349.0017098066713</v>
       </c>
       <c r="H14" t="n">
-        <v>276.2191126824035</v>
+        <v>273.1737744073034</v>
       </c>
       <c r="I14" t="n">
-        <v>147.2202001370423</v>
+        <v>144.1748618619421</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.6134285077861</v>
+        <v>83.5680902326859</v>
       </c>
       <c r="S14" t="n">
-        <v>145.7643801528818</v>
+        <v>142.7190418777816</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8401601307678</v>
+        <v>156.7948218556676</v>
       </c>
       <c r="U14" t="n">
-        <v>188.0899634744729</v>
+        <v>185.0446251993727</v>
       </c>
       <c r="V14" t="n">
-        <v>264.4965690367713</v>
+        <v>261.4512307616711</v>
       </c>
       <c r="W14" t="n">
-        <v>285.9852792840494</v>
+        <v>282.9399410089492</v>
       </c>
       <c r="X14" t="n">
-        <v>306.4754112451054</v>
+        <v>303.4300729700053</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.98224922269</v>
+        <v>319.9369109475898</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.2774942165038</v>
+        <v>100.2321559414036</v>
       </c>
       <c r="C15" t="n">
-        <v>109.4528095549522</v>
+        <v>106.407471279852</v>
       </c>
       <c r="D15" t="n">
-        <v>84.18937613127517</v>
+        <v>81.14403785617498</v>
       </c>
       <c r="E15" t="n">
-        <v>94.38939102203736</v>
+        <v>91.34405274693717</v>
       </c>
       <c r="F15" t="n">
-        <v>81.81352296002029</v>
+        <v>78.7681846849201</v>
       </c>
       <c r="G15" t="n">
-        <v>74.08782772984705</v>
+        <v>71.04248945474686</v>
       </c>
       <c r="H15" t="n">
-        <v>48.97975480313288</v>
+        <v>45.93441652803268</v>
       </c>
       <c r="I15" t="n">
-        <v>26.14094341805149</v>
+        <v>23.0956051429513</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.90214471927955</v>
+        <v>33.85680644417936</v>
       </c>
       <c r="S15" t="n">
-        <v>108.4274816704742</v>
+        <v>105.382143395374</v>
       </c>
       <c r="T15" t="n">
-        <v>136.909039261458</v>
+        <v>133.8637009863578</v>
       </c>
       <c r="U15" t="n">
-        <v>162.6856926476112</v>
+        <v>159.640354372511</v>
       </c>
       <c r="V15" t="n">
-        <v>169.5448977160617</v>
+        <v>166.4995594409615</v>
       </c>
       <c r="W15" t="n">
-        <v>188.439293727556</v>
+        <v>185.3939554524558</v>
       </c>
       <c r="X15" t="n">
-        <v>142.5172957701139</v>
+        <v>139.4719574950137</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.4270063439408</v>
+        <v>139.3816680688406</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.5762907485737</v>
+        <v>113.5309524734735</v>
       </c>
       <c r="C16" t="n">
-        <v>103.9911316652642</v>
+        <v>100.9457933901641</v>
       </c>
       <c r="D16" t="n">
-        <v>85.35978358484877</v>
+        <v>82.31444530974858</v>
       </c>
       <c r="E16" t="n">
-        <v>83.17827321320559</v>
+        <v>80.13293493810539</v>
       </c>
       <c r="F16" t="n">
-        <v>82.16535858956766</v>
+        <v>79.12002031446747</v>
       </c>
       <c r="G16" t="n">
-        <v>104.7352899250952</v>
+        <v>101.689951649995</v>
       </c>
       <c r="H16" t="n">
-        <v>98.97148307407599</v>
+        <v>95.9261447989758</v>
       </c>
       <c r="I16" t="n">
-        <v>92.1947854938947</v>
+        <v>89.14944721879451</v>
       </c>
       <c r="J16" t="n">
-        <v>30.10349068330919</v>
+        <v>27.058152408209</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.9063538183308</v>
+        <v>19.86101554323061</v>
       </c>
       <c r="R16" t="n">
-        <v>114.0377019438059</v>
+        <v>110.9923636687057</v>
       </c>
       <c r="S16" t="n">
-        <v>160.7609086036087</v>
+        <v>157.7155703285085</v>
       </c>
       <c r="T16" t="n">
-        <v>164.6898999949179</v>
+        <v>161.6445617198177</v>
       </c>
       <c r="U16" t="n">
-        <v>223.0633399231273</v>
+        <v>220.0180016480271</v>
       </c>
       <c r="V16" t="n">
-        <v>188.8819538904644</v>
+        <v>185.8366156153642</v>
       </c>
       <c r="W16" t="n">
-        <v>223.2673089032274</v>
+        <v>220.2219706281272</v>
       </c>
       <c r="X16" t="n">
-        <v>162.4539659556736</v>
+        <v>159.4086276805734</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.3289639187312</v>
+        <v>152.283625643631</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>319.478152230117</v>
+        <v>316.4328139550168</v>
       </c>
       <c r="C17" t="n">
-        <v>302.017202337644</v>
+        <v>298.9718640625438</v>
       </c>
       <c r="D17" t="n">
-        <v>291.4273521873193</v>
+        <v>288.3820139122192</v>
       </c>
       <c r="E17" t="n">
-        <v>318.6746806388982</v>
+        <v>315.629342363798</v>
       </c>
       <c r="F17" t="n">
-        <v>343.6203563083478</v>
+        <v>340.5750180332477</v>
       </c>
       <c r="G17" t="n">
-        <v>352.0470480817714</v>
+        <v>349.0017098066713</v>
       </c>
       <c r="H17" t="n">
-        <v>276.2191126824035</v>
+        <v>273.1737744073034</v>
       </c>
       <c r="I17" t="n">
-        <v>147.2202001370423</v>
+        <v>144.1748618619421</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.6134285077861</v>
+        <v>83.5680902326859</v>
       </c>
       <c r="S17" t="n">
-        <v>145.7643801528818</v>
+        <v>142.7190418777816</v>
       </c>
       <c r="T17" t="n">
-        <v>159.8401601307678</v>
+        <v>156.7948218556676</v>
       </c>
       <c r="U17" t="n">
-        <v>188.0899634744729</v>
+        <v>185.0446251993727</v>
       </c>
       <c r="V17" t="n">
-        <v>264.4965690367713</v>
+        <v>261.4512307616711</v>
       </c>
       <c r="W17" t="n">
-        <v>285.9852792840494</v>
+        <v>282.9399410089492</v>
       </c>
       <c r="X17" t="n">
-        <v>306.4754112451054</v>
+        <v>303.4300729700053</v>
       </c>
       <c r="Y17" t="n">
-        <v>322.98224922269</v>
+        <v>319.9369109475898</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.2774942165038</v>
+        <v>100.2321559414036</v>
       </c>
       <c r="C18" t="n">
-        <v>109.4528095549522</v>
+        <v>106.407471279852</v>
       </c>
       <c r="D18" t="n">
-        <v>84.18937613127517</v>
+        <v>81.14403785617498</v>
       </c>
       <c r="E18" t="n">
-        <v>94.38939102203736</v>
+        <v>91.34405274693717</v>
       </c>
       <c r="F18" t="n">
-        <v>81.81352296002029</v>
+        <v>78.7681846849201</v>
       </c>
       <c r="G18" t="n">
-        <v>74.08782772984705</v>
+        <v>71.04248945474686</v>
       </c>
       <c r="H18" t="n">
-        <v>48.97975480313288</v>
+        <v>45.93441652803268</v>
       </c>
       <c r="I18" t="n">
-        <v>26.14094341805149</v>
+        <v>23.0956051429513</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.90214471927955</v>
+        <v>33.85680644417936</v>
       </c>
       <c r="S18" t="n">
-        <v>108.4274816704742</v>
+        <v>105.382143395374</v>
       </c>
       <c r="T18" t="n">
-        <v>136.909039261458</v>
+        <v>133.8637009863578</v>
       </c>
       <c r="U18" t="n">
-        <v>162.6856926476112</v>
+        <v>159.640354372511</v>
       </c>
       <c r="V18" t="n">
-        <v>169.5448977160617</v>
+        <v>166.4995594409615</v>
       </c>
       <c r="W18" t="n">
-        <v>188.439293727556</v>
+        <v>185.3939554524558</v>
       </c>
       <c r="X18" t="n">
-        <v>142.5172957701139</v>
+        <v>139.4719574950137</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.4270063439408</v>
+        <v>139.3816680688406</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.5762907485737</v>
+        <v>113.5309524734735</v>
       </c>
       <c r="C19" t="n">
-        <v>103.9911316652642</v>
+        <v>100.9457933901641</v>
       </c>
       <c r="D19" t="n">
-        <v>85.35978358484877</v>
+        <v>82.31444530974858</v>
       </c>
       <c r="E19" t="n">
-        <v>83.17827321320559</v>
+        <v>80.13293493810539</v>
       </c>
       <c r="F19" t="n">
-        <v>82.16535858956766</v>
+        <v>79.12002031446747</v>
       </c>
       <c r="G19" t="n">
-        <v>104.7352899250952</v>
+        <v>101.689951649995</v>
       </c>
       <c r="H19" t="n">
-        <v>98.97148307407599</v>
+        <v>95.9261447989758</v>
       </c>
       <c r="I19" t="n">
-        <v>92.1947854938947</v>
+        <v>89.14944721879451</v>
       </c>
       <c r="J19" t="n">
-        <v>30.10349068330919</v>
+        <v>27.058152408209</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.9063538183308</v>
+        <v>19.86101554323061</v>
       </c>
       <c r="R19" t="n">
-        <v>114.0377019438059</v>
+        <v>110.9923636687057</v>
       </c>
       <c r="S19" t="n">
-        <v>160.7609086036087</v>
+        <v>157.7155703285085</v>
       </c>
       <c r="T19" t="n">
-        <v>164.6898999949179</v>
+        <v>161.6445617198177</v>
       </c>
       <c r="U19" t="n">
-        <v>223.0633399231273</v>
+        <v>220.0180016480271</v>
       </c>
       <c r="V19" t="n">
-        <v>188.8819538904644</v>
+        <v>185.8366156153642</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2673089032274</v>
+        <v>220.2219706281272</v>
       </c>
       <c r="X19" t="n">
-        <v>162.4539659556736</v>
+        <v>159.4086276805734</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.3289639187312</v>
+        <v>152.283625643631</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>281.4425551214422</v>
+        <v>299.3653607613526</v>
       </c>
       <c r="C20" t="n">
-        <v>120.7108904126507</v>
+        <v>281.9044108688796</v>
       </c>
       <c r="D20" t="n">
-        <v>268.588540802238</v>
+        <v>271.314560718555</v>
       </c>
       <c r="E20" t="n">
-        <v>137.3683687139049</v>
+        <v>298.5618891701338</v>
       </c>
       <c r="F20" t="n">
-        <v>320.7815449232664</v>
+        <v>323.5075648395834</v>
       </c>
       <c r="G20" t="n">
-        <v>170.7407361567782</v>
+        <v>177.5975107422082</v>
       </c>
       <c r="H20" t="n">
-        <v>253.3803012973221</v>
+        <v>101.7695753428403</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>127.1074086682779</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.7746171227047</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>122.9255687678004</v>
+        <v>41.60304275134405</v>
       </c>
       <c r="T20" t="n">
-        <v>137.0013487456864</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>165.2511520893915</v>
+        <v>167.9771720057085</v>
       </c>
       <c r="V20" t="n">
-        <v>241.6577576516899</v>
+        <v>244.3837775680069</v>
       </c>
       <c r="W20" t="n">
-        <v>263.146467898968</v>
+        <v>265.872487815285</v>
       </c>
       <c r="X20" t="n">
-        <v>283.636599860024</v>
+        <v>286.362619776341</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.1434378376086</v>
+        <v>302.8694577539256</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.43868283142235</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>89.34001808618777</v>
       </c>
       <c r="D21" t="n">
-        <v>61.35056474619377</v>
+        <v>64.07658466251078</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>74.27659955327297</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>61.70073149125591</v>
       </c>
       <c r="G21" t="n">
-        <v>51.1418095150451</v>
+        <v>53.97503626108266</v>
       </c>
       <c r="H21" t="n">
-        <v>26.14094341805148</v>
+        <v>28.86696333436849</v>
       </c>
       <c r="I21" t="n">
-        <v>3.302132032970093</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.06333333419815</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.58867028539284</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>114.0702278763766</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>139.8468812625298</v>
+        <v>131.3669644913712</v>
       </c>
       <c r="V21" t="n">
-        <v>146.7060863309803</v>
+        <v>149.4321062472973</v>
       </c>
       <c r="W21" t="n">
-        <v>7.132981802562739</v>
+        <v>13.9897563879928</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>122.4045043013495</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.86155767317878</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>81.15232028018285</v>
+        <v>83.87834019649986</v>
       </c>
       <c r="D22" t="n">
-        <v>62.52097219976737</v>
+        <v>65.24699211608439</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.0654817444412</v>
       </c>
       <c r="F22" t="n">
-        <v>59.32654720448626</v>
+        <v>62.05256712080327</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>78.85869160531161</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3559741088133</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.26467929822779</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06754243324940035</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>45.92128421612543</v>
       </c>
       <c r="T22" t="n">
-        <v>141.8510886098365</v>
+        <v>144.5771085261535</v>
       </c>
       <c r="U22" t="n">
-        <v>200.2245285380459</v>
+        <v>202.9505484543629</v>
       </c>
       <c r="V22" t="n">
-        <v>166.043142505383</v>
+        <v>168.7691624217</v>
       </c>
       <c r="W22" t="n">
-        <v>200.428497518146</v>
+        <v>48.81777156366419</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>142.3411744869092</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.4901525336498</v>
+        <v>135.2161724499668</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>296.6393408450356</v>
+        <v>299.3653607613526</v>
       </c>
       <c r="C23" t="n">
-        <v>279.1783909525626</v>
+        <v>281.9044108688796</v>
       </c>
       <c r="D23" t="n">
-        <v>268.588540802238</v>
+        <v>271.314560718555</v>
       </c>
       <c r="E23" t="n">
-        <v>295.8358692538168</v>
+        <v>298.5618891701338</v>
       </c>
       <c r="F23" t="n">
-        <v>320.7815449232664</v>
+        <v>323.5075648395834</v>
       </c>
       <c r="G23" t="n">
-        <v>329.2082366966901</v>
+        <v>331.9342566130071</v>
       </c>
       <c r="H23" t="n">
-        <v>253.3803012973222</v>
+        <v>256.1063212136391</v>
       </c>
       <c r="I23" t="n">
-        <v>86.2626312499815</v>
+        <v>127.1074086682779</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.77461712270471</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>56.21241996013946</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>139.7273686620034</v>
       </c>
       <c r="U23" t="n">
-        <v>165.2511520893915</v>
+        <v>13.64042613490969</v>
       </c>
       <c r="V23" t="n">
-        <v>83.1902571117781</v>
+        <v>244.3837775680069</v>
       </c>
       <c r="W23" t="n">
-        <v>263.146467898968</v>
+        <v>111.5357419444862</v>
       </c>
       <c r="X23" t="n">
-        <v>283.636599860024</v>
+        <v>132.0258739055422</v>
       </c>
       <c r="Y23" t="n">
-        <v>141.6759372976968</v>
+        <v>302.8694577539256</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.43868283142237</v>
+        <v>83.16470274773937</v>
       </c>
       <c r="C24" t="n">
-        <v>86.61399816987077</v>
+        <v>89.34001808618777</v>
       </c>
       <c r="D24" t="n">
-        <v>61.35056474619378</v>
+        <v>64.07658466251078</v>
       </c>
       <c r="E24" t="n">
-        <v>71.55057963695597</v>
+        <v>74.27659955327297</v>
       </c>
       <c r="F24" t="n">
-        <v>55.29526569425123</v>
+        <v>61.70073149125591</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>53.97503626108266</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>28.86696333436849</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.028151949287107</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.06333333419816</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>114.0702278763766</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>7.132981802562796</v>
+        <v>83.28175755445837</v>
       </c>
       <c r="X24" t="n">
-        <v>119.6784843850325</v>
+        <v>122.4045043013495</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.5881949588594</v>
+        <v>122.3142148751764</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>96.46349927980933</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>62.52097219976739</v>
+        <v>65.24699211608439</v>
       </c>
       <c r="E25" t="n">
-        <v>60.3394618281242</v>
+        <v>63.0654817444412</v>
       </c>
       <c r="F25" t="n">
-        <v>59.32654720448627</v>
+        <v>62.05256712080327</v>
       </c>
       <c r="G25" t="n">
-        <v>81.89647854001379</v>
+        <v>84.62249845633079</v>
       </c>
       <c r="H25" t="n">
-        <v>76.13267168899461</v>
+        <v>39.25607484840642</v>
       </c>
       <c r="I25" t="n">
-        <v>69.35597410881331</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.19889055872451</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>137.9220972185273</v>
+        <v>140.6481171348443</v>
       </c>
       <c r="T25" t="n">
-        <v>139.665241533853</v>
+        <v>144.5771085261535</v>
       </c>
       <c r="U25" t="n">
-        <v>41.75702799813408</v>
+        <v>202.9505484543629</v>
       </c>
       <c r="V25" t="n">
-        <v>166.043142505383</v>
+        <v>168.7691624217</v>
       </c>
       <c r="W25" t="n">
-        <v>200.428497518146</v>
+        <v>48.81777156366419</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.2161724499668</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.3279080266103</v>
+        <v>299.3653607613526</v>
       </c>
       <c r="C26" t="n">
-        <v>127.3994575942255</v>
+        <v>145.96460510588</v>
       </c>
       <c r="D26" t="n">
-        <v>275.2771079838127</v>
+        <v>116.9778148477561</v>
       </c>
       <c r="E26" t="n">
-        <v>144.0569358954797</v>
+        <v>144.2251432993349</v>
       </c>
       <c r="F26" t="n">
-        <v>327.4701121048412</v>
+        <v>169.1708189687846</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8968038782648</v>
+        <v>331.9342566130071</v>
       </c>
       <c r="H26" t="n">
-        <v>260.0688684788969</v>
+        <v>256.1063212136391</v>
       </c>
       <c r="I26" t="n">
-        <v>131.0699559335357</v>
+        <v>127.1074086682779</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>70.46318430427941</v>
+        <v>66.50063703902171</v>
       </c>
       <c r="S26" t="n">
-        <v>129.6141359493751</v>
+        <v>125.6515886841174</v>
       </c>
       <c r="T26" t="n">
-        <v>143.6899159272611</v>
+        <v>139.7273686620034</v>
       </c>
       <c r="U26" t="n">
-        <v>13.4722187310544</v>
+        <v>167.9771720057085</v>
       </c>
       <c r="V26" t="n">
-        <v>108.7681503577103</v>
+        <v>244.3837775680069</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8350350805428</v>
+        <v>265.872487815285</v>
       </c>
       <c r="X26" t="n">
-        <v>290.3251670415988</v>
+        <v>286.362619776341</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8320050191833</v>
+        <v>302.8694577539256</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.12725001299707</v>
+        <v>83.16470274773937</v>
       </c>
       <c r="C27" t="n">
-        <v>93.30256535144547</v>
+        <v>4.850734724882884</v>
       </c>
       <c r="D27" t="n">
-        <v>68.03913192776848</v>
+        <v>64.07658466251078</v>
       </c>
       <c r="E27" t="n">
-        <v>71.12034035064954</v>
+        <v>74.27659955327297</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>61.70073149125591</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>92.27723746696755</v>
+        <v>88.31469020170985</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>172.2890495240493</v>
+        <v>168.3265022587916</v>
       </c>
       <c r="X27" t="n">
-        <v>126.3670515666072</v>
+        <v>122.4045043013495</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.2767621404341</v>
+        <v>122.3142148751764</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.92082117425258</v>
+        <v>96.46349927980933</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.20953938134208</v>
+        <v>65.24699211608439</v>
       </c>
       <c r="E28" t="n">
-        <v>67.0280290096989</v>
+        <v>63.0654817444412</v>
       </c>
       <c r="F28" t="n">
-        <v>66.01511438606097</v>
+        <v>62.05256712080327</v>
       </c>
       <c r="G28" t="n">
-        <v>88.58504572158849</v>
+        <v>84.62249845633079</v>
       </c>
       <c r="H28" t="n">
-        <v>82.8212388705693</v>
+        <v>78.85869160531161</v>
       </c>
       <c r="I28" t="n">
-        <v>76.04454129038801</v>
+        <v>72.08199402513031</v>
       </c>
       <c r="J28" t="n">
-        <v>13.9532464798025</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.793562349566415</v>
       </c>
       <c r="R28" t="n">
-        <v>97.88745774029921</v>
+        <v>22.74287148770972</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>140.6481171348443</v>
       </c>
       <c r="T28" t="n">
-        <v>148.5396557914112</v>
+        <v>144.5771085261535</v>
       </c>
       <c r="U28" t="n">
-        <v>48.44559517970879</v>
+        <v>48.61380258356408</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2642091470459</v>
+        <v>14.43241655090119</v>
       </c>
       <c r="W28" t="n">
-        <v>207.1170646997207</v>
+        <v>203.154517434463</v>
       </c>
       <c r="X28" t="n">
-        <v>146.3037217521669</v>
+        <v>142.3411744869092</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1787197152245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>270.4983974269841</v>
+        <v>117.9704624823448</v>
       </c>
       <c r="C29" t="n">
-        <v>94.56994699459926</v>
+        <v>254.8462584606706</v>
       </c>
       <c r="D29" t="n">
-        <v>242.4475973841865</v>
+        <v>244.256408310346</v>
       </c>
       <c r="E29" t="n">
-        <v>269.6949258357653</v>
+        <v>271.5037367619248</v>
       </c>
       <c r="F29" t="n">
-        <v>294.640601505215</v>
+        <v>296.4494124313745</v>
       </c>
       <c r="G29" t="n">
-        <v>303.0672932786386</v>
+        <v>304.8761042047981</v>
       </c>
       <c r="H29" t="n">
-        <v>227.2393578792707</v>
+        <v>229.0481688054302</v>
       </c>
       <c r="I29" t="n">
-        <v>98.24044533390945</v>
+        <v>3.551935127882004</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.78462534974888</v>
+        <v>98.59343627590837</v>
       </c>
       <c r="T29" t="n">
-        <v>110.8604053276349</v>
+        <v>112.6692162537944</v>
       </c>
       <c r="U29" t="n">
-        <v>139.11020867134</v>
+        <v>140.9190195974995</v>
       </c>
       <c r="V29" t="n">
-        <v>215.5168142336385</v>
+        <v>217.3256251597979</v>
       </c>
       <c r="W29" t="n">
-        <v>97.42735000536217</v>
+        <v>238.814335407076</v>
       </c>
       <c r="X29" t="n">
-        <v>99.02815590206075</v>
+        <v>104.9677214973332</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.5349938796453</v>
+        <v>121.4745594749178</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.29773941337088</v>
+        <v>56.10655033953037</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>35.20962132814229</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>32.83376815688742</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.808810926159495</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24813,16 +24813,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>115.5147487706379</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>73.09916601505078</v>
       </c>
       <c r="W30" t="n">
-        <v>139.4595389244232</v>
+        <v>141.2683498505826</v>
       </c>
       <c r="X30" t="n">
-        <v>14.12526324739203</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>69.40534687160033</v>
       </c>
       <c r="C31" t="n">
-        <v>20.01717756386596</v>
+        <v>56.82018778829087</v>
       </c>
       <c r="D31" t="n">
-        <v>36.38002878171589</v>
+        <v>38.18883970787539</v>
       </c>
       <c r="E31" t="n">
-        <v>34.19851841007271</v>
+        <v>36.0073293362322</v>
       </c>
       <c r="F31" t="n">
-        <v>33.18560378643478</v>
+        <v>34.99441471259428</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>51.80053919710261</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.86675806683252</v>
       </c>
       <c r="S31" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>174.0835851199944</v>
+        <v>21.55565017535508</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>30.7948210185167</v>
       </c>
       <c r="W31" t="n">
-        <v>15.82005356018271</v>
+        <v>176.096365026254</v>
       </c>
       <c r="X31" t="n">
-        <v>113.4742111525407</v>
+        <v>115.2830220787002</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3492091155983</v>
+        <v>108.1580200417578</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.4983974269841</v>
+        <v>117.9704624823448</v>
       </c>
       <c r="C32" t="n">
-        <v>253.0374475345111</v>
+        <v>100.5095125898717</v>
       </c>
       <c r="D32" t="n">
-        <v>102.8694229086321</v>
+        <v>244.256408310346</v>
       </c>
       <c r="E32" t="n">
-        <v>111.2274252958535</v>
+        <v>271.5037367619248</v>
       </c>
       <c r="F32" t="n">
-        <v>136.1731009653031</v>
+        <v>296.4494124313745</v>
       </c>
       <c r="G32" t="n">
-        <v>144.5997927387268</v>
+        <v>304.8761042047981</v>
       </c>
       <c r="H32" t="n">
-        <v>227.2393578792707</v>
+        <v>229.0481688054302</v>
       </c>
       <c r="I32" t="n">
-        <v>98.24044533390945</v>
+        <v>100.0492562600689</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.63367370465322</v>
+        <v>39.44248463081271</v>
       </c>
       <c r="S32" t="n">
-        <v>96.78462534974888</v>
+        <v>61.90512049340379</v>
       </c>
       <c r="T32" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>215.5168142336385</v>
+        <v>217.3256251597979</v>
       </c>
       <c r="W32" t="n">
-        <v>237.0055244809166</v>
+        <v>238.814335407076</v>
       </c>
       <c r="X32" t="n">
-        <v>257.4956564419726</v>
+        <v>259.3044673681321</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0024944195571</v>
+        <v>275.8113053457166</v>
       </c>
     </row>
     <row r="33">
@@ -24993,25 +24993,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.29773941337088</v>
+        <v>56.10655033953037</v>
       </c>
       <c r="C33" t="n">
-        <v>60.47305475181928</v>
+        <v>62.28186567797877</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>37.01843225430179</v>
       </c>
       <c r="E33" t="n">
-        <v>45.40963621890448</v>
+        <v>47.21844714506398</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>34.64257908304691</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>26.91688385287367</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.808810926159495</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25050,16 +25050,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>92.72566886475872</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>121.8040566230062</v>
       </c>
       <c r="X33" t="n">
-        <v>93.53754096698101</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.59653594544083</v>
+        <v>69.40534687160033</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>56.82018778829087</v>
       </c>
       <c r="D34" t="n">
-        <v>36.38002878171589</v>
+        <v>38.18883970787539</v>
       </c>
       <c r="E34" t="n">
-        <v>34.19851841007271</v>
+        <v>36.0073293362322</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>34.99441471259428</v>
       </c>
       <c r="G34" t="n">
-        <v>55.7555351219623</v>
+        <v>57.56434604812179</v>
       </c>
       <c r="H34" t="n">
-        <v>49.99172827094311</v>
+        <v>51.80053919710261</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>45.02384161692132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>111.7811538004758</v>
+        <v>113.5899647266353</v>
       </c>
       <c r="T34" t="n">
-        <v>115.710145191785</v>
+        <v>117.5189561179445</v>
       </c>
       <c r="U34" t="n">
-        <v>15.6160845800826</v>
+        <v>21.55565017535508</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9021990873316</v>
+        <v>141.711010013491</v>
       </c>
       <c r="W34" t="n">
-        <v>15.82005356018271</v>
+        <v>21.7596191554552</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.05072308410769</v>
+        <v>0.03124855349204836</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5337372208467</v>
+        <v>152.6313841925894</v>
       </c>
       <c r="F35" t="n">
-        <v>317.4794128902964</v>
+        <v>159.1801197542399</v>
       </c>
       <c r="G35" t="n">
-        <v>325.90610466372</v>
+        <v>167.6068115276635</v>
       </c>
       <c r="H35" t="n">
-        <v>250.0781692643521</v>
+        <v>91.77887612829554</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.47248508973462</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U35" t="n">
-        <v>3.481519516509593</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V35" t="n">
-        <v>79.888125078808</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W35" t="n">
-        <v>101.3768353260861</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X35" t="n">
-        <v>274.455510064216</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13655079845228</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>83.31186613690068</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322369</v>
+        <v>37.18800363840152</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398588</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
-        <v>37.82308766936295</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>22.8388113850814</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.76120130122807</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242276</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>3.830849769592703</v>
+        <v>3.999057173447994</v>
       </c>
       <c r="X36" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052223</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
-        <v>77.85018824721277</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679729</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515411</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
-        <v>56.02441517151618</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>78.5943465070437</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
-        <v>72.83053965602451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.1770888228007</v>
+        <v>55.27436474835014</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257712</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.89675852575442</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>38.45489596516398</v>
+        <v>38.62310336901928</v>
       </c>
       <c r="V37" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>38.6588649452641</v>
+        <v>38.82707234911939</v>
       </c>
       <c r="X37" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>134.8697082721537</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C38" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E38" t="n">
-        <v>292.5337372208467</v>
+        <v>268.292273662162</v>
       </c>
       <c r="F38" t="n">
-        <v>159.0119123503845</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H38" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I38" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>15.74946352181502</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U38" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V38" t="n">
-        <v>238.3556256187198</v>
+        <v>80.05633248266329</v>
       </c>
       <c r="W38" t="n">
-        <v>259.8443358659979</v>
+        <v>101.5450427299414</v>
       </c>
       <c r="X38" t="n">
-        <v>280.334467827054</v>
+        <v>122.0351746909975</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="39">
@@ -25470,22 +25470,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>57.02533414751419</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G39" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U39" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V39" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>145.236777671779</v>
+        <v>3.999057173447994</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E40" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F40" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G40" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I40" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J40" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>60.7840712334675</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.5489565768664</v>
+        <v>133.5332861003926</v>
       </c>
       <c r="U40" t="n">
-        <v>38.45489596516398</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V40" t="n">
-        <v>162.7410104724129</v>
+        <v>4.44171733635639</v>
       </c>
       <c r="W40" t="n">
-        <v>38.6588649452641</v>
+        <v>38.82707234911939</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>296.6393408450356</v>
+        <v>299.3653607613526</v>
       </c>
       <c r="C41" t="n">
-        <v>279.1783909525626</v>
+        <v>127.5676649980808</v>
       </c>
       <c r="D41" t="n">
-        <v>268.588540802238</v>
+        <v>271.314560718555</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3683687139049</v>
+        <v>298.5618891701338</v>
       </c>
       <c r="F41" t="n">
-        <v>320.7815449232664</v>
+        <v>323.5075648395834</v>
       </c>
       <c r="G41" t="n">
-        <v>326.6314109668221</v>
+        <v>331.9342566130071</v>
       </c>
       <c r="H41" t="n">
-        <v>253.3803012973222</v>
+        <v>256.1063212136391</v>
       </c>
       <c r="I41" t="n">
-        <v>124.3813887519609</v>
+        <v>127.1074086682779</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.77461712270471</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>122.9255687678004</v>
+        <v>56.21241996013946</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>139.7273686620034</v>
       </c>
       <c r="U41" t="n">
-        <v>165.2511520893915</v>
+        <v>167.9771720057085</v>
       </c>
       <c r="V41" t="n">
-        <v>83.1902571117781</v>
+        <v>244.3837775680069</v>
       </c>
       <c r="W41" t="n">
-        <v>263.146467898968</v>
+        <v>265.872487815285</v>
       </c>
       <c r="X41" t="n">
-        <v>283.636599860024</v>
+        <v>132.0258739055422</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.6759372976968</v>
+        <v>148.5327118831268</v>
       </c>
     </row>
     <row r="42">
@@ -25707,19 +25707,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>38.36218415584691</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>64.07658466251078</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>61.70073149125591</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>53.97503626108266</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>16.78935325051516</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.41023146870997</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>139.8468812625298</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>146.7060863309803</v>
+        <v>149.4321062472973</v>
       </c>
       <c r="W42" t="n">
-        <v>165.6004823424746</v>
+        <v>168.3265022587916</v>
       </c>
       <c r="X42" t="n">
-        <v>119.6784843850325</v>
+        <v>122.4045043013495</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.5881949588594</v>
+        <v>122.3142148751764</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.73747936349233</v>
+        <v>96.46349927980933</v>
       </c>
       <c r="C43" t="n">
-        <v>81.15232028018286</v>
+        <v>83.87834019649986</v>
       </c>
       <c r="D43" t="n">
-        <v>62.52097219976739</v>
+        <v>65.24699211608439</v>
       </c>
       <c r="E43" t="n">
-        <v>13.92123302876482</v>
+        <v>63.0654817444412</v>
       </c>
       <c r="F43" t="n">
-        <v>59.32654720448627</v>
+        <v>62.05256712080327</v>
       </c>
       <c r="G43" t="n">
-        <v>81.89647854001379</v>
+        <v>39.21154292801579</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13267168899461</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.35597410881331</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.264679298227804</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.793562349566415</v>
       </c>
       <c r="R43" t="n">
-        <v>91.19889055872451</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>140.6481171348443</v>
       </c>
       <c r="T43" t="n">
-        <v>141.8510886098365</v>
+        <v>144.5771085261535</v>
       </c>
       <c r="U43" t="n">
-        <v>200.2245285380459</v>
+        <v>202.9505484543629</v>
       </c>
       <c r="V43" t="n">
-        <v>166.043142505383</v>
+        <v>14.43241655090119</v>
       </c>
       <c r="W43" t="n">
-        <v>41.96099697823419</v>
+        <v>48.81777156366419</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>142.3411744869092</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>135.2161724499668</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391312.0534709686</v>
+        <v>397120.1226292399</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>391312.0534709686</v>
+        <v>397120.1226292399</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542615.5558897867</v>
+        <v>534646.1618432687</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542615.5558897868</v>
+        <v>534646.1618432687</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>529103.9310282626</v>
+        <v>534646.1618432687</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590424.1645904593</v>
+        <v>584396.2396027648</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>590424.1645904595</v>
+        <v>584396.2396027648</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548851.2779827528</v>
+        <v>553427.8287542032</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548851.2779827528</v>
+        <v>553427.8287542032</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542615.5558897869</v>
+        <v>534646.1618432687</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811866</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811865</v>
       </c>
-      <c r="C2" t="n">
-        <v>778312.5217811862</v>
-      </c>
       <c r="D2" t="n">
-        <v>778312.5217811867</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="E2" t="n">
-        <v>228721.9089295307</v>
+        <v>228721.9089295305</v>
       </c>
       <c r="F2" t="n">
-        <v>349784.523835042</v>
+        <v>356681.6059604892</v>
       </c>
       <c r="G2" t="n">
-        <v>349784.523835042</v>
+        <v>356681.6059604887</v>
       </c>
       <c r="H2" t="n">
-        <v>486807.6836343914</v>
+        <v>478410.3449696671</v>
       </c>
       <c r="I2" t="n">
-        <v>486807.6836343912</v>
+        <v>478410.3449696672</v>
       </c>
       <c r="J2" t="n">
-        <v>470762.6291113314</v>
+        <v>478410.3449696671</v>
       </c>
       <c r="K2" t="n">
-        <v>543580.4064664395</v>
+        <v>537488.5623090686</v>
       </c>
       <c r="L2" t="n">
-        <v>543580.4064664396</v>
+        <v>537488.5623090687</v>
       </c>
       <c r="M2" t="n">
-        <v>494212.6036197871</v>
+        <v>500713.5744264013</v>
       </c>
       <c r="N2" t="n">
-        <v>494212.6036197877</v>
+        <v>500713.5744264015</v>
       </c>
       <c r="O2" t="n">
-        <v>486807.6836343912</v>
+        <v>478410.344969667</v>
       </c>
       <c r="P2" t="n">
-        <v>204264.0705097481</v>
+        <v>204264.0705097482</v>
       </c>
     </row>
     <row r="3">
@@ -26375,22 +26375,22 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>42611.99217505503</v>
+        <v>45048.26279513518</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>61027.0069612382</v>
+        <v>55295.40562158573</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2641.705626376086</v>
+        <v>7992.559371635843</v>
       </c>
       <c r="K3" t="n">
-        <v>68875.60065475598</v>
+        <v>66694.78472170238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>109632.2639604309</v>
+        <v>111451.1164620685</v>
       </c>
       <c r="F4" t="n">
-        <v>182367.5846659631</v>
+        <v>188330.2554778059</v>
       </c>
       <c r="G4" t="n">
-        <v>182367.5846659631</v>
+        <v>188330.2554778059</v>
       </c>
       <c r="H4" t="n">
-        <v>255556.2096745879</v>
+        <v>253215.306090077</v>
       </c>
       <c r="I4" t="n">
-        <v>255556.2096745879</v>
+        <v>253215.306090077</v>
       </c>
       <c r="J4" t="n">
-        <v>245903.8369291158</v>
+        <v>253215.306090077</v>
       </c>
       <c r="K4" t="n">
-        <v>289665.684393421</v>
+        <v>288709.9390801737</v>
       </c>
       <c r="L4" t="n">
-        <v>289665.684393421</v>
+        <v>288709.9390801737</v>
       </c>
       <c r="M4" t="n">
-        <v>260005.1407534105</v>
+        <v>266615.2524613893</v>
       </c>
       <c r="N4" t="n">
-        <v>260005.1407534106</v>
+        <v>266615.2524613893</v>
       </c>
       <c r="O4" t="n">
-        <v>255556.2096745879</v>
+        <v>253215.306090077</v>
       </c>
       <c r="P4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>5317.842554973444</v>
+        <v>5573.861098422842</v>
       </c>
       <c r="G5" t="n">
-        <v>5317.842554973444</v>
+        <v>5573.861098422842</v>
       </c>
       <c r="H5" t="n">
-        <v>16872.70262213249</v>
+        <v>16392.37896990556</v>
       </c>
       <c r="I5" t="n">
-        <v>16872.70262213249</v>
+        <v>16392.37896990556</v>
       </c>
       <c r="J5" t="n">
-        <v>16310.40146774469</v>
+        <v>16392.37896990556</v>
       </c>
       <c r="K5" t="n">
-        <v>19070.34559434466</v>
+        <v>18667.13078471129</v>
       </c>
       <c r="L5" t="n">
-        <v>19070.34559434466</v>
+        <v>18667.13078471129</v>
       </c>
       <c r="M5" t="n">
-        <v>17150.30956001225</v>
+        <v>17232.28706217313</v>
       </c>
       <c r="N5" t="n">
-        <v>17150.30956001225</v>
+        <v>17232.28706217313</v>
       </c>
       <c r="O5" t="n">
-        <v>16872.70262213249</v>
+        <v>16392.37896990556</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304854.5242870036</v>
+        <v>303035.671785366</v>
       </c>
       <c r="C6" t="n">
-        <v>304854.5242870033</v>
+        <v>303035.6717853659</v>
       </c>
       <c r="D6" t="n">
-        <v>304854.5242870038</v>
+        <v>303035.671785366</v>
       </c>
       <c r="E6" t="n">
-        <v>110257.1775051965</v>
+        <v>108438.3250035586</v>
       </c>
       <c r="F6" t="n">
-        <v>119487.1044390504</v>
+        <v>117729.2265891253</v>
       </c>
       <c r="G6" t="n">
-        <v>162099.0966141055</v>
+        <v>162777.4893842599</v>
       </c>
       <c r="H6" t="n">
-        <v>153351.7643764328</v>
+        <v>153507.2542880989</v>
       </c>
       <c r="I6" t="n">
-        <v>214378.7713376708</v>
+        <v>208802.6599096846</v>
       </c>
       <c r="J6" t="n">
-        <v>205906.6850880948</v>
+        <v>200810.1005380487</v>
       </c>
       <c r="K6" t="n">
-        <v>165968.7758239178</v>
+        <v>163416.7077224812</v>
       </c>
       <c r="L6" t="n">
-        <v>234844.3764786739</v>
+        <v>230111.4924441838</v>
       </c>
       <c r="M6" t="n">
-        <v>217057.1533063643</v>
+        <v>216866.0349028389</v>
       </c>
       <c r="N6" t="n">
-        <v>217057.1533063649</v>
+        <v>216866.034902839</v>
       </c>
       <c r="O6" t="n">
-        <v>214378.7713376707</v>
+        <v>208802.6599096845</v>
       </c>
       <c r="P6" t="n">
-        <v>109326.258033084</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G2" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I2" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J2" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K2" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="L2" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="M2" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4675005399119</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="I4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="J4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="K4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="L4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>53.26499021881878</v>
+        <v>56.31032849391897</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>22.8388113850814</v>
+        <v>17.06745319366419</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.302132032970107</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>53.26499021881878</v>
+        <v>56.31032849391897</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.8388113850814</v>
+        <v>17.06745319366419</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.302132032970107</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="P2" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="C14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="D14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="E14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="F14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="I14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="S14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="T14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="U14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="V14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="W14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="X14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="C15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="D15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="E15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="F15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="I15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="S15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="T15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="U15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="V15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="W15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="X15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="C16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="D16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="E16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="F16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="I16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="J16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="R16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="S16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="T16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="U16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="V16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="W16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="X16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="C17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="D17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="E17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="F17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="I17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="S17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="T17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="U17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="V17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="W17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="X17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="Y17" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="C18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="D18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="E18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="F18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="I18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="S18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="T18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="U18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="V18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="W18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="X18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="Y18" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="C19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="D19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="E19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="F19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="G19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="H19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="I19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="J19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28764,31 +28764,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="R19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="S19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="T19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="U19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="V19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="W19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="X19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.25568943336359</v>
+        <v>66.30102770846378</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="M22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="N22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="O22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="R22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="M25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="N25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="O25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="R25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="M28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="N28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="O28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="R28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="C29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="D29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="E29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="F29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="G29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="H29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="I29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29557,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="S29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="T29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="U29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="V29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="W29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="X29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="C30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="D30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="E30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="F30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="G30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29639,25 +29639,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="T30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="U30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="V30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="W30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="X30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Y30" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="C31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="D31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="E31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="F31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="G31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="H31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="I31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="J31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="K31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>17.3943687378799</v>
       </c>
       <c r="M31" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.2045734915702</v>
       </c>
       <c r="O31" t="n">
-        <v>22.67556286005825</v>
+        <v>110.426633310337</v>
       </c>
       <c r="P31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Q31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="R31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="S31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="T31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="U31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="V31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="W31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="X31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="C32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="D32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="E32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="F32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="G32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="H32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="I32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29794,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="S32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="T32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="U32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="V32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="W32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="X32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
     </row>
     <row r="33">
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="D33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="E33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="F33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="G33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29876,25 +29876,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="T33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="U33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="V33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="W33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="X33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Y33" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="C34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="D34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="E34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="F34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="G34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="H34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="I34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="J34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="K34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="L34" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>112.2354442364965</v>
+        <v>17.3943687378799</v>
       </c>
       <c r="N34" t="n">
-        <v>22.67556286005826</v>
+        <v>110.2045734915702</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>110.426633310337</v>
       </c>
       <c r="P34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Q34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="R34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="S34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="T34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="U34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="V34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="W34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="X34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.2354442364965</v>
+        <v>110.426633310337</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="M37" t="n">
-        <v>66.34925105387372</v>
+        <v>26.2178479644256</v>
       </c>
       <c r="N37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="P37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.39663285141506</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="M40" t="n">
-        <v>66.34925105387366</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N40" t="n">
-        <v>89.39663285141508</v>
+        <v>26.21784796442556</v>
       </c>
       <c r="O40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="P40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y42" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="M43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="N43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="O43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="R43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.09450081844497</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="44">
@@ -36127,10 +36127,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>123.6765305417378</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N20" t="n">
-        <v>158.4675005399119</v>
+        <v>111.4511657129487</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>105.7183519375586</v>
       </c>
       <c r="M21" t="n">
-        <v>158.4675005399119</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>113.8129620972346</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="P21" t="n">
-        <v>158.4675005399119</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.82500899256213</v>
+        <v>61.09898907624512</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6845260787611</v>
+        <v>110.9585061624441</v>
       </c>
       <c r="M22" t="n">
-        <v>125.6783777802856</v>
+        <v>122.9523578639686</v>
       </c>
       <c r="N22" t="n">
-        <v>130.2266731976736</v>
+        <v>127.5006532813566</v>
       </c>
       <c r="O22" t="n">
-        <v>110.6796287324847</v>
+        <v>107.9536088161676</v>
       </c>
       <c r="P22" t="n">
-        <v>83.37306008333847</v>
+        <v>80.64704016702146</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N23" t="n">
-        <v>123.6765305417377</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>44.04535622862279</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M24" t="n">
-        <v>81.9692595955423</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N24" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4675005399118</v>
+        <v>148.100917754807</v>
       </c>
       <c r="P24" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.82500899256212</v>
+        <v>61.09898907624512</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6845260787611</v>
+        <v>110.9585061624441</v>
       </c>
       <c r="M25" t="n">
-        <v>125.6783777802856</v>
+        <v>122.9523578639686</v>
       </c>
       <c r="N25" t="n">
-        <v>130.2266731976736</v>
+        <v>127.5006532813566</v>
       </c>
       <c r="O25" t="n">
-        <v>110.6796287324846</v>
+        <v>107.9536088161676</v>
       </c>
       <c r="P25" t="n">
-        <v>83.37306008333846</v>
+        <v>80.64704016702146</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>69.26459152801002</v>
+        <v>61.16998136833406</v>
       </c>
       <c r="M26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36680,16 +36680,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>81.9692595955423</v>
+        <v>78.00540410497932</v>
       </c>
       <c r="N27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="P27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>57.13644181098742</v>
+        <v>61.09898907624512</v>
       </c>
       <c r="L28" t="n">
-        <v>106.9959588971864</v>
+        <v>110.9585061624441</v>
       </c>
       <c r="M28" t="n">
-        <v>118.9898105987109</v>
+        <v>122.9523578639686</v>
       </c>
       <c r="N28" t="n">
-        <v>123.5381060160989</v>
+        <v>127.5006532813566</v>
       </c>
       <c r="O28" t="n">
-        <v>103.9910615509099</v>
+        <v>107.9536088161676</v>
       </c>
       <c r="P28" t="n">
-        <v>76.68449290176376</v>
+        <v>80.64704016702146</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>61.16998136833406</v>
       </c>
       <c r="L29" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>48.00921171918576</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>148.1009177548069</v>
       </c>
       <c r="M30" t="n">
-        <v>81.9692595955423</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="P30" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.87626411982369</v>
+        <v>17.06745319366419</v>
       </c>
       <c r="K31" t="n">
-        <v>89.96595241061361</v>
+        <v>88.15714148445412</v>
       </c>
       <c r="L31" t="n">
-        <v>27.59002526031614</v>
+        <v>44.98439399819604</v>
       </c>
       <c r="M31" t="n">
-        <v>151.819321198337</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>156.3676166157251</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O31" t="n">
-        <v>47.26069077409792</v>
+        <v>135.0117612243766</v>
       </c>
       <c r="P31" t="n">
-        <v>109.51400350139</v>
+        <v>107.7051925752305</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.07340098480208</v>
+        <v>24.26459005864258</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>158.4675005399118</v>
+        <v>61.16998136833406</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N32" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>55.77474241803891</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>152.0647732453699</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M33" t="n">
-        <v>158.4675005399118</v>
+        <v>105.7183519375586</v>
       </c>
       <c r="N33" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.87626411982369</v>
+        <v>17.06745319366419</v>
       </c>
       <c r="K34" t="n">
-        <v>89.96595241061361</v>
+        <v>88.15714148445412</v>
       </c>
       <c r="L34" t="n">
-        <v>139.8254694968126</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>151.819321198337</v>
+        <v>56.97824569972049</v>
       </c>
       <c r="N34" t="n">
-        <v>66.80773523928686</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>135.0117612243766</v>
       </c>
       <c r="P34" t="n">
-        <v>109.51400350139</v>
+        <v>107.7051925752305</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.07340098480208</v>
+        <v>24.26459005864258</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,19 +37309,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N35" t="n">
-        <v>158.4675005399118</v>
+        <v>107.8163896832085</v>
       </c>
       <c r="O35" t="n">
-        <v>48.00921171918576</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>158.4675005399118</v>
+        <v>78.00540410497932</v>
       </c>
       <c r="N36" t="n">
-        <v>25.44097520715034</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="P36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>67.12714102553221</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
-        <v>116.9866581117312</v>
+        <v>120.9492053769889</v>
       </c>
       <c r="M37" t="n">
-        <v>105.9331280157143</v>
+        <v>65.80172492626619</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5288052306437</v>
+        <v>137.4913524959014</v>
       </c>
       <c r="O37" t="n">
-        <v>113.9817607654547</v>
+        <v>117.9443080307124</v>
       </c>
       <c r="P37" t="n">
-        <v>86.67519211630855</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.234589599720678</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>158.4675005399118</v>
+        <v>61.16998136833406</v>
       </c>
       <c r="M38" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N38" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O38" t="n">
-        <v>48.00921171918576</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M39" t="n">
-        <v>81.9692595955423</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N39" t="n">
-        <v>158.4675005399118</v>
+        <v>105.7183519375586</v>
       </c>
       <c r="O39" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
-        <v>116.9866581117312</v>
+        <v>120.9492053769889</v>
       </c>
       <c r="M40" t="n">
-        <v>105.9331280157142</v>
+        <v>132.9430570785134</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5288052306437</v>
+        <v>70.35002034365415</v>
       </c>
       <c r="O40" t="n">
-        <v>113.9817607654548</v>
+        <v>117.9443080307124</v>
       </c>
       <c r="P40" t="n">
-        <v>86.67519211630857</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.234589599720692</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N41" t="n">
-        <v>69.26459152801</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>44.04535622862279</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="M42" t="n">
-        <v>81.9692595955423</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="N42" t="n">
-        <v>158.4675005399118</v>
+        <v>154.3367458707988</v>
       </c>
       <c r="O42" t="n">
-        <v>158.4675005399118</v>
+        <v>21.47711971658737</v>
       </c>
       <c r="P42" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.82500899256212</v>
+        <v>61.09898907624512</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6845260787611</v>
+        <v>110.9585061624441</v>
       </c>
       <c r="M43" t="n">
-        <v>125.6783777802856</v>
+        <v>122.9523578639686</v>
       </c>
       <c r="N43" t="n">
-        <v>130.2266731976736</v>
+        <v>127.5006532813566</v>
       </c>
       <c r="O43" t="n">
-        <v>110.6796287324846</v>
+        <v>107.9536088161676</v>
       </c>
       <c r="P43" t="n">
-        <v>83.37306008333846</v>
+        <v>80.64704016702146</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1773423.248654944</v>
+        <v>1719367.353990986</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3734806.867071133</v>
+        <v>3734806.867071138</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10880317.68944832</v>
+        <v>10880317.68944833</v>
       </c>
     </row>
     <row r="9">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>30.59619449749315</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>30.59619449749319</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
     </row>
     <row r="18">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.59619449749315</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="D18" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="E18" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30.59619449749319</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30.59619449749319</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="T19" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>26.63364723223545</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>30.59619449749318</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>30.59619449749315</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.73682390723567</v>
+        <v>30.59619449749319</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>30.59619449749315</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>30.59619449749319</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>30.59619449749315</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>145.782911643426</v>
-      </c>
-      <c r="W23" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="X23" t="n">
-        <v>165.511934200075</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.44430376118331</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.61961909963171</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>57.35618567595472</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.896689859111128</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V24" t="n">
         <v>142.7117072607412</v>
       </c>
       <c r="W24" t="n">
-        <v>161.6061032722356</v>
+        <v>138.084840095861</v>
       </c>
       <c r="X24" t="n">
-        <v>115.6841053147934</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="25">
@@ -2478,22 +2478,22 @@
         <v>89.74310029325326</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G25" t="n">
-        <v>2.189629326340258</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.6114442971224</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.048763435144</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>128.4957734634108</v>
       </c>
     </row>
     <row r="26">
@@ -2563,64 +2563,64 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>145.782911643426</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>59.78023805246565</v>
+      </c>
+      <c r="S26" t="n">
+        <v>118.9311896975613</v>
+      </c>
+      <c r="T26" t="n">
+        <v>133.0069696754473</v>
+      </c>
+      <c r="U26" t="n">
+        <v>161.2567730191525</v>
+      </c>
+      <c r="V26" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="H26" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3.831609598949311</v>
       </c>
       <c r="X26" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>82.61961909963171</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>67.55620056671691</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>54.98033250469985</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.14656434781243</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.0689542639591</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T27" t="n">
         <v>110.0758488061376</v>
@@ -2693,16 +2693,16 @@
         <v>135.8525021922908</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W27" t="n">
-        <v>43.42487657378233</v>
+        <v>161.6061032722356</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>10.47826149709219</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>26.90414156756587</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G28" t="n">
-        <v>77.90209946977473</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65.36159503857425</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.270300227988741</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>137.8567095395975</v>
       </c>
       <c r="U28" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W28" t="n">
-        <v>165.511934200075</v>
+        <v>151.4602976343093</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.782911643426</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,64 +2800,64 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>161.2567730191525</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>150.0380728243486</v>
+      </c>
+      <c r="X29" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="F29" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>165.511934200075</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.44430376118331</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.232416251387717</v>
       </c>
       <c r="G30" t="n">
         <v>47.2546372745266</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>81.59429121515379</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>142.7117072607412</v>
       </c>
       <c r="W30" t="n">
-        <v>161.6061032722356</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>110.5611071119981</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>77.1579412099438</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.90209946977473</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.34372943544066</v>
+        <v>8.119072640770899</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U31" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W31" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="X31" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>86.69492062822934</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>59.08799101519671</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>132.3147226381784</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>13.46818900524765</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>165.511934200075</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.75205672391435</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>81.92737206236275</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>43.99833719537961</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>54.28808546743089</v>
+        <v>8.331240174780957</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.376707226690144</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>80.90204417788483</v>
+        <v>80.90204417788485</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>135.1602551550218</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>142.0194602234723</v>
       </c>
       <c r="W33" t="n">
         <v>160.9138562349666</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>114.9918582775245</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>22.13480301948424</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>63.42606499440956</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>86.51226445121651</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.8035264261418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="D35" t="n">
-        <v>145.782911643426</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>132.3147226381784</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>13.46818900524765</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="F35" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="G35" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>81.92737206236275</v>
+        <v>81.92737206236276</v>
       </c>
       <c r="D36" t="n">
-        <v>56.66393863868576</v>
+        <v>56.66393863868578</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>41.9256162789323</v>
       </c>
       <c r="F36" t="n">
-        <v>54.28808546743089</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46.56239023725765</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>21.45431731054347</v>
+        <v>21.45431731054349</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.90204417788483</v>
+        <v>80.90204417788485</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>109.3836017688686</v>
       </c>
       <c r="U36" t="n">
         <v>135.1602551550218</v>
       </c>
       <c r="V36" t="n">
-        <v>4.446454959497187</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>160.9138562349666</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>114.9015688513514</v>
       </c>
     </row>
     <row r="37">
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.84801180368976</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.5780531907198</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.5122644512165</v>
+        <v>86.51226445121651</v>
       </c>
       <c r="S37" t="n">
-        <v>133.2354711110193</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>91.54711028126538</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.356516397875</v>
       </c>
       <c r="W37" t="n">
         <v>165.511934200075</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>86.00267359096036</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="E38" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>165.511934200075</v>
+        <v>17.03110314890124</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.78023805246565</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>133.0069696754474</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>161.2567730191525</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>78.63802907700452</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>57.35618567595473</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>67.55620056671692</v>
       </c>
       <c r="F39" t="n">
-        <v>54.98033250469985</v>
+        <v>54.98033250469986</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>47.25463727452662</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>22.14656434781244</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.0689542639591</v>
+        <v>10.06895426395911</v>
       </c>
       <c r="S39" t="n">
-        <v>81.59429121515379</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>82.53242548051857</v>
+        <v>142.7117072607413</v>
       </c>
       <c r="W39" t="n">
         <v>161.6061032722356</v>
       </c>
       <c r="X39" t="n">
-        <v>115.6841053147934</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>65.36159503857427</v>
       </c>
       <c r="J40" t="n">
-        <v>3.270300227988741</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.20451148848545</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>137.8567095395975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>165.511934200075</v>
+        <v>113.7756460695047</v>
       </c>
       <c r="V40" t="n">
         <v>162.048763435144</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="X40" t="n">
-        <v>86.42649535236048</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,67 +3748,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="F41" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>115.1867171459329</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>130.7751102928394</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.57724478861391</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>32.33844608984197</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>103.8637830410367</v>
       </c>
       <c r="T42" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="U42" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="V42" t="n">
-        <v>130.7751102928394</v>
+        <v>88.18235351927967</v>
       </c>
       <c r="W42" t="n">
-        <v>115.1867171459329</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.61457458376799</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>100.1715912956576</v>
       </c>
       <c r="H43" t="n">
-        <v>94.40778444463839</v>
+        <v>17.97357763985311</v>
       </c>
       <c r="I43" t="n">
-        <v>87.6310868644571</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>18.34265518889322</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.4740033143683</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.91190054309064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="I44" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>130.7751102928393</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>115.1867171459329</v>
-      </c>
-      <c r="T44" t="n">
-        <v>130.7751102928394</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>79.62567750183756</v>
+        <v>79.62567750183759</v>
       </c>
       <c r="E45" t="n">
-        <v>89.82569239259975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>77.24982433058268</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>44.41605617369527</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.57724478861388</v>
+        <v>21.57724478861391</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>103.8637830410366</v>
+        <v>103.8637830410367</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>90.95376979608525</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>40.89512210728406</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.79608495541119</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>100.1715912956576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.29525816617445</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.4740033143683</v>
       </c>
       <c r="S46" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="U46" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.1867171459329</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>103.859594712543</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="C17" t="n">
-        <v>72.95434774537821</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="D17" t="n">
-        <v>37.86664682897853</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="E17" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="F17" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="G17" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="H17" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="I17" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="J17" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="K17" t="n">
-        <v>37.16840158074217</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="L17" t="n">
-        <v>37.16840158074217</v>
+        <v>37.16840158074218</v>
       </c>
       <c r="M17" t="n">
-        <v>71.55785724890549</v>
+        <v>71.55785724890552</v>
       </c>
       <c r="N17" t="n">
-        <v>71.55785724890549</v>
+        <v>105.9473129170688</v>
       </c>
       <c r="O17" t="n">
-        <v>105.9473129170688</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="P17" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R17" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="S17" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="T17" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="U17" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="V17" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="W17" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="X17" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="Y17" t="n">
-        <v>103.859594712543</v>
+        <v>33.6841928797437</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.95434774537821</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="C18" t="n">
-        <v>72.95434774537821</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="D18" t="n">
-        <v>37.86664682897853</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="E18" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="F18" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="G18" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="H18" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="I18" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="J18" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="K18" t="n">
-        <v>37.16840158074217</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="L18" t="n">
-        <v>71.55785724890549</v>
+        <v>37.16840158074218</v>
       </c>
       <c r="M18" t="n">
-        <v>105.9473129170688</v>
+        <v>37.16840158074218</v>
       </c>
       <c r="N18" t="n">
-        <v>105.9473129170688</v>
+        <v>37.16840158074218</v>
       </c>
       <c r="O18" t="n">
-        <v>105.9473129170688</v>
+        <v>71.55785724890552</v>
       </c>
       <c r="P18" t="n">
-        <v>105.9473129170688</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R18" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S18" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="T18" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="U18" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="V18" t="n">
-        <v>103.859594712543</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="W18" t="n">
-        <v>103.859594712543</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="X18" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="Y18" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.78151890778865</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="C19" t="n">
-        <v>6.78151890778865</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="D19" t="n">
-        <v>6.78151890778865</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="E19" t="n">
-        <v>6.78151890778865</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="F19" t="n">
-        <v>6.78151890778865</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="G19" t="n">
-        <v>6.78151890778865</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="H19" t="n">
-        <v>6.78151890778865</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="I19" t="n">
-        <v>6.78151890778865</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="J19" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="K19" t="n">
-        <v>15.31273894628031</v>
+        <v>15.31273894628035</v>
       </c>
       <c r="L19" t="n">
-        <v>42.62686395399329</v>
+        <v>42.62686395399333</v>
       </c>
       <c r="M19" t="n">
-        <v>77.0163196221566</v>
+        <v>77.01631962215666</v>
       </c>
       <c r="N19" t="n">
-        <v>111.4057752903199</v>
+        <v>111.40577529032</v>
       </c>
       <c r="O19" t="n">
-        <v>135.7450519252192</v>
+        <v>135.7450519252193</v>
       </c>
       <c r="P19" t="n">
-        <v>135.7450519252192</v>
+        <v>135.7450519252193</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R19" t="n">
-        <v>103.859594712543</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S19" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="T19" t="n">
-        <v>68.77189379614333</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="U19" t="n">
-        <v>33.68419287974366</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="V19" t="n">
-        <v>6.78151890778865</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="W19" t="n">
-        <v>6.78151890778865</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="X19" t="n">
-        <v>6.78151890778865</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.78151890778865</v>
+        <v>33.6841928797437</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.95434774537821</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="C20" t="n">
-        <v>72.95434774537821</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="D20" t="n">
-        <v>72.95434774537821</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="E20" t="n">
-        <v>37.86664682897853</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="F20" t="n">
-        <v>2.778945912578854</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="G20" t="n">
-        <v>2.778945912578854</v>
+        <v>72.95434774537824</v>
       </c>
       <c r="H20" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897855</v>
       </c>
       <c r="I20" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="J20" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="K20" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="L20" t="n">
-        <v>37.16840158074217</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="M20" t="n">
-        <v>71.55785724890549</v>
+        <v>35.77892862445278</v>
       </c>
       <c r="N20" t="n">
-        <v>105.9473129170688</v>
+        <v>70.16838429261611</v>
       </c>
       <c r="O20" t="n">
-        <v>138.9472956289427</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="P20" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R20" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S20" t="n">
-        <v>138.9472956289427</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="T20" t="n">
-        <v>138.9472956289427</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="U20" t="n">
-        <v>138.9472956289427</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="V20" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="W20" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="X20" t="n">
-        <v>72.95434774537821</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="Y20" t="n">
-        <v>72.95434774537821</v>
+        <v>103.8595947125431</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33.68419287974366</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="C21" t="n">
-        <v>33.68419287974366</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="D21" t="n">
-        <v>33.68419287974366</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="E21" t="n">
-        <v>33.68419287974366</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="F21" t="n">
-        <v>33.68419287974366</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="G21" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="H21" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="I21" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="J21" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="K21" t="n">
-        <v>2.778945912578854</v>
+        <v>35.77892862445278</v>
       </c>
       <c r="L21" t="n">
-        <v>35.77892862445274</v>
+        <v>70.16838429261611</v>
       </c>
       <c r="M21" t="n">
-        <v>70.16838429261605</v>
+        <v>70.16838429261611</v>
       </c>
       <c r="N21" t="n">
+        <v>70.16838429261611</v>
+      </c>
+      <c r="O21" t="n">
         <v>104.5578399607794</v>
       </c>
-      <c r="O21" t="n">
-        <v>138.9472956289427</v>
-      </c>
       <c r="P21" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R21" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S21" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="T21" t="n">
-        <v>103.859594712543</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="U21" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="V21" t="n">
-        <v>103.859594712543</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="W21" t="n">
-        <v>103.859594712543</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="X21" t="n">
-        <v>103.859594712543</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.77189379614333</v>
+        <v>33.6841928797437</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="C22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="D22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="E22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="F22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="G22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="H22" t="n">
-        <v>2.778945912578854</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="I22" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="J22" t="n">
-        <v>2.778945912578854</v>
+        <v>2.778945912578855</v>
       </c>
       <c r="K22" t="n">
-        <v>18.51498265000381</v>
+        <v>18.51498265000385</v>
       </c>
       <c r="L22" t="n">
-        <v>45.82910765771678</v>
+        <v>45.82910765771683</v>
       </c>
       <c r="M22" t="n">
-        <v>80.2185633258801</v>
+        <v>80.21856332588015</v>
       </c>
       <c r="N22" t="n">
-        <v>114.6080189940434</v>
+        <v>114.6080189940435</v>
       </c>
       <c r="O22" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="P22" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R22" t="n">
-        <v>138.9472956289427</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S22" t="n">
-        <v>138.9472956289427</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="T22" t="n">
-        <v>138.9472956289427</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="U22" t="n">
-        <v>108.0420486617779</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="V22" t="n">
-        <v>108.0420486617779</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="W22" t="n">
-        <v>108.0420486617779</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="X22" t="n">
-        <v>72.95434774537821</v>
+        <v>33.6841928797437</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.86664682897853</v>
+        <v>33.6841928797437</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.240954736006</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="C23" t="n">
-        <v>13.240954736006</v>
+        <v>347.6084985745414</v>
       </c>
       <c r="D23" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="E23" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="F23" t="n">
         <v>13.240954736006</v>
@@ -5992,13 +5992,13 @@
         <v>13.240954736006</v>
       </c>
       <c r="K23" t="n">
-        <v>116.2559606469284</v>
+        <v>13.240954736006</v>
       </c>
       <c r="L23" t="n">
-        <v>280.1127755050026</v>
+        <v>95.47910164945253</v>
       </c>
       <c r="M23" t="n">
-        <v>423.192731365601</v>
+        <v>259.3359165075268</v>
       </c>
       <c r="N23" t="n">
         <v>423.192731365601</v>
@@ -6025,16 +6025,16 @@
         <v>662.0477368003001</v>
       </c>
       <c r="V23" t="n">
+        <v>662.0477368003001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>662.0477368003001</v>
+      </c>
+      <c r="X23" t="n">
         <v>514.7922704938092</v>
       </c>
-      <c r="W23" t="n">
-        <v>347.6084985745414</v>
-      </c>
-      <c r="X23" t="n">
-        <v>180.4247266552737</v>
-      </c>
       <c r="Y23" t="n">
-        <v>180.4247266552737</v>
+        <v>514.7922704938092</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.6306565295276</v>
+        <v>13.240954736006</v>
       </c>
       <c r="C24" t="n">
-        <v>71.17649582282895</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D24" t="n">
         <v>13.240954736006</v>
@@ -6077,43 +6077,43 @@
         <v>302.4553296519177</v>
       </c>
       <c r="M24" t="n">
-        <v>466.312144509992</v>
+        <v>302.4553296519177</v>
       </c>
       <c r="N24" t="n">
-        <v>630.1689593680662</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="O24" t="n">
-        <v>662.0477368003001</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="P24" t="n">
-        <v>662.0477368003001</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="Q24" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R24" t="n">
-        <v>656.0914844173595</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S24" t="n">
-        <v>656.0914844173595</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T24" t="n">
-        <v>656.0914844173595</v>
+        <v>550.8600107334944</v>
       </c>
       <c r="U24" t="n">
-        <v>656.0914844173595</v>
+        <v>413.6352610443117</v>
       </c>
       <c r="V24" t="n">
-        <v>511.9382447600451</v>
+        <v>269.4820213869973</v>
       </c>
       <c r="W24" t="n">
-        <v>348.6997566062718</v>
+        <v>130.0023849265316</v>
       </c>
       <c r="X24" t="n">
-        <v>231.8471249751673</v>
+        <v>130.0023849265316</v>
       </c>
       <c r="Y24" t="n">
-        <v>231.8471249751673</v>
+        <v>13.240954736006</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.45270153028909</v>
+        <v>353.5190648355026</v>
       </c>
       <c r="C25" t="n">
-        <v>15.45270153028909</v>
+        <v>275.581750482024</v>
       </c>
       <c r="D25" t="n">
-        <v>15.45270153028909</v>
+        <v>216.4639796441166</v>
       </c>
       <c r="E25" t="n">
-        <v>15.45270153028909</v>
+        <v>159.5497546361518</v>
       </c>
       <c r="F25" t="n">
-        <v>15.45270153028909</v>
+        <v>103.6586757126698</v>
       </c>
       <c r="G25" t="n">
-        <v>13.240954736006</v>
+        <v>24.96968634926095</v>
       </c>
       <c r="H25" t="n">
         <v>13.240954736006</v>
@@ -6156,10 +6156,10 @@
         <v>196.8842650156893</v>
       </c>
       <c r="M25" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977087</v>
       </c>
       <c r="N25" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429422</v>
       </c>
       <c r="O25" t="n">
         <v>571.6664037676386</v>
@@ -6183,16 +6183,16 @@
         <v>573.9623716604158</v>
       </c>
       <c r="V25" t="n">
-        <v>410.2767520289572</v>
+        <v>573.9623716604158</v>
       </c>
       <c r="W25" t="n">
-        <v>243.0929801096895</v>
+        <v>573.9623716604158</v>
       </c>
       <c r="X25" t="n">
-        <v>106.1022977861005</v>
+        <v>573.9623716604158</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.1022977861005</v>
+        <v>444.168661091314</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>494.8639648810324</v>
+        <v>13.240954736006</v>
       </c>
       <c r="C26" t="n">
-        <v>494.8639648810324</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D26" t="n">
-        <v>494.8639648810324</v>
+        <v>13.240954736006</v>
       </c>
       <c r="E26" t="n">
-        <v>347.6084985745414</v>
+        <v>13.240954736006</v>
       </c>
       <c r="F26" t="n">
-        <v>347.6084985745414</v>
+        <v>13.240954736006</v>
       </c>
       <c r="G26" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="H26" t="n">
         <v>13.240954736006</v>
@@ -6229,19 +6229,19 @@
         <v>13.240954736006</v>
       </c>
       <c r="K26" t="n">
-        <v>13.240954736006</v>
+        <v>116.2559606469284</v>
       </c>
       <c r="L26" t="n">
-        <v>95.47910164945253</v>
+        <v>280.1127755050026</v>
       </c>
       <c r="M26" t="n">
-        <v>259.3359165075268</v>
+        <v>348.9959717995778</v>
       </c>
       <c r="N26" t="n">
-        <v>423.192731365601</v>
+        <v>512.852786657652</v>
       </c>
       <c r="O26" t="n">
-        <v>572.3876815082491</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="P26" t="n">
         <v>662.0477368003001</v>
@@ -6250,28 +6250,28 @@
         <v>662.0477368003001</v>
       </c>
       <c r="R26" t="n">
-        <v>662.0477368003001</v>
+        <v>601.6636579594257</v>
       </c>
       <c r="S26" t="n">
-        <v>662.0477368003001</v>
+        <v>481.5311431134041</v>
       </c>
       <c r="T26" t="n">
-        <v>662.0477368003001</v>
+        <v>347.1806686937604</v>
       </c>
       <c r="U26" t="n">
-        <v>662.0477368003001</v>
+        <v>184.2950393814851</v>
       </c>
       <c r="V26" t="n">
-        <v>662.0477368003001</v>
+        <v>17.11126746221743</v>
       </c>
       <c r="W26" t="n">
-        <v>662.0477368003001</v>
+        <v>13.240954736006</v>
       </c>
       <c r="X26" t="n">
-        <v>494.8639648810324</v>
+        <v>13.240954736006</v>
       </c>
       <c r="Y26" t="n">
-        <v>494.8639648810324</v>
+        <v>13.240954736006</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>242.839658290411</v>
+        <v>13.240954736006</v>
       </c>
       <c r="C27" t="n">
-        <v>159.3854975837123</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D27" t="n">
-        <v>159.3854975837123</v>
+        <v>13.240954736006</v>
       </c>
       <c r="E27" t="n">
-        <v>91.14691115268508</v>
+        <v>13.240954736006</v>
       </c>
       <c r="F27" t="n">
-        <v>35.61122175399836</v>
+        <v>13.240954736006</v>
       </c>
       <c r="G27" t="n">
-        <v>35.61122175399836</v>
+        <v>13.240954736006</v>
       </c>
       <c r="H27" t="n">
         <v>13.240954736006</v>
@@ -6314,43 +6314,43 @@
         <v>13.240954736006</v>
       </c>
       <c r="M27" t="n">
-        <v>101.082733712748</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="N27" t="n">
-        <v>264.9395485708222</v>
+        <v>340.9545844521546</v>
       </c>
       <c r="O27" t="n">
-        <v>428.7963634288965</v>
+        <v>504.8113993102288</v>
       </c>
       <c r="P27" t="n">
-        <v>592.6531782869707</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q27" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R27" t="n">
-        <v>651.8770759276141</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S27" t="n">
-        <v>651.8770759276141</v>
+        <v>579.6292608253973</v>
       </c>
       <c r="T27" t="n">
-        <v>540.6893498608084</v>
+        <v>468.4415347585917</v>
       </c>
       <c r="U27" t="n">
-        <v>403.4646001716258</v>
+        <v>331.2167850694091</v>
       </c>
       <c r="V27" t="n">
-        <v>403.4646001716258</v>
+        <v>187.0635454120947</v>
       </c>
       <c r="W27" t="n">
-        <v>359.6010884809365</v>
+        <v>23.82505725832135</v>
       </c>
       <c r="X27" t="n">
-        <v>359.6010884809365</v>
+        <v>13.240954736006</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.839658290411</v>
+        <v>13.240954736006</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.4309914066157</v>
+        <v>69.13203365948803</v>
       </c>
       <c r="C28" t="n">
-        <v>188.4309914066157</v>
+        <v>69.13203365948803</v>
       </c>
       <c r="D28" t="n">
-        <v>161.2550908333168</v>
+        <v>69.13203365948803</v>
       </c>
       <c r="E28" t="n">
-        <v>161.2550908333168</v>
+        <v>69.13203365948803</v>
       </c>
       <c r="F28" t="n">
-        <v>161.2550908333168</v>
+        <v>13.240954736006</v>
       </c>
       <c r="G28" t="n">
-        <v>82.56610146990802</v>
+        <v>13.240954736006</v>
       </c>
       <c r="H28" t="n">
-        <v>82.56610146990802</v>
+        <v>13.240954736006</v>
       </c>
       <c r="I28" t="n">
-        <v>16.54428829963099</v>
+        <v>13.240954736006</v>
       </c>
       <c r="J28" t="n">
         <v>13.240954736006</v>
       </c>
       <c r="K28" t="n">
-        <v>80.38214891817904</v>
+        <v>80.38214891817915</v>
       </c>
       <c r="L28" t="n">
-        <v>196.8842650156892</v>
+        <v>196.8842650156893</v>
       </c>
       <c r="M28" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977087</v>
       </c>
       <c r="N28" t="n">
-        <v>458.139136042942</v>
+        <v>458.1391360429422</v>
       </c>
       <c r="O28" t="n">
-        <v>571.6664037676385</v>
+        <v>571.6664037676386</v>
       </c>
       <c r="P28" t="n">
         <v>658.1601685296803</v>
@@ -6417,19 +6417,19 @@
         <v>522.7985352451511</v>
       </c>
       <c r="U28" t="n">
-        <v>355.6147633258834</v>
+        <v>522.7985352451511</v>
       </c>
       <c r="V28" t="n">
-        <v>355.6147633258834</v>
+        <v>359.1129156136926</v>
       </c>
       <c r="W28" t="n">
-        <v>188.4309914066157</v>
+        <v>206.1227159830771</v>
       </c>
       <c r="X28" t="n">
-        <v>188.4309914066157</v>
+        <v>69.13203365948803</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.4309914066157</v>
+        <v>69.13203365948803</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>347.6084985745414</v>
+        <v>13.240954736006</v>
       </c>
       <c r="C29" t="n">
-        <v>347.6084985745414</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D29" t="n">
-        <v>347.6084985745414</v>
+        <v>13.240954736006</v>
       </c>
       <c r="E29" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="F29" t="n">
         <v>13.240954736006</v>
@@ -6472,13 +6472,13 @@
         <v>280.1127755050026</v>
       </c>
       <c r="M29" t="n">
+        <v>280.1127755050026</v>
+      </c>
+      <c r="N29" t="n">
         <v>443.9695903630769</v>
       </c>
-      <c r="N29" t="n">
-        <v>512.852786657652</v>
-      </c>
       <c r="O29" t="n">
-        <v>662.0477368003001</v>
+        <v>593.164540505725</v>
       </c>
       <c r="P29" t="n">
         <v>662.0477368003001</v>
@@ -6496,19 +6496,19 @@
         <v>662.0477368003001</v>
       </c>
       <c r="U29" t="n">
-        <v>662.0477368003001</v>
+        <v>499.1621074880248</v>
       </c>
       <c r="V29" t="n">
-        <v>662.0477368003001</v>
+        <v>499.1621074880248</v>
       </c>
       <c r="W29" t="n">
-        <v>662.0477368003001</v>
+        <v>347.6084985745414</v>
       </c>
       <c r="X29" t="n">
-        <v>662.0477368003001</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="Y29" t="n">
-        <v>494.8639648810324</v>
+        <v>13.240954736006</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.34317859695452</v>
+        <v>173.0927092545499</v>
       </c>
       <c r="C30" t="n">
-        <v>83.34317859695452</v>
+        <v>89.6385485478512</v>
       </c>
       <c r="D30" t="n">
-        <v>83.34317859695452</v>
+        <v>89.6385485478512</v>
       </c>
       <c r="E30" t="n">
-        <v>83.34317859695452</v>
+        <v>89.6385485478512</v>
       </c>
       <c r="F30" t="n">
         <v>83.34317859695452</v>
@@ -6548,10 +6548,10 @@
         <v>13.240954736006</v>
       </c>
       <c r="L30" t="n">
-        <v>13.240954736006</v>
+        <v>170.4772922260773</v>
       </c>
       <c r="M30" t="n">
-        <v>170.4772922260773</v>
+        <v>334.3341070841516</v>
       </c>
       <c r="N30" t="n">
         <v>334.3341070841516</v>
@@ -6569,25 +6569,25 @@
         <v>662.0477368003001</v>
       </c>
       <c r="S30" t="n">
-        <v>579.6292608253973</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T30" t="n">
-        <v>579.6292608253973</v>
+        <v>550.8600107334944</v>
       </c>
       <c r="U30" t="n">
-        <v>579.6292608253973</v>
+        <v>550.8600107334944</v>
       </c>
       <c r="V30" t="n">
-        <v>435.4760211680829</v>
+        <v>406.70677107618</v>
       </c>
       <c r="W30" t="n">
-        <v>272.2375330143095</v>
+        <v>406.70677107618</v>
       </c>
       <c r="X30" t="n">
-        <v>160.5596470425942</v>
+        <v>289.8541394450755</v>
       </c>
       <c r="Y30" t="n">
-        <v>160.5596470425942</v>
+        <v>173.0927092545499</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.1705920165184</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="C31" t="n">
-        <v>95.23327766303981</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="D31" t="n">
-        <v>95.23327766303981</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="E31" t="n">
-        <v>95.23327766303981</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="F31" t="n">
-        <v>95.23327766303981</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="G31" t="n">
         <v>16.54428829963099</v>
@@ -6624,16 +6624,16 @@
         <v>13.240954736006</v>
       </c>
       <c r="K31" t="n">
-        <v>80.38214891817915</v>
+        <v>80.38214891817904</v>
       </c>
       <c r="L31" t="n">
         <v>196.8842650156893</v>
       </c>
       <c r="M31" t="n">
-        <v>325.2602942977087</v>
+        <v>325.2602942977086</v>
       </c>
       <c r="N31" t="n">
-        <v>458.1391360429422</v>
+        <v>458.1391360429421</v>
       </c>
       <c r="O31" t="n">
         <v>571.6664037676386</v>
@@ -6648,25 +6648,25 @@
         <v>662.0477368003001</v>
       </c>
       <c r="S31" t="n">
-        <v>644.5288181786428</v>
+        <v>653.8466533247739</v>
       </c>
       <c r="T31" t="n">
-        <v>644.5288181786428</v>
+        <v>514.597451769625</v>
       </c>
       <c r="U31" t="n">
-        <v>477.3450462593751</v>
+        <v>347.4136798503573</v>
       </c>
       <c r="V31" t="n">
-        <v>477.3450462593751</v>
+        <v>183.7280602188987</v>
       </c>
       <c r="W31" t="n">
-        <v>310.1612743401074</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="X31" t="n">
-        <v>173.1705920165184</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.1705920165184</v>
+        <v>16.54428829963099</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.240954736006</v>
+        <v>100.8115816332074</v>
       </c>
       <c r="C32" t="n">
         <v>13.240954736006</v>
@@ -6706,10 +6706,10 @@
         <v>116.2559606469284</v>
       </c>
       <c r="L32" t="n">
-        <v>116.2559606469284</v>
+        <v>280.1127755050026</v>
       </c>
       <c r="M32" t="n">
-        <v>280.1127755050026</v>
+        <v>443.9695903630769</v>
       </c>
       <c r="N32" t="n">
         <v>443.9695903630769</v>
@@ -6724,28 +6724,28 @@
         <v>662.0477368003001</v>
       </c>
       <c r="R32" t="n">
-        <v>662.0477368003001</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="S32" t="n">
-        <v>662.0477368003001</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="T32" t="n">
-        <v>528.3965018122411</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="U32" t="n">
-        <v>528.3965018122411</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="V32" t="n">
-        <v>514.7922704938092</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="W32" t="n">
-        <v>347.6084985745414</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="X32" t="n">
-        <v>180.4247266552737</v>
+        <v>435.1791254717428</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.240954736006</v>
+        <v>267.9953535524751</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>195.2750908220396</v>
+        <v>21.65634885194636</v>
       </c>
       <c r="C33" t="n">
-        <v>112.5201695469257</v>
+        <v>21.65634885194636</v>
       </c>
       <c r="D33" t="n">
-        <v>112.5201695469257</v>
+        <v>21.65634885194636</v>
       </c>
       <c r="E33" t="n">
-        <v>68.07740470310792</v>
+        <v>21.65634885194636</v>
       </c>
       <c r="F33" t="n">
         <v>13.240954736006</v>
@@ -6782,49 +6782,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K33" t="n">
-        <v>13.240954736006</v>
+        <v>101.082733712748</v>
       </c>
       <c r="L33" t="n">
-        <v>177.0977695940803</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="M33" t="n">
-        <v>340.9545844521546</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="N33" t="n">
-        <v>340.9545844521546</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="O33" t="n">
-        <v>504.8113993102288</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0477368003001</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="Q33" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R33" t="n">
-        <v>652.5763153591989</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S33" t="n">
-        <v>570.8570788158809</v>
+        <v>580.328500256982</v>
       </c>
       <c r="T33" t="n">
-        <v>570.8570788158809</v>
+        <v>580.328500256982</v>
       </c>
       <c r="U33" t="n">
-        <v>434.331568558283</v>
+        <v>443.8029899993842</v>
       </c>
       <c r="V33" t="n">
-        <v>434.331568558283</v>
+        <v>300.3489897736546</v>
       </c>
       <c r="W33" t="n">
-        <v>271.7923198360945</v>
+        <v>137.8097410514661</v>
       </c>
       <c r="X33" t="n">
-        <v>271.7923198360945</v>
+        <v>21.65634885194636</v>
       </c>
       <c r="Y33" t="n">
-        <v>271.7923198360945</v>
+        <v>21.65634885194636</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.59934162437392</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="C34" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="D34" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="E34" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="F34" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="G34" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="H34" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="I34" t="n">
         <v>13.240954736006</v>
@@ -6861,7 +6861,7 @@
         <v>13.240954736006</v>
       </c>
       <c r="K34" t="n">
-        <v>81.06747348507544</v>
+        <v>81.06747348507542</v>
       </c>
       <c r="L34" t="n">
         <v>198.2549141494819</v>
@@ -6870,40 +6870,40 @@
         <v>327.3162679983975</v>
       </c>
       <c r="N34" t="n">
-        <v>456.0831623422532</v>
+        <v>456.0831623422534</v>
       </c>
       <c r="O34" t="n">
-        <v>570.2957546338459</v>
+        <v>570.2957546338462</v>
       </c>
       <c r="P34" t="n">
-        <v>657.474843962784</v>
+        <v>657.4748439627841</v>
       </c>
       <c r="Q34" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R34" t="n">
-        <v>662.0477368003001</v>
+        <v>574.6616110920006</v>
       </c>
       <c r="S34" t="n">
-        <v>662.0477368003001</v>
+        <v>574.6616110920006</v>
       </c>
       <c r="T34" t="n">
-        <v>662.0477368003001</v>
+        <v>574.6616110920006</v>
       </c>
       <c r="U34" t="n">
-        <v>494.8639648810324</v>
+        <v>407.4778391727329</v>
       </c>
       <c r="V34" t="n">
-        <v>331.8775846811586</v>
+        <v>244.4914589728591</v>
       </c>
       <c r="W34" t="n">
-        <v>164.6938127618909</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="X34" t="n">
-        <v>164.6938127618909</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.59934162437392</v>
+        <v>77.30768705359142</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>662.0477368003001</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="C35" t="n">
-        <v>662.0477368003001</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D35" t="n">
-        <v>514.7922704938092</v>
+        <v>13.240954736006</v>
       </c>
       <c r="E35" t="n">
-        <v>347.6084985745414</v>
+        <v>13.240954736006</v>
       </c>
       <c r="F35" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="G35" t="n">
         <v>13.240954736006</v>
@@ -6940,19 +6940,19 @@
         <v>13.240954736006</v>
       </c>
       <c r="K35" t="n">
-        <v>80.81723693402631</v>
+        <v>21.28234208342923</v>
       </c>
       <c r="L35" t="n">
-        <v>244.6740517921006</v>
+        <v>185.1391569415035</v>
       </c>
       <c r="M35" t="n">
-        <v>408.5308666501749</v>
+        <v>348.9959717995778</v>
       </c>
       <c r="N35" t="n">
-        <v>572.3876815082491</v>
+        <v>512.852786657652</v>
       </c>
       <c r="O35" t="n">
-        <v>572.3876815082491</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="P35" t="n">
         <v>662.0477368003001</v>
@@ -6967,22 +6967,22 @@
         <v>662.0477368003001</v>
       </c>
       <c r="T35" t="n">
-        <v>662.0477368003001</v>
+        <v>528.3965018122411</v>
       </c>
       <c r="U35" t="n">
-        <v>662.0477368003001</v>
+        <v>528.3965018122411</v>
       </c>
       <c r="V35" t="n">
-        <v>662.0477368003001</v>
+        <v>528.3965018122411</v>
       </c>
       <c r="W35" t="n">
-        <v>662.0477368003001</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="X35" t="n">
-        <v>662.0477368003001</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="Y35" t="n">
-        <v>662.0477368003001</v>
+        <v>347.6084985745414</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>276.7723726312389</v>
+        <v>217.2523126052225</v>
       </c>
       <c r="C36" t="n">
-        <v>194.017451356125</v>
+        <v>134.4973913301086</v>
       </c>
       <c r="D36" t="n">
-        <v>136.7811497008868</v>
+        <v>77.26108967487043</v>
       </c>
       <c r="E36" t="n">
-        <v>136.7811497008868</v>
+        <v>34.91198232241356</v>
       </c>
       <c r="F36" t="n">
-        <v>81.94469973378492</v>
+        <v>34.91198232241356</v>
       </c>
       <c r="G36" t="n">
-        <v>34.91198232241355</v>
+        <v>34.91198232241356</v>
       </c>
       <c r="H36" t="n">
         <v>13.240954736006</v>
@@ -7022,19 +7022,19 @@
         <v>13.240954736006</v>
       </c>
       <c r="L36" t="n">
-        <v>177.0977695940803</v>
+        <v>101.082733712748</v>
       </c>
       <c r="M36" t="n">
-        <v>340.9545844521546</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="N36" t="n">
-        <v>498.1909219422258</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="O36" t="n">
-        <v>662.0477368003001</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="P36" t="n">
-        <v>662.0477368003001</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="Q36" t="n">
         <v>662.0477368003001</v>
@@ -7046,22 +7046,22 @@
         <v>580.328500256982</v>
       </c>
       <c r="T36" t="n">
-        <v>580.328500256982</v>
+        <v>469.8400136217612</v>
       </c>
       <c r="U36" t="n">
-        <v>443.8029899993842</v>
+        <v>333.3145033641633</v>
       </c>
       <c r="V36" t="n">
-        <v>439.3116213534274</v>
+        <v>333.3145033641633</v>
       </c>
       <c r="W36" t="n">
-        <v>276.7723726312389</v>
+        <v>333.3145033641633</v>
       </c>
       <c r="X36" t="n">
-        <v>276.7723726312389</v>
+        <v>333.3145033641633</v>
       </c>
       <c r="Y36" t="n">
-        <v>276.7723726312389</v>
+        <v>217.2523126052225</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="C37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="D37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="E37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="F37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="G37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="H37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="I37" t="n">
-        <v>13.240954736006</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="J37" t="n">
         <v>13.240954736006</v>
       </c>
       <c r="K37" t="n">
-        <v>81.06747348507544</v>
+        <v>81.06747348507542</v>
       </c>
       <c r="L37" t="n">
         <v>198.2549141494819</v>
       </c>
       <c r="M37" t="n">
-        <v>327.3162679983975</v>
+        <v>322.5189960301237</v>
       </c>
       <c r="N37" t="n">
-        <v>456.0831623422532</v>
+        <v>456.0831623422534</v>
       </c>
       <c r="O37" t="n">
-        <v>570.2957546338459</v>
+        <v>570.2957546338462</v>
       </c>
       <c r="P37" t="n">
-        <v>657.474843962784</v>
+        <v>657.4748439627841</v>
       </c>
       <c r="Q37" t="n">
         <v>662.0477368003001</v>
@@ -7122,25 +7122,25 @@
         <v>574.6616110920006</v>
       </c>
       <c r="S37" t="n">
-        <v>440.0803271414761</v>
+        <v>574.6616110920006</v>
       </c>
       <c r="T37" t="n">
-        <v>347.6084985745414</v>
+        <v>574.6616110920006</v>
       </c>
       <c r="U37" t="n">
-        <v>180.4247266552737</v>
+        <v>407.4778391727329</v>
       </c>
       <c r="V37" t="n">
-        <v>180.4247266552737</v>
+        <v>244.4914589728591</v>
       </c>
       <c r="W37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="X37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.240954736006</v>
+        <v>77.30768705359142</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>514.7922704938092</v>
+        <v>364.8116330683811</v>
       </c>
       <c r="C38" t="n">
-        <v>514.7922704938092</v>
+        <v>197.6278611491134</v>
       </c>
       <c r="D38" t="n">
-        <v>347.6084985745414</v>
+        <v>197.6278611491134</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4247266552737</v>
+        <v>197.6278611491134</v>
       </c>
       <c r="F38" t="n">
-        <v>180.4247266552737</v>
+        <v>197.6278611491134</v>
       </c>
       <c r="G38" t="n">
-        <v>180.4247266552737</v>
+        <v>30.44408922984564</v>
       </c>
       <c r="H38" t="n">
         <v>13.240954736006</v>
@@ -7177,19 +7177,19 @@
         <v>13.240954736006</v>
       </c>
       <c r="K38" t="n">
-        <v>13.240954736006</v>
+        <v>95.47910164945253</v>
       </c>
       <c r="L38" t="n">
-        <v>177.0977695940803</v>
+        <v>259.3359165075268</v>
       </c>
       <c r="M38" t="n">
-        <v>340.9545844521546</v>
+        <v>423.192731365601</v>
       </c>
       <c r="N38" t="n">
-        <v>504.8113993102288</v>
+        <v>423.192731365601</v>
       </c>
       <c r="O38" t="n">
-        <v>654.0063494528769</v>
+        <v>572.3876815082491</v>
       </c>
       <c r="P38" t="n">
         <v>662.0477368003001</v>
@@ -7198,28 +7198,28 @@
         <v>662.0477368003001</v>
       </c>
       <c r="R38" t="n">
-        <v>601.6636579594257</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S38" t="n">
-        <v>601.6636579594257</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T38" t="n">
-        <v>601.6636579594257</v>
+        <v>527.6972623806563</v>
       </c>
       <c r="U38" t="n">
-        <v>601.6636579594257</v>
+        <v>364.8116330683811</v>
       </c>
       <c r="V38" t="n">
-        <v>601.6636579594257</v>
+        <v>364.8116330683811</v>
       </c>
       <c r="W38" t="n">
-        <v>601.6636579594257</v>
+        <v>364.8116330683811</v>
       </c>
       <c r="X38" t="n">
-        <v>601.6636579594257</v>
+        <v>364.8116330683811</v>
       </c>
       <c r="Y38" t="n">
-        <v>601.6636579594257</v>
+        <v>364.8116330683811</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.77664413469272</v>
+        <v>344.4853481165263</v>
       </c>
       <c r="C39" t="n">
-        <v>68.77664413469272</v>
+        <v>265.0529955134915</v>
       </c>
       <c r="D39" t="n">
-        <v>68.77664413469272</v>
+        <v>207.1174544266685</v>
       </c>
       <c r="E39" t="n">
-        <v>68.77664413469272</v>
+        <v>138.8788679956413</v>
       </c>
       <c r="F39" t="n">
-        <v>13.240954736006</v>
+        <v>83.34317859695454</v>
       </c>
       <c r="G39" t="n">
-        <v>13.240954736006</v>
+        <v>35.61122175399837</v>
       </c>
       <c r="H39" t="n">
         <v>13.240954736006</v>
@@ -7259,10 +7259,10 @@
         <v>13.240954736006</v>
       </c>
       <c r="L39" t="n">
-        <v>177.0977695940803</v>
+        <v>13.240954736006</v>
       </c>
       <c r="M39" t="n">
-        <v>264.9395485708222</v>
+        <v>101.082733712748</v>
       </c>
       <c r="N39" t="n">
         <v>264.9395485708222</v>
@@ -7280,25 +7280,25 @@
         <v>651.8770759276141</v>
       </c>
       <c r="S39" t="n">
-        <v>569.4585999527113</v>
+        <v>651.8770759276141</v>
       </c>
       <c r="T39" t="n">
-        <v>569.4585999527113</v>
+        <v>651.8770759276141</v>
       </c>
       <c r="U39" t="n">
-        <v>432.2338502635287</v>
+        <v>651.8770759276141</v>
       </c>
       <c r="V39" t="n">
-        <v>348.8677639195705</v>
+        <v>507.7238362702997</v>
       </c>
       <c r="W39" t="n">
-        <v>185.6292757657972</v>
+        <v>344.4853481165263</v>
       </c>
       <c r="X39" t="n">
-        <v>68.77664413469272</v>
+        <v>344.4853481165263</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.77664413469272</v>
+        <v>344.4853481165263</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="C40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="D40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="E40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="F40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="G40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="H40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="I40" t="n">
-        <v>16.54428829963099</v>
+        <v>13.240954736006</v>
       </c>
       <c r="J40" t="n">
         <v>13.240954736006</v>
       </c>
       <c r="K40" t="n">
-        <v>80.38214891817915</v>
+        <v>80.38214891817904</v>
       </c>
       <c r="L40" t="n">
         <v>196.8842650156893</v>
@@ -7344,40 +7344,40 @@
         <v>325.2602942977086</v>
       </c>
       <c r="N40" t="n">
-        <v>458.139136042942</v>
+        <v>458.1391360429421</v>
       </c>
       <c r="O40" t="n">
-        <v>571.6664037676385</v>
+        <v>571.6664037676386</v>
       </c>
       <c r="P40" t="n">
-        <v>658.1601685296803</v>
+        <v>658.1601685296804</v>
       </c>
       <c r="Q40" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R40" t="n">
-        <v>573.9623716604158</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S40" t="n">
-        <v>573.9623716604158</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T40" t="n">
-        <v>434.7131701052668</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U40" t="n">
-        <v>267.5293981859991</v>
+        <v>547.1228417805984</v>
       </c>
       <c r="V40" t="n">
-        <v>103.8437785545406</v>
+        <v>383.4372221491398</v>
       </c>
       <c r="W40" t="n">
-        <v>103.8437785545406</v>
+        <v>216.2534502298721</v>
       </c>
       <c r="X40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.54428829963099</v>
+        <v>79.26276790628305</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320312</v>
       </c>
       <c r="C41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320312</v>
       </c>
       <c r="D41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320312</v>
       </c>
       <c r="E41" t="n">
-        <v>258.9082991656214</v>
+        <v>274.6541508291632</v>
       </c>
       <c r="F41" t="n">
-        <v>126.8122281627534</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="G41" t="n">
-        <v>126.8122281627534</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="H41" t="n">
         <v>10.46200882342715</v>
@@ -7417,46 +7417,46 @@
         <v>113.4770147343495</v>
       </c>
       <c r="L41" t="n">
-        <v>174.5056674994845</v>
+        <v>242.9443739242604</v>
       </c>
       <c r="M41" t="n">
-        <v>174.5056674994845</v>
+        <v>372.4117331141714</v>
       </c>
       <c r="N41" t="n">
-        <v>303.9730266893955</v>
+        <v>393.6330819814464</v>
       </c>
       <c r="O41" t="n">
-        <v>433.4403858793065</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="P41" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="Q41" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="R41" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="S41" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="T41" t="n">
-        <v>391.0043701684895</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="U41" t="n">
-        <v>391.0043701684895</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="V41" t="n">
-        <v>391.0043701684895</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="W41" t="n">
-        <v>391.0043701684895</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="X41" t="n">
-        <v>391.0043701684895</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="Y41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320312</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="C42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="D42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="E42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="F42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="G42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="H42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="I42" t="n">
         <v>10.46200882342715</v>
@@ -7493,49 +7493,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K42" t="n">
-        <v>134.6983636016245</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="L42" t="n">
-        <v>264.1657227915355</v>
+        <v>65.30380508829523</v>
       </c>
       <c r="M42" t="n">
-        <v>264.1657227915355</v>
+        <v>65.30380508829523</v>
       </c>
       <c r="N42" t="n">
-        <v>264.1657227915355</v>
+        <v>194.7711642782062</v>
       </c>
       <c r="O42" t="n">
-        <v>393.6330819814465</v>
+        <v>324.2385234681171</v>
       </c>
       <c r="P42" t="n">
-        <v>523.1004411713575</v>
+        <v>453.7058826580281</v>
       </c>
       <c r="Q42" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="R42" t="n">
-        <v>523.1004411713575</v>
+        <v>490.4353441109109</v>
       </c>
       <c r="S42" t="n">
-        <v>523.1004411713575</v>
+        <v>385.5224319482476</v>
       </c>
       <c r="T42" t="n">
-        <v>391.0043701684895</v>
+        <v>253.4263609453796</v>
       </c>
       <c r="U42" t="n">
-        <v>258.9082991656214</v>
+        <v>121.3302899425116</v>
       </c>
       <c r="V42" t="n">
-        <v>126.8122281627534</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="W42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="X42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960282</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>374.9317433572868</v>
+        <v>129.800563303741</v>
       </c>
       <c r="C43" t="n">
-        <v>374.9317433572868</v>
+        <v>129.800563303741</v>
       </c>
       <c r="D43" t="n">
-        <v>374.9317433572868</v>
+        <v>129.800563303741</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5230821615615</v>
+        <v>129.800563303741</v>
       </c>
       <c r="F43" t="n">
-        <v>295.5230821615615</v>
+        <v>129.800563303741</v>
       </c>
       <c r="G43" t="n">
-        <v>194.3396566103923</v>
+        <v>28.61713775257171</v>
       </c>
       <c r="H43" t="n">
-        <v>98.97825818146464</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="I43" t="n">
         <v>10.46200882342715</v>
@@ -7572,49 +7572,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K43" t="n">
-        <v>55.55640609797632</v>
+        <v>55.55640609797626</v>
       </c>
       <c r="L43" t="n">
-        <v>150.0117252878625</v>
+        <v>150.0117252878624</v>
       </c>
       <c r="M43" t="n">
-        <v>256.3409576622579</v>
+        <v>256.3409576622578</v>
       </c>
       <c r="N43" t="n">
-        <v>367.1730024998673</v>
+        <v>367.1730024998672</v>
       </c>
       <c r="O43" t="n">
-        <v>458.6534733169398</v>
+        <v>458.6534733169397</v>
       </c>
       <c r="P43" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="Q43" t="n">
-        <v>523.1004411713575</v>
+        <v>504.5725066371218</v>
       </c>
       <c r="R43" t="n">
-        <v>523.1004411713575</v>
+        <v>393.9927053094771</v>
       </c>
       <c r="S43" t="n">
-        <v>523.1004411713575</v>
+        <v>261.896634306609</v>
       </c>
       <c r="T43" t="n">
-        <v>523.1004411713575</v>
+        <v>261.896634306609</v>
       </c>
       <c r="U43" t="n">
-        <v>523.1004411713575</v>
+        <v>261.896634306609</v>
       </c>
       <c r="V43" t="n">
-        <v>523.1004411713575</v>
+        <v>261.896634306609</v>
       </c>
       <c r="W43" t="n">
-        <v>523.1004411713575</v>
+        <v>261.896634306609</v>
       </c>
       <c r="X43" t="n">
-        <v>391.0043701684895</v>
+        <v>129.800563303741</v>
       </c>
       <c r="Y43" t="n">
-        <v>374.9317433572868</v>
+        <v>129.800563303741</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.6541508291633</v>
+        <v>274.6541508291632</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5580798262952</v>
+        <v>274.6541508291632</v>
       </c>
       <c r="D44" t="n">
-        <v>142.5580798262952</v>
+        <v>274.6541508291632</v>
       </c>
       <c r="E44" t="n">
         <v>142.5580798262952</v>
@@ -7642,7 +7642,7 @@
         <v>142.5580798262952</v>
       </c>
       <c r="H44" t="n">
-        <v>142.5580798262952</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="I44" t="n">
         <v>10.46200882342715</v>
@@ -7654,46 +7654,46 @@
         <v>113.4770147343495</v>
       </c>
       <c r="L44" t="n">
-        <v>242.9443739242605</v>
+        <v>242.9443739242604</v>
       </c>
       <c r="M44" t="n">
-        <v>372.4117331141715</v>
+        <v>242.9443739242604</v>
       </c>
       <c r="N44" t="n">
-        <v>501.8790923040825</v>
+        <v>303.9730266893955</v>
       </c>
       <c r="O44" t="n">
-        <v>523.1004411713575</v>
+        <v>433.4403858793064</v>
       </c>
       <c r="P44" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="Q44" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="R44" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="S44" t="n">
-        <v>406.7502218320313</v>
+        <v>391.0043701684893</v>
       </c>
       <c r="T44" t="n">
-        <v>274.6541508291633</v>
+        <v>391.0043701684893</v>
       </c>
       <c r="U44" t="n">
-        <v>274.6541508291633</v>
+        <v>391.0043701684893</v>
       </c>
       <c r="V44" t="n">
-        <v>274.6541508291633</v>
+        <v>391.0043701684893</v>
       </c>
       <c r="W44" t="n">
-        <v>274.6541508291633</v>
+        <v>391.0043701684893</v>
       </c>
       <c r="X44" t="n">
-        <v>274.6541508291633</v>
+        <v>391.0043701684893</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.6541508291633</v>
+        <v>274.6541508291632</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>326.3150342651738</v>
+        <v>112.6871828541862</v>
       </c>
       <c r="C45" t="n">
-        <v>326.3150342651738</v>
+        <v>112.6871828541862</v>
       </c>
       <c r="D45" t="n">
-        <v>245.8850569905904</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1520343718028</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="F45" t="n">
-        <v>77.12190878535559</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="G45" t="n">
-        <v>77.12190878535559</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="H45" t="n">
-        <v>32.25720557960279</v>
+        <v>32.25720557960282</v>
       </c>
       <c r="I45" t="n">
         <v>10.46200882342715</v>
@@ -7730,49 +7730,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K45" t="n">
-        <v>135.8195688812646</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="L45" t="n">
+        <v>134.6983636016245</v>
+      </c>
+      <c r="M45" t="n">
         <v>264.1657227915355</v>
       </c>
-      <c r="M45" t="n">
-        <v>393.6330819814465</v>
-      </c>
       <c r="N45" t="n">
-        <v>393.6330819814465</v>
+        <v>393.6330819814464</v>
       </c>
       <c r="O45" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="P45" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="Q45" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="R45" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="S45" t="n">
-        <v>418.1875290086942</v>
+        <v>418.1875290086941</v>
       </c>
       <c r="T45" t="n">
-        <v>418.1875290086942</v>
+        <v>286.091458005826</v>
       </c>
       <c r="U45" t="n">
-        <v>418.1875290086942</v>
+        <v>286.091458005826</v>
       </c>
       <c r="V45" t="n">
-        <v>326.3150342651738</v>
+        <v>286.091458005826</v>
       </c>
       <c r="W45" t="n">
-        <v>326.3150342651738</v>
+        <v>153.995387002958</v>
       </c>
       <c r="X45" t="n">
-        <v>326.3150342651738</v>
+        <v>112.6871828541862</v>
       </c>
       <c r="Y45" t="n">
-        <v>326.3150342651738</v>
+        <v>112.6871828541862</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.46200882342715</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="C46" t="n">
-        <v>10.46200882342715</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="D46" t="n">
-        <v>10.46200882342715</v>
+        <v>198.8123618151767</v>
       </c>
       <c r="E46" t="n">
-        <v>10.46200882342715</v>
+        <v>198.8123618151767</v>
       </c>
       <c r="F46" t="n">
-        <v>10.46200882342715</v>
+        <v>198.8123618151767</v>
       </c>
       <c r="G46" t="n">
-        <v>10.46200882342715</v>
+        <v>97.62893626400741</v>
       </c>
       <c r="H46" t="n">
-        <v>10.46200882342715</v>
+        <v>97.62893626400741</v>
       </c>
       <c r="I46" t="n">
         <v>10.46200882342715</v>
@@ -7809,10 +7809,10 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K46" t="n">
-        <v>55.55640609797632</v>
+        <v>55.55640609797629</v>
       </c>
       <c r="L46" t="n">
-        <v>150.0117252878625</v>
+        <v>150.0117252878624</v>
       </c>
       <c r="M46" t="n">
         <v>256.3409576622578</v>
@@ -7821,37 +7821,37 @@
         <v>367.1730024998673</v>
       </c>
       <c r="O46" t="n">
-        <v>458.6534733169398</v>
+        <v>458.6534733169397</v>
       </c>
       <c r="P46" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="Q46" t="n">
-        <v>523.1004411713575</v>
+        <v>523.1004411713574</v>
       </c>
       <c r="R46" t="n">
-        <v>523.1004411713575</v>
+        <v>412.5206398437126</v>
       </c>
       <c r="S46" t="n">
-        <v>391.0043701684895</v>
+        <v>412.5206398437126</v>
       </c>
       <c r="T46" t="n">
-        <v>391.0043701684895</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="U46" t="n">
-        <v>258.9082991656214</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="V46" t="n">
-        <v>258.9082991656214</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9082991656214</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="X46" t="n">
-        <v>126.8122281627534</v>
+        <v>280.4245688408446</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.46200882342715</v>
+        <v>280.4245688408446</v>
       </c>
     </row>
   </sheetData>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>254.8266749522162</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>270.5032388772229</v>
       </c>
       <c r="M17" t="n">
         <v>265.0830571345084</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>264.1498875038266</v>
       </c>
       <c r="O17" t="n">
-        <v>264.8350353289224</v>
+        <v>263.4315272922664</v>
       </c>
       <c r="P17" t="n">
-        <v>264.5663116258492</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>172.5782628815947</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>173.2912036871099</v>
       </c>
       <c r="M18" t="n">
-        <v>176.870857829254</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>177.3330683516801</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>167.30772328491</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.3150899566012</v>
+        <v>174.7185979932572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9330,7 +9330,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>173.6626078548407</v>
+        <v>173.6626078548408</v>
       </c>
       <c r="N19" t="n">
         <v>162.4223683724689</v>
@@ -9406,19 +9406,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>270.5032388772229</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>265.0830571345084</v>
+        <v>263.6795490978525</v>
       </c>
       <c r="N20" t="n">
         <v>264.1498875038266</v>
       </c>
       <c r="O20" t="n">
-        <v>263.4315272922664</v>
+        <v>264.8350353289224</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>265.9698196625052</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>171.1747548449387</v>
       </c>
       <c r="L21" t="n">
-        <v>171.8876956504538</v>
+        <v>173.2912036871099</v>
       </c>
       <c r="M21" t="n">
-        <v>176.870857829254</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>166.078535990569</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>177.3330683516801</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>168.7112313215659</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9567,7 +9567,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>173.6626078548407</v>
+        <v>173.6626078548408</v>
       </c>
       <c r="N22" t="n">
         <v>162.4223683724689</v>
@@ -9640,16 +9640,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>401.2783491700623</v>
+        <v>318.8352502360949</v>
       </c>
       <c r="M23" t="n">
-        <v>374.8714411672711</v>
+        <v>395.8581674273478</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>394.9249977966659</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9725,19 +9725,19 @@
         <v>304.0663139799492</v>
       </c>
       <c r="M24" t="n">
-        <v>307.6459681220933</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>296.8536462834084</v>
+        <v>258.9589179186654</v>
       </c>
       <c r="O24" t="n">
-        <v>174.7970297295291</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>299.4863416144053</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>318.8352502360949</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M26" t="n">
-        <v>395.8581674273478</v>
+        <v>299.9252193834093</v>
       </c>
       <c r="N26" t="n">
         <v>394.9249977966659</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>230.863103595495</v>
+        <v>307.6459681220933</v>
       </c>
       <c r="N27" t="n">
         <v>296.8536462834084</v>
@@ -9971,10 +9971,10 @@
         <v>308.1081786445195</v>
       </c>
       <c r="P27" t="n">
-        <v>299.4863416144053</v>
+        <v>292.7989907376345</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10120,16 +10120,16 @@
         <v>401.2783491700623</v>
       </c>
       <c r="M29" t="n">
-        <v>395.8581674273478</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>298.9920497527274</v>
+        <v>394.9249977966659</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>300.811981911406</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>297.3789631031785</v>
       </c>
       <c r="M30" t="n">
-        <v>300.9586172453227</v>
+        <v>307.6459681220933</v>
       </c>
       <c r="N30" t="n">
-        <v>296.8536462834084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>308.1081786445195</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M32" t="n">
         <v>395.8581674273478</v>
       </c>
       <c r="N32" t="n">
-        <v>394.9249977966659</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>226.5705086478357</v>
       </c>
       <c r="L33" t="n">
         <v>304.0663139799492</v>
@@ -10439,16 +10439,16 @@
         <v>307.6459681220933</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O33" t="n">
-        <v>308.1081786445195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>292.7989907376345</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>288.3487219520717</v>
+        <v>228.2124645272262</v>
       </c>
       <c r="L35" t="n">
         <v>401.2783491700623</v>
@@ -10600,10 +10600,10 @@
         <v>394.9249977966659</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10670,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>304.0663139799492</v>
+        <v>227.2834494533509</v>
       </c>
       <c r="M36" t="n">
         <v>307.6459681220933</v>
       </c>
       <c r="N36" t="n">
-        <v>290.1662954066376</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O36" t="n">
         <v>308.1081786445195</v>
@@ -10685,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>303.1586863110882</v>
       </c>
       <c r="L38" t="n">
         <v>401.2783491700623</v>
@@ -10834,13 +10834,13 @@
         <v>395.8581674273478</v>
       </c>
       <c r="N38" t="n">
-        <v>394.9249977966659</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>239.3556092375152</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,13 +10907,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>304.0663139799492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>230.8631035954951</v>
+        <v>230.863103595495</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O39" t="n">
         <v>308.1081786445195</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>297.4115187731539</v>
+        <v>366.5415252628266</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>361.1213435201121</v>
       </c>
       <c r="N41" t="n">
-        <v>360.1881738894303</v>
+        <v>250.8487695231314</v>
       </c>
       <c r="O41" t="n">
         <v>360.8733217145261</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>263.3327064270836</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>269.3294900727136</v>
+        <v>193.9501335827712</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>262.1168223761726</v>
       </c>
       <c r="O42" t="n">
         <v>273.3713547372838</v>
@@ -11159,7 +11159,7 @@
         <v>264.7495177071696</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,16 +11305,16 @@
         <v>366.5415252628266</v>
       </c>
       <c r="M44" t="n">
-        <v>361.1213435201121</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>360.1881738894303</v>
+        <v>291.0581673997576</v>
       </c>
       <c r="O44" t="n">
-        <v>251.5339173482271</v>
+        <v>360.8733217145261</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>268.1969594872186</v>
+        <v>264.0456472325988</v>
       </c>
       <c r="M45" t="n">
-        <v>272.9091442148577</v>
+        <v>272.9091442148576</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>262.1168223761726</v>
       </c>
       <c r="O45" t="n">
         <v>273.3713547372838</v>
@@ -23734,16 +23734,16 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C17" t="n">
-        <v>245.2800644220993</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D17" t="n">
-        <v>230.5495848620322</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E17" t="n">
-        <v>257.7969133136111</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F17" t="n">
-        <v>317.4794128902964</v>
+        <v>286.8832183928032</v>
       </c>
       <c r="G17" t="n">
         <v>325.90610466372</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.73566118249893</v>
+        <v>25.73566118249892</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>84.88661282759458</v>
       </c>
       <c r="T17" t="n">
         <v>133.6992167127163</v>
@@ -23800,7 +23800,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.8413058046385</v>
+        <v>262.1044818974028</v>
       </c>
     </row>
     <row r="18">
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.54035630095911</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>48.57504222966497</v>
       </c>
       <c r="D18" t="n">
-        <v>23.311608805988</v>
+        <v>23.31160880598799</v>
       </c>
       <c r="E18" t="n">
-        <v>33.51162369675019</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F18" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>17.35068981430237</v>
       </c>
       <c r="H18" t="n">
         <v>22.83881138508139</v>
@@ -23870,13 +23870,13 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V18" t="n">
-        <v>108.6671303907745</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W18" t="n">
         <v>162.2983503095045</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>81.63952844482671</v>
       </c>
       <c r="Y18" t="n">
         <v>116.2860629258893</v>
@@ -23895,7 +23895,7 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D19" t="n">
-        <v>59.21884016679728</v>
+        <v>28.62264566930409</v>
       </c>
       <c r="E19" t="n">
         <v>57.03732979515409</v>
@@ -23913,7 +23913,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.15993461851873</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>99.8831412783215</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8121326696308</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U19" t="n">
-        <v>162.1855725978401</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V19" t="n">
-        <v>136.1073632401775</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>162.3895415779402</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>101.5761986303864</v>
       </c>
       <c r="Y19" t="n">
         <v>129.1880205006797</v>
@@ -23977,19 +23977,19 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E20" t="n">
-        <v>257.7969133136111</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F20" t="n">
-        <v>282.7425889830607</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G20" t="n">
-        <v>325.90610466372</v>
+        <v>295.3099101662268</v>
       </c>
       <c r="H20" t="n">
-        <v>250.0781692643521</v>
+        <v>215.3413453571164</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>86.34243281175515</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>84.88661282759458</v>
       </c>
       <c r="T20" t="n">
         <v>133.6992167127163</v>
@@ -24028,13 +24028,13 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V20" t="n">
-        <v>203.6188017114842</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W20" t="n">
         <v>259.8443358659979</v>
       </c>
       <c r="X20" t="n">
-        <v>249.7382733295608</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y20" t="n">
         <v>296.8413058046385</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.39972689121659</v>
+        <v>46.54035630095908</v>
       </c>
       <c r="C21" t="n">
         <v>83.31186613690066</v>
@@ -24062,7 +24062,7 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G21" t="n">
-        <v>17.35068981430241</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H21" t="n">
         <v>22.83881138508139</v>
@@ -24101,22 +24101,22 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T21" t="n">
-        <v>76.03127193617085</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U21" t="n">
-        <v>136.5447492295597</v>
+        <v>101.807925322324</v>
       </c>
       <c r="V21" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W21" t="n">
-        <v>162.2983503095045</v>
+        <v>127.5615264022689</v>
       </c>
       <c r="X21" t="n">
-        <v>116.3763523520624</v>
+        <v>81.63952844482671</v>
       </c>
       <c r="Y21" t="n">
-        <v>81.54923901865361</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.69852342328655</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C22" t="n">
         <v>77.85018824721276</v>
@@ -24147,7 +24147,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I22" t="n">
-        <v>66.05384207584321</v>
+        <v>35.45764757835002</v>
       </c>
       <c r="J22" t="n">
         <v>3.962547265257697</v>
@@ -24177,25 +24177,25 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>99.8831412783215</v>
       </c>
       <c r="T22" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U22" t="n">
-        <v>166.3262020075827</v>
+        <v>162.1855725978401</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>128.0041865651772</v>
       </c>
       <c r="W22" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X22" t="n">
-        <v>101.5761986303864</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.45119659344405</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>127.1330275747216</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C23" t="n">
-        <v>275.1840118823235</v>
+        <v>109.6720776822485</v>
       </c>
       <c r="D23" t="n">
-        <v>264.594161731999</v>
+        <v>99.08222753192393</v>
       </c>
       <c r="E23" t="n">
         <v>291.8414901835778</v>
       </c>
       <c r="F23" t="n">
-        <v>316.7871658530274</v>
+        <v>151.2752316529524</v>
       </c>
       <c r="G23" t="n">
         <v>325.213857626451</v>
@@ -24265,13 +24265,13 @@
         <v>161.2567730191525</v>
       </c>
       <c r="V23" t="n">
-        <v>91.88046693802488</v>
+        <v>237.6633785814509</v>
       </c>
       <c r="W23" t="n">
-        <v>93.64015462865399</v>
+        <v>259.152088828729</v>
       </c>
       <c r="X23" t="n">
-        <v>114.13028658971</v>
+        <v>133.859309146359</v>
       </c>
       <c r="Y23" t="n">
         <v>296.1490587673695</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E24" t="n">
         <v>67.55620056671691</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.172264404847971</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S24" t="n">
         <v>81.59429121515379</v>
       </c>
       <c r="T24" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>23.52126317637453</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>77.1579412099438</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>58.52659312952832</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>56.34508275788514</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>55.33216813424721</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>75.71247014343447</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.13829261875554</v>
+        <v>60.52684832163314</v>
       </c>
       <c r="I25" t="n">
         <v>65.36159503857425</v>
@@ -24423,16 +24423,16 @@
         <v>196.2301494678069</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W25" t="n">
-        <v>30.92218424783195</v>
+        <v>196.434118447907</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.4957734634108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>264.594161731999</v>
       </c>
       <c r="E26" t="n">
-        <v>146.0585785401517</v>
+        <v>291.8414901835778</v>
       </c>
       <c r="F26" t="n">
         <v>316.7871658530274</v>
       </c>
       <c r="G26" t="n">
-        <v>159.701923426376</v>
+        <v>325.213857626451</v>
       </c>
       <c r="H26" t="n">
-        <v>83.8739880270081</v>
+        <v>249.3859222270831</v>
       </c>
       <c r="I26" t="n">
         <v>120.3870096817219</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.78023805246565</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.9311896975613</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>133.0069696754473</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>237.6633785814509</v>
+        <v>72.15144438137585</v>
       </c>
       <c r="W26" t="n">
-        <v>259.152088828729</v>
+        <v>255.3204792297797</v>
       </c>
       <c r="X26" t="n">
-        <v>114.13028658971</v>
+        <v>279.642220789785</v>
       </c>
       <c r="Y26" t="n">
         <v>296.1490587673695</v>
@@ -24524,22 +24524,22 @@
         <v>76.44430376118331</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D27" t="n">
         <v>57.35618567595472</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>67.55620056671691</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G27" t="n">
         <v>47.2546372745266</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S27" t="n">
-        <v>81.59429121515379</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>142.7117072607412</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>118.1812266984532</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>115.6841053147934</v>
+        <v>105.2058438177013</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="28">
@@ -24606,25 +24606,25 @@
         <v>77.1579412099438</v>
       </c>
       <c r="D28" t="n">
-        <v>31.62245156196245</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E28" t="n">
         <v>56.34508275788514</v>
       </c>
       <c r="F28" t="n">
-        <v>55.33216813424721</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H28" t="n">
         <v>72.13829261875554</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.71821526773184</v>
+        <v>196.2301494678069</v>
       </c>
       <c r="V28" t="n">
-        <v>162.048763435144</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>30.92218424783195</v>
+        <v>44.97382081359763</v>
       </c>
       <c r="X28" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>128.4957734634108</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>146.8620501313705</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C29" t="n">
         <v>275.1840118823235</v>
@@ -24688,10 +24688,10 @@
         <v>264.594161731999</v>
       </c>
       <c r="E29" t="n">
-        <v>126.3295559835028</v>
+        <v>291.8414901835778</v>
       </c>
       <c r="F29" t="n">
-        <v>151.2752316529524</v>
+        <v>316.7871658530274</v>
       </c>
       <c r="G29" t="n">
         <v>325.213857626451</v>
@@ -24736,16 +24736,16 @@
         <v>133.0069696754473</v>
       </c>
       <c r="U29" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>237.6633785814509</v>
       </c>
       <c r="W29" t="n">
-        <v>259.152088828729</v>
+        <v>109.1140160043804</v>
       </c>
       <c r="X29" t="n">
-        <v>279.642220789785</v>
+        <v>114.13028658971</v>
       </c>
       <c r="Y29" t="n">
         <v>130.6371245672945</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C30" t="n">
-        <v>82.61961909963171</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>57.35618567595472</v>
@@ -24770,7 +24770,7 @@
         <v>67.55620056671691</v>
       </c>
       <c r="F30" t="n">
-        <v>54.98033250469985</v>
+        <v>48.74791625331213</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>10.0689542639591</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>135.8525021922908</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>161.6061032722356</v>
       </c>
       <c r="X30" t="n">
-        <v>5.122998202795316</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>89.74310029325326</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D31" t="n">
         <v>58.52659312952832</v>
@@ -24852,7 +24852,7 @@
         <v>55.33216813424721</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H31" t="n">
         <v>72.13829261875554</v>
@@ -24888,22 +24888,22 @@
         <v>87.20451148848545</v>
       </c>
       <c r="S31" t="n">
-        <v>116.5839887128476</v>
+        <v>125.8086455075173</v>
       </c>
       <c r="T31" t="n">
-        <v>137.8567095395975</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>30.71821526773184</v>
       </c>
       <c r="V31" t="n">
-        <v>162.048763435144</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>30.92218424783195</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y31" t="n">
         <v>128.4957734634108</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>291.9527147375276</v>
+        <v>126.4407805374526</v>
       </c>
       <c r="C32" t="n">
-        <v>274.4917648450545</v>
+        <v>187.7968442168253</v>
       </c>
       <c r="D32" t="n">
         <v>263.90191469473</v>
@@ -24934,7 +24934,7 @@
         <v>324.521610589182</v>
       </c>
       <c r="H32" t="n">
-        <v>248.6936751898141</v>
+        <v>248.6936751898142</v>
       </c>
       <c r="I32" t="n">
         <v>119.6947626444529</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.08799101519669</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>118.2389426602924</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>132.3147226381784</v>
       </c>
       <c r="U32" t="n">
         <v>160.5645259818835</v>
       </c>
       <c r="V32" t="n">
-        <v>223.5029425389343</v>
+        <v>236.9711315441819</v>
       </c>
       <c r="W32" t="n">
-        <v>92.94790759138499</v>
+        <v>258.45984179146</v>
       </c>
       <c r="X32" t="n">
         <v>113.438039552441</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>75.75205672391436</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>81.92737206236276</v>
       </c>
       <c r="D33" t="n">
-        <v>56.66393863868576</v>
+        <v>56.66393863868578</v>
       </c>
       <c r="E33" t="n">
-        <v>22.86561633406835</v>
+        <v>66.86395352944797</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>45.95684529264994</v>
       </c>
       <c r="G33" t="n">
-        <v>46.56239023725765</v>
+        <v>46.56239023725766</v>
       </c>
       <c r="H33" t="n">
-        <v>21.45431731054347</v>
+        <v>21.45431731054349</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.376707226690158</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>142.0194602234723</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>114.9918582775245</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>114.9015688513514</v>
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.05085325598431</v>
+        <v>89.05085325598432</v>
       </c>
       <c r="C34" t="n">
-        <v>54.33089115319061</v>
+        <v>76.46569417267486</v>
       </c>
       <c r="D34" t="n">
-        <v>57.83434609225937</v>
+        <v>57.83434609225938</v>
       </c>
       <c r="E34" t="n">
-        <v>55.65283572061618</v>
+        <v>55.6528357206162</v>
       </c>
       <c r="F34" t="n">
-        <v>54.63992109697826</v>
+        <v>54.63992109697827</v>
       </c>
       <c r="G34" t="n">
-        <v>77.20985243250577</v>
+        <v>77.20985243250578</v>
       </c>
       <c r="H34" t="n">
-        <v>71.44604558148659</v>
+        <v>71.4460455814866</v>
       </c>
       <c r="I34" t="n">
-        <v>64.66934800130529</v>
+        <v>1.243283006895751</v>
       </c>
       <c r="J34" t="n">
-        <v>2.578053190719785</v>
+        <v>2.5780531907198</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.5122644512165</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>133.2354711110193</v>
@@ -25131,19 +25131,19 @@
         <v>137.1644625023285</v>
       </c>
       <c r="U34" t="n">
-        <v>30.02596823046287</v>
+        <v>30.02596823046289</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>30.22993721056298</v>
+        <v>30.22993721056301</v>
       </c>
       <c r="X34" t="n">
-        <v>134.9285284630841</v>
+        <v>134.9285284630842</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>127.8035264261418</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>291.9527147375276</v>
+        <v>126.4407805374526</v>
       </c>
       <c r="C35" t="n">
-        <v>274.4917648450545</v>
+        <v>108.9798306449796</v>
       </c>
       <c r="D35" t="n">
-        <v>118.119003051304</v>
+        <v>263.90191469473</v>
       </c>
       <c r="E35" t="n">
-        <v>125.6373089462338</v>
+        <v>291.1492431463088</v>
       </c>
       <c r="F35" t="n">
-        <v>150.5829846156834</v>
+        <v>316.0949188157584</v>
       </c>
       <c r="G35" t="n">
-        <v>159.009676389107</v>
+        <v>324.521610589182</v>
       </c>
       <c r="H35" t="n">
-        <v>248.6936751898141</v>
+        <v>248.6936751898142</v>
       </c>
       <c r="I35" t="n">
         <v>119.6947626444529</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.08799101519669</v>
+        <v>59.08799101519671</v>
       </c>
       <c r="S35" t="n">
         <v>118.2389426602924</v>
       </c>
       <c r="T35" t="n">
-        <v>132.3147226381784</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>160.5645259818835</v>
@@ -25216,13 +25216,13 @@
         <v>236.9711315441819</v>
       </c>
       <c r="W35" t="n">
-        <v>258.45984179146</v>
+        <v>244.9916527862124</v>
       </c>
       <c r="X35" t="n">
         <v>278.949973752516</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.4568117301006</v>
+        <v>129.9448775300256</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.75205672391435</v>
+        <v>75.75205672391436</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>66.86395352944795</v>
+        <v>24.93833725051567</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>54.2880854674309</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>46.56239023725766</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.376707226690144</v>
+        <v>9.376707226690158</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>109.3836017688686</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>137.5730052639751</v>
+        <v>142.0194602234723</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>160.9138562349666</v>
       </c>
       <c r="X36" t="n">
         <v>114.9918582775245</v>
       </c>
       <c r="Y36" t="n">
-        <v>114.9015688513514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.05085325598431</v>
+        <v>89.05085325598432</v>
       </c>
       <c r="C37" t="n">
-        <v>76.46569417267484</v>
+        <v>76.46569417267486</v>
       </c>
       <c r="D37" t="n">
-        <v>57.83434609225937</v>
+        <v>57.83434609225938</v>
       </c>
       <c r="E37" t="n">
-        <v>55.65283572061618</v>
+        <v>55.6528357206162</v>
       </c>
       <c r="F37" t="n">
-        <v>54.63992109697826</v>
+        <v>54.63992109697827</v>
       </c>
       <c r="G37" t="n">
-        <v>77.20985243250577</v>
+        <v>77.20985243250578</v>
       </c>
       <c r="H37" t="n">
-        <v>71.44604558148659</v>
+        <v>71.4460455814866</v>
       </c>
       <c r="I37" t="n">
-        <v>64.66934800130529</v>
+        <v>3.821336197615551</v>
       </c>
       <c r="J37" t="n">
-        <v>2.578053190719785</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.2354711110193</v>
       </c>
       <c r="T37" t="n">
-        <v>45.61735222106311</v>
+        <v>137.1644625023285</v>
       </c>
       <c r="U37" t="n">
-        <v>30.02596823046287</v>
+        <v>30.02596823046289</v>
       </c>
       <c r="V37" t="n">
-        <v>161.356516397875</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>30.22993721056298</v>
+        <v>30.22993721056301</v>
       </c>
       <c r="X37" t="n">
-        <v>134.9285284630841</v>
+        <v>134.9285284630842</v>
       </c>
       <c r="Y37" t="n">
         <v>127.8035264261418</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>206.6422881838362</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C38" t="n">
-        <v>275.1840118823235</v>
+        <v>109.6720776822485</v>
       </c>
       <c r="D38" t="n">
-        <v>99.08222753192393</v>
+        <v>264.594161731999</v>
       </c>
       <c r="E38" t="n">
-        <v>126.3295559835028</v>
+        <v>291.8414901835778</v>
       </c>
       <c r="F38" t="n">
         <v>316.7871658530274</v>
       </c>
       <c r="G38" t="n">
-        <v>325.213857626451</v>
+        <v>159.701923426376</v>
       </c>
       <c r="H38" t="n">
-        <v>83.8739880270081</v>
+        <v>232.3548190781819</v>
       </c>
       <c r="I38" t="n">
         <v>120.3870096817219</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.78023805246566</v>
       </c>
       <c r="S38" t="n">
         <v>118.9311896975613</v>
       </c>
       <c r="T38" t="n">
-        <v>133.0069696754473</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>237.6633785814509</v>
@@ -25459,7 +25459,7 @@
         <v>279.642220789785</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.1490587673695</v>
+        <v>296.1490587673696</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.44430376118331</v>
+        <v>76.44430376118332</v>
       </c>
       <c r="C39" t="n">
-        <v>82.61961909963171</v>
+        <v>3.981590022627202</v>
       </c>
       <c r="D39" t="n">
-        <v>57.35618567595472</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>67.55620056671691</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.2546372745266</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.14656434781243</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>81.5942912151538</v>
       </c>
       <c r="T39" t="n">
         <v>110.0758488061376</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V39" t="n">
-        <v>60.17928178022267</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>115.6841053147935</v>
       </c>
       <c r="Y39" t="n">
         <v>115.5938158886203</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.74310029325326</v>
+        <v>89.74310029325328</v>
       </c>
       <c r="C40" t="n">
-        <v>77.1579412099438</v>
+        <v>77.15794120994381</v>
       </c>
       <c r="D40" t="n">
-        <v>58.52659312952832</v>
+        <v>58.52659312952834</v>
       </c>
       <c r="E40" t="n">
-        <v>56.34508275788514</v>
+        <v>56.34508275788515</v>
       </c>
       <c r="F40" t="n">
-        <v>55.33216813424721</v>
+        <v>55.33216813424723</v>
       </c>
       <c r="G40" t="n">
-        <v>77.90209946977473</v>
+        <v>77.90209946977474</v>
       </c>
       <c r="H40" t="n">
-        <v>72.13829261875554</v>
+        <v>72.13829261875556</v>
       </c>
       <c r="I40" t="n">
-        <v>65.36159503857425</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.270300227988756</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>87.20451148848547</v>
       </c>
       <c r="S40" t="n">
         <v>133.9277181482882</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U40" t="n">
-        <v>30.71821526773184</v>
+        <v>82.45450339830221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>196.434118447907</v>
+        <v>30.92218424783198</v>
       </c>
       <c r="X40" t="n">
-        <v>49.19428014799264</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>128.4957734634108</v>
@@ -25636,16 +25636,16 @@
         <v>286.8636535578818</v>
       </c>
       <c r="E41" t="n">
-        <v>183.3358717166212</v>
+        <v>183.3358717166213</v>
       </c>
       <c r="F41" t="n">
         <v>208.2815473860709</v>
       </c>
       <c r="G41" t="n">
-        <v>347.4833494523339</v>
+        <v>216.7082391594945</v>
       </c>
       <c r="H41" t="n">
-        <v>156.468696907033</v>
+        <v>271.655414052966</v>
       </c>
       <c r="I41" t="n">
         <v>142.6565015076047</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>82.0497298783485</v>
+        <v>82.04972987834851</v>
       </c>
       <c r="S41" t="n">
         <v>141.2006815234442</v>
       </c>
       <c r="T41" t="n">
-        <v>24.5013512084908</v>
+        <v>155.2764615013302</v>
       </c>
       <c r="U41" t="n">
         <v>183.5262648450353</v>
@@ -25696,7 +25696,7 @@
         <v>301.9117126156679</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.4185505932524</v>
+        <v>203.2318334473195</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.71379558706616</v>
+        <v>98.71379558706617</v>
       </c>
       <c r="C42" t="n">
         <v>104.8891109255146</v>
       </c>
       <c r="D42" t="n">
-        <v>79.62567750183757</v>
+        <v>79.62567750183759</v>
       </c>
       <c r="E42" t="n">
-        <v>89.82569239259976</v>
+        <v>89.82569239259978</v>
       </c>
       <c r="F42" t="n">
-        <v>77.2498243305827</v>
+        <v>77.24982433058271</v>
       </c>
       <c r="G42" t="n">
-        <v>69.52412910040945</v>
+        <v>69.52412910040947</v>
       </c>
       <c r="H42" t="n">
-        <v>44.41605617369528</v>
+        <v>44.4160561736953</v>
       </c>
       <c r="I42" t="n">
-        <v>21.5772447886139</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>32.33844608984195</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>103.8637830410366</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.570230339181052</v>
+        <v>1.570230339181109</v>
       </c>
       <c r="U42" t="n">
-        <v>27.34688372533427</v>
+        <v>27.34688372533432</v>
       </c>
       <c r="V42" t="n">
-        <v>34.20608879378472</v>
+        <v>76.79884556734442</v>
       </c>
       <c r="W42" t="n">
-        <v>68.68887795218548</v>
+        <v>183.8755950981184</v>
       </c>
       <c r="X42" t="n">
         <v>137.9535971406763</v>
@@ -25788,28 +25788,28 @@
         <v>112.0125921191361</v>
       </c>
       <c r="C43" t="n">
-        <v>99.42743303582665</v>
+        <v>99.42743303582667</v>
       </c>
       <c r="D43" t="n">
-        <v>80.79608495541117</v>
+        <v>80.79608495541119</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>78.614574583768</v>
       </c>
       <c r="F43" t="n">
-        <v>77.60165996013006</v>
+        <v>77.60165996013008</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>76.4342068047853</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.63108686445712</v>
       </c>
       <c r="J43" t="n">
-        <v>25.53979205387159</v>
+        <v>25.53979205387161</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.3426551888932</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.4740033143683</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.1972099741711</v>
+        <v>25.42209968133173</v>
       </c>
       <c r="T43" t="n">
         <v>160.1262013654803</v>
@@ -25851,10 +25851,10 @@
         <v>218.7036102737898</v>
       </c>
       <c r="X43" t="n">
-        <v>27.1151570333966</v>
+        <v>27.11515703339663</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.853364746203</v>
+        <v>150.7652652892936</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>314.9144536006794</v>
       </c>
       <c r="C44" t="n">
-        <v>166.678393415367</v>
+        <v>297.4535037082064</v>
       </c>
       <c r="D44" t="n">
         <v>286.8636535578818</v>
       </c>
       <c r="E44" t="n">
-        <v>314.1109820094606</v>
+        <v>183.3358717166213</v>
       </c>
       <c r="F44" t="n">
         <v>339.0566576789103</v>
@@ -25882,10 +25882,10 @@
         <v>347.4833494523339</v>
       </c>
       <c r="H44" t="n">
-        <v>271.655414052966</v>
+        <v>140.8803037601266</v>
       </c>
       <c r="I44" t="n">
-        <v>11.88139121476536</v>
+        <v>142.6565015076047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>82.04972987834849</v>
+        <v>82.04972987834851</v>
       </c>
       <c r="S44" t="n">
-        <v>26.01396437751126</v>
+        <v>10.42557123060485</v>
       </c>
       <c r="T44" t="n">
-        <v>24.5013512084908</v>
+        <v>155.2764615013302</v>
       </c>
       <c r="U44" t="n">
         <v>183.5262648450353</v>
@@ -25933,7 +25933,7 @@
         <v>301.9117126156679</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.4185505932524</v>
+        <v>203.2318334473195</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.71379558706614</v>
+        <v>98.71379558706617</v>
       </c>
       <c r="C45" t="n">
-        <v>104.8891109255145</v>
+        <v>104.8891109255146</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>89.82569239259978</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>77.24982433058271</v>
       </c>
       <c r="G45" t="n">
-        <v>69.52412910040944</v>
+        <v>69.52412910040947</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>44.4160561736953</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.33844608984194</v>
+        <v>32.33844608984197</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>132.3453406320204</v>
+        <v>1.570230339181109</v>
       </c>
       <c r="U45" t="n">
-        <v>158.1219940181736</v>
+        <v>158.1219940181737</v>
       </c>
       <c r="V45" t="n">
-        <v>74.02742929053883</v>
+        <v>164.9811990866241</v>
       </c>
       <c r="W45" t="n">
-        <v>183.8755950981184</v>
+        <v>53.10048480527908</v>
       </c>
       <c r="X45" t="n">
-        <v>137.9535971406763</v>
+        <v>97.05847503339226</v>
       </c>
       <c r="Y45" t="n">
         <v>137.8633077145032</v>
@@ -26025,28 +26025,28 @@
         <v>112.0125921191361</v>
       </c>
       <c r="C46" t="n">
-        <v>99.42743303582664</v>
+        <v>99.42743303582667</v>
       </c>
       <c r="D46" t="n">
-        <v>80.79608495541116</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>78.61457458376798</v>
+        <v>78.614574583768</v>
       </c>
       <c r="F46" t="n">
-        <v>77.60165996013005</v>
+        <v>77.60165996013008</v>
       </c>
       <c r="G46" t="n">
-        <v>100.1715912956576</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>94.40778444463838</v>
+        <v>94.40778444463841</v>
       </c>
       <c r="I46" t="n">
-        <v>87.63108686445709</v>
+        <v>1.335828698282668</v>
       </c>
       <c r="J46" t="n">
-        <v>25.53979205387158</v>
+        <v>25.53979205387161</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.34265518889319</v>
+        <v>18.34265518889322</v>
       </c>
       <c r="R46" t="n">
-        <v>109.4740033143683</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.4220996813317</v>
+        <v>156.1972099741711</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1262013654803</v>
+        <v>29.35109107264097</v>
       </c>
       <c r="U46" t="n">
-        <v>87.72453100085033</v>
+        <v>218.4996412936897</v>
       </c>
       <c r="V46" t="n">
         <v>184.3182552610268</v>
@@ -26088,10 +26088,10 @@
         <v>218.7036102737898</v>
       </c>
       <c r="X46" t="n">
-        <v>27.1151570333966</v>
+        <v>157.890267326236</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.57854814336066</v>
+        <v>150.7652652892936</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465716.3362414604</v>
+        <v>465716.3362414605</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465716.3362414603</v>
+        <v>465716.3362414605</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>554859.1740224486</v>
+        <v>554859.1740224485</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>554859.1740224486</v>
+        <v>554859.1740224485</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>554859.1740224486</v>
+        <v>554859.1740224485</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>556142.6554093079</v>
+        <v>556142.655409308</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554859.1740224486</v>
+        <v>554859.1740224485</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>489189.10294184</v>
+        <v>489189.1029418398</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>489189.10294184</v>
+        <v>489189.1029418398</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="E2" t="n">
         <v>256958.9834936195</v>
@@ -26328,34 +26328,34 @@
         <v>256958.9834936195</v>
       </c>
       <c r="G2" t="n">
-        <v>427612.4684499736</v>
+        <v>427612.4684499737</v>
       </c>
       <c r="H2" t="n">
-        <v>427612.4684499737</v>
+        <v>427612.4684499738</v>
       </c>
       <c r="I2" t="n">
-        <v>499528.5236578621</v>
+        <v>499528.5236578622</v>
       </c>
       <c r="J2" t="n">
-        <v>499528.5236578621</v>
+        <v>499528.5236578619</v>
       </c>
       <c r="K2" t="n">
-        <v>499528.5236578622</v>
+        <v>499528.523657862</v>
       </c>
       <c r="L2" t="n">
-        <v>501052.6578047578</v>
+        <v>501052.6578047579</v>
       </c>
       <c r="M2" t="n">
         <v>501052.6578047578</v>
       </c>
       <c r="N2" t="n">
-        <v>499528.5236578619</v>
+        <v>499528.523657862</v>
       </c>
       <c r="O2" t="n">
+        <v>430512.3095519834</v>
+      </c>
+      <c r="P2" t="n">
         <v>430512.3095519835</v>
-      </c>
-      <c r="P2" t="n">
-        <v>430512.3095519834</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63222.55520104047</v>
+        <v>63222.55520104048</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35329.64573399727</v>
+        <v>35329.64573399729</v>
       </c>
       <c r="J3" t="n">
         <v>17815.59346070628</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54255.51045024094</v>
+        <v>54255.51045024093</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>266250.0959350778</v>
       </c>
       <c r="M4" t="n">
-        <v>266250.0959350778</v>
+        <v>266250.0959350777</v>
       </c>
       <c r="N4" t="n">
         <v>265334.3847879227</v>
@@ -26484,10 +26484,10 @@
         <v>1872.173908310146</v>
       </c>
       <c r="G5" t="n">
-        <v>9627.484420745543</v>
+        <v>9627.484420745544</v>
       </c>
       <c r="H5" t="n">
-        <v>9627.484420745543</v>
+        <v>9627.484420745544</v>
       </c>
       <c r="I5" t="n">
         <v>17636.80764272634</v>
@@ -26508,10 +26508,10 @@
         <v>17636.80764272634</v>
       </c>
       <c r="O5" t="n">
-        <v>13652.63484085627</v>
+        <v>13652.63484085626</v>
       </c>
       <c r="P5" t="n">
-        <v>13652.63484085627</v>
+        <v>13652.63484085626</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303035.6717853661</v>
+        <v>302991.5360066848</v>
       </c>
       <c r="C6" t="n">
-        <v>303035.671785366</v>
+        <v>302991.5360066847</v>
       </c>
       <c r="D6" t="n">
-        <v>303035.6717853661</v>
+        <v>302991.5360066846</v>
       </c>
       <c r="E6" t="n">
-        <v>108855.0549556444</v>
+        <v>95091.08922202732</v>
       </c>
       <c r="F6" t="n">
-        <v>126670.6484163507</v>
+        <v>112906.6826827336</v>
       </c>
       <c r="G6" t="n">
-        <v>125937.2719267298</v>
+        <v>116664.1873761748</v>
       </c>
       <c r="H6" t="n">
-        <v>189159.8271277703</v>
+        <v>179886.7425772153</v>
       </c>
       <c r="I6" t="n">
-        <v>181227.6854932157</v>
+        <v>173847.1287112893</v>
       </c>
       <c r="J6" t="n">
-        <v>198741.7377665067</v>
+        <v>191361.18098458</v>
       </c>
       <c r="K6" t="n">
-        <v>216557.3312272132</v>
+        <v>209176.7744452865</v>
       </c>
       <c r="L6" t="n">
-        <v>162852.0472605366</v>
+        <v>155511.5992719496</v>
       </c>
       <c r="M6" t="n">
-        <v>217107.5577107775</v>
+        <v>209767.1097221904</v>
       </c>
       <c r="N6" t="n">
-        <v>216557.3312272129</v>
+        <v>209176.7744452865</v>
       </c>
       <c r="O6" t="n">
-        <v>191222.4444163511</v>
+        <v>182025.6714737435</v>
       </c>
       <c r="P6" t="n">
-        <v>191222.444416351</v>
+        <v>182025.6714737436</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>90.08887988868403</v>
       </c>
       <c r="L2" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="M2" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="N2" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="O2" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="P2" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="H4" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="I4" t="n">
         <v>165.511934200075</v>
@@ -26828,10 +26828,10 @@
         <v>165.511934200075</v>
       </c>
       <c r="O4" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="P4" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K19" t="n">
-        <v>34.9298888296217</v>
+        <v>34.92988882962174</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K22" t="n">
-        <v>38.1644784293424</v>
+        <v>38.16447842934244</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="C32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="D32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="E32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="F32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="G32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="H32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="I32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="S32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="T32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="U32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="V32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="W32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="X32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="C33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="D33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="E33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="F33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="G33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="H33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="S33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="T33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="U33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="V33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="W33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="X33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="C34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="D34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="E34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="F34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="G34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="H34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="I34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="J34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="K34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="L34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="M34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="N34" t="n">
-        <v>85.9353976650701</v>
+        <v>85.93539766507033</v>
       </c>
       <c r="O34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="P34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="R34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="S34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="T34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="U34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="V34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="W34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="X34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="C35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="D35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="E35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="F35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="G35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="H35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="I35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="S35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="T35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="U35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="V35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="W35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="X35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="C36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="D36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="E36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="F36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="G36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="H36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="S36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="T36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="U36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="V36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="W36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="X36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="C37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="D37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="E37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="F37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="G37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="H37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="I37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="J37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="K37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="L37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="M37" t="n">
-        <v>90.78112692595299</v>
+        <v>85.9353976650704</v>
       </c>
       <c r="N37" t="n">
-        <v>85.9353976650701</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="O37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="P37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="R37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="S37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="T37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="U37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="V37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="W37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="X37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.78112692595298</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="C38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="D38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="E38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="F38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="G38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="H38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="I38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="S38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="T38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="U38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="V38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="W38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="X38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="C39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="D39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="E39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="F39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="G39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="H39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="S39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="T39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="U39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="V39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="W39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="X39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="C40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="D40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="E40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="F40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="G40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="H40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="I40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="J40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="K40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="L40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="M40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="N40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="O40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="P40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="R40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="S40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="T40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="U40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="V40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="W40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="X40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868402</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="C41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="D41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="E41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="F41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="G41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="H41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="I41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="S41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="T41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="U41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="V41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="W41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="X41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="C42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="D42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="E42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="F42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="G42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="H42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="I42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="S42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="T42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="U42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="V42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="W42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="X42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="C43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="D43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="E43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="F43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="G43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="H43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="I43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="J43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="K43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="L43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="M43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="N43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="O43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="P43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="R43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="S43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="T43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="U43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="V43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="W43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="X43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="C44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="D44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="E44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="F44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="G44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="H44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="I44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="S44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="T44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="U44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="V44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="W44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="X44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Y44" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="C45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="D45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="E45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="F45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="G45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="H45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="I45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="S45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="T45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="U45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="V45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="W45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="X45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="C46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="D46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="E46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="F46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="G46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="H46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="I46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="J46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="K46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="L46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="M46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="N46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="O46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="P46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="R46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="S46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="T46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="U46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="V46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="W46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="X46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
     </row>
   </sheetData>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="M17" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="O17" t="n">
-        <v>34.73682390723567</v>
+        <v>33.33331587057971</v>
       </c>
       <c r="P17" t="n">
-        <v>33.33331587057968</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="M18" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>33.33331587057971</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.33331587057968</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.66039700373884</v>
+        <v>12.66039700373888</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="N19" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>34.73682390723567</v>
+        <v>33.33331587057972</v>
       </c>
       <c r="N20" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="O20" t="n">
-        <v>33.33331587057968</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>33.33331587057972</v>
       </c>
       <c r="L21" t="n">
-        <v>33.33331587057968</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="M21" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15.89498660345955</v>
+        <v>15.89498660345959</v>
       </c>
       <c r="L22" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="N22" t="n">
-        <v>34.73682390723567</v>
+        <v>34.73682390723569</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>83.0688352661076</v>
+      </c>
+      <c r="M23" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="M23" t="n">
-        <v>144.5252079399984</v>
-      </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="O23" t="n">
         <v>150.7019698410586</v>
@@ -36445,19 +36445,19 @@
         <v>165.511934200075</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>127.6172058353321</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="N24" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="O24" t="n">
-        <v>32.20078528508469</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>83.0688352661076</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M26" t="n">
-        <v>165.511934200075</v>
+        <v>69.57898615613652</v>
       </c>
       <c r="N26" t="n">
         <v>165.511934200075</v>
@@ -36612,7 +36612,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>88.72906967347673</v>
+        <v>165.511934200075</v>
       </c>
       <c r="N27" t="n">
         <v>165.511934200075</v>
@@ -36691,10 +36691,10 @@
         <v>165.511934200075</v>
       </c>
       <c r="P27" t="n">
-        <v>165.511934200075</v>
+        <v>158.8245833233043</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>165.511934200075</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="N29" t="n">
-        <v>69.57898615613647</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>69.57898615613647</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>158.8245833233044</v>
       </c>
       <c r="M30" t="n">
-        <v>158.8245833233044</v>
+        <v>165.511934200075</v>
       </c>
       <c r="N30" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>165.511934200075</v>
@@ -37074,13 +37074,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M32" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="N32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>88.72906967347673</v>
       </c>
       <c r="L33" t="n">
         <v>165.511934200075</v>
@@ -37159,16 +37159,16 @@
         <v>165.511934200075</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="O33" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.8245833233043</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.51163510007014</v>
+        <v>68.51163510007012</v>
       </c>
       <c r="L34" t="n">
         <v>118.3711521862691</v>
@@ -37238,16 +37238,16 @@
         <v>130.3650038877936</v>
       </c>
       <c r="N34" t="n">
-        <v>130.0675700442987</v>
+        <v>130.0675700442989</v>
       </c>
       <c r="O34" t="n">
-        <v>115.3662548399927</v>
+        <v>115.3662548399926</v>
       </c>
       <c r="P34" t="n">
-        <v>88.05968619084648</v>
+        <v>88.05968619084646</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.619083674258604</v>
+        <v>4.61908367425859</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>68.25887090709122</v>
+        <v>8.122613482245683</v>
       </c>
       <c r="L35" t="n">
         <v>165.511934200075</v>
@@ -37320,10 +37320,10 @@
         <v>165.511934200075</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>165.511934200075</v>
+        <v>88.72906967347673</v>
       </c>
       <c r="M36" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="N36" t="n">
-        <v>158.8245833233043</v>
+        <v>165.511934200075</v>
       </c>
       <c r="O36" t="n">
         <v>165.511934200075</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.51163510007014</v>
+        <v>68.51163510007012</v>
       </c>
       <c r="L37" t="n">
         <v>118.3711521862691</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3650038877936</v>
+        <v>125.519274626911</v>
       </c>
       <c r="N37" t="n">
-        <v>130.0675700442987</v>
+        <v>134.9132993051816</v>
       </c>
       <c r="O37" t="n">
-        <v>115.3662548399927</v>
+        <v>115.3662548399926</v>
       </c>
       <c r="P37" t="n">
-        <v>88.05968619084648</v>
+        <v>88.05968619084646</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.619083674258604</v>
+        <v>4.61908367425859</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>83.0688352661076</v>
       </c>
       <c r="L38" t="n">
         <v>165.511934200075</v>
@@ -37554,13 +37554,13 @@
         <v>165.511934200075</v>
       </c>
       <c r="N38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>8.122613482245667</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>88.72906967347673</v>
+      </c>
+      <c r="N39" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="M39" t="n">
-        <v>88.72906967347674</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>165.511934200075</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.81938806280118</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="L40" t="n">
         <v>117.6789051490002</v>
@@ -37718,10 +37718,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P40" t="n">
-        <v>87.36743915357752</v>
+        <v>87.36743915357751</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.926836636989648</v>
+        <v>3.926836636989634</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>61.64510380316669</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="N41" t="n">
-        <v>130.7751102928394</v>
+        <v>21.43570592654043</v>
       </c>
       <c r="O41" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>125.4912674527246</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>130.7751102928394</v>
+        <v>55.39575380289705</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="O42" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="P42" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.54989623691833</v>
+        <v>45.54989623691831</v>
       </c>
       <c r="L43" t="n">
-        <v>95.40941332311732</v>
+        <v>95.40941332311731</v>
       </c>
       <c r="M43" t="n">
         <v>107.4032650246418</v>
@@ -37952,10 +37952,10 @@
         <v>111.9515604420298</v>
       </c>
       <c r="O43" t="n">
-        <v>92.40451597684086</v>
+        <v>92.40451597684084</v>
       </c>
       <c r="P43" t="n">
-        <v>65.09794732769467</v>
+        <v>65.09794732769465</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="M44" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>130.7751102928394</v>
+        <v>61.64510380316668</v>
       </c>
       <c r="O44" t="n">
-        <v>21.43570592654037</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>129.6425797073444</v>
+        <v>125.4912674527246</v>
       </c>
       <c r="M45" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="O45" t="n">
-        <v>130.7751102928394</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>45.54989623691834</v>
+        <v>45.54989623691831</v>
       </c>
       <c r="L46" t="n">
-        <v>95.40941332311733</v>
+        <v>95.40941332311731</v>
       </c>
       <c r="M46" t="n">
         <v>107.4032650246418</v>
@@ -38189,10 +38189,10 @@
         <v>111.9515604420298</v>
       </c>
       <c r="O46" t="n">
-        <v>92.40451597684087</v>
+        <v>92.40451597684084</v>
       </c>
       <c r="P46" t="n">
-        <v>65.09794732769468</v>
+        <v>65.09794732769465</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
